--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,314 +397,330 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5892</v>
+        <v>5047</v>
       </c>
       <c r="B2" s="2">
-        <v>45687</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5894</v>
+        <v>5011</v>
       </c>
       <c r="B3" s="2">
-        <v>45687.01041666666</v>
+        <v>45733.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5784</v>
+        <v>4991</v>
       </c>
       <c r="B4" s="2">
-        <v>45687.02083333334</v>
+        <v>45733.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5818</v>
+        <v>4939</v>
       </c>
       <c r="B5" s="2">
-        <v>45687.03125</v>
+        <v>45733.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5706</v>
+        <v>4914</v>
       </c>
       <c r="B6" s="2">
-        <v>45687.04166666666</v>
+        <v>45733.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5723</v>
+        <v>4892</v>
       </c>
       <c r="B7" s="2">
-        <v>45687.05208333334</v>
+        <v>45733.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5704</v>
+        <v>4892</v>
       </c>
       <c r="B8" s="2">
-        <v>45687.0625</v>
+        <v>45733.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5674</v>
+        <v>4884</v>
       </c>
       <c r="B9" s="2">
-        <v>45687.07291666666</v>
+        <v>45733.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5633</v>
+        <v>4937</v>
       </c>
       <c r="B10" s="2">
-        <v>45687.08333333334</v>
+        <v>45733.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5677</v>
+        <v>4939</v>
       </c>
       <c r="B11" s="2">
-        <v>45687.09375</v>
+        <v>45733.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5635</v>
+        <v>4922</v>
       </c>
       <c r="B12" s="2">
-        <v>45687.10416666666</v>
+        <v>45733.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5713</v>
+        <v>4975</v>
       </c>
       <c r="B13" s="2">
-        <v>45687.11458333334</v>
+        <v>45733.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5654</v>
+        <v>5044</v>
       </c>
       <c r="B14" s="2">
-        <v>45687.125</v>
+        <v>45733.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5689</v>
+        <v>5015</v>
       </c>
       <c r="B15" s="2">
-        <v>45687.13541666666</v>
+        <v>45733.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5683</v>
+        <v>5038</v>
       </c>
       <c r="B16" s="2">
-        <v>45687.14583333334</v>
+        <v>45733.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5799</v>
+        <v>5139</v>
       </c>
       <c r="B17" s="2">
-        <v>45687.15625</v>
+        <v>45733.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5884</v>
+        <v>5235</v>
       </c>
       <c r="B18" s="2">
-        <v>45687.16666666666</v>
+        <v>45733.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5919</v>
+        <v>5214</v>
       </c>
       <c r="B19" s="2">
-        <v>45687.17708333334</v>
+        <v>45733.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5969</v>
+        <v>5359</v>
       </c>
       <c r="B20" s="2">
-        <v>45687.1875</v>
+        <v>45733.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6099</v>
+        <v>5519</v>
       </c>
       <c r="B21" s="2">
-        <v>45687.19791666666</v>
+        <v>45733.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6314</v>
+        <v>5750</v>
       </c>
       <c r="B22" s="2">
-        <v>45687.20833333334</v>
+        <v>45733.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6428</v>
+        <v>5824</v>
       </c>
       <c r="B23" s="2">
-        <v>45687.21875</v>
+        <v>45733.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6618</v>
+        <v>6006</v>
       </c>
       <c r="B24" s="2">
-        <v>45687.22916666666</v>
+        <v>45733.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6809</v>
+        <v>6215</v>
       </c>
       <c r="B25" s="2">
-        <v>45687.23958333334</v>
+        <v>45733.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7074</v>
+        <v>6517</v>
       </c>
       <c r="B26" s="2">
-        <v>45687.25</v>
+        <v>45733.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7289</v>
+        <v>6680</v>
       </c>
       <c r="B27" s="2">
-        <v>45687.26041666666</v>
+        <v>45733.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7368</v>
+        <v>6867</v>
       </c>
       <c r="B28" s="2">
-        <v>45687.27083333334</v>
+        <v>45733.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7461</v>
+        <v>7012</v>
       </c>
       <c r="B29" s="2">
-        <v>45687.28125</v>
+        <v>45733.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7613</v>
+        <v>7080</v>
       </c>
       <c r="B30" s="2">
-        <v>45687.29166666666</v>
+        <v>45733.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7644</v>
+        <v>7221</v>
       </c>
       <c r="B31" s="2">
-        <v>45687.30208333334</v>
+        <v>45733.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7628</v>
+        <v>7314</v>
       </c>
       <c r="B32" s="2">
-        <v>45687.3125</v>
+        <v>45733.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7638</v>
+        <v>7346</v>
       </c>
       <c r="B33" s="2">
-        <v>45687.32291666666</v>
+        <v>45733.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7621</v>
+        <v>7268</v>
       </c>
       <c r="B34" s="2">
-        <v>45687.33333333334</v>
+        <v>45733.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7579</v>
+        <v>7337</v>
       </c>
       <c r="B35" s="2">
-        <v>45687.34375</v>
+        <v>45733.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7498</v>
+        <v>7359</v>
       </c>
       <c r="B36" s="2">
-        <v>45687.35416666666</v>
+        <v>45733.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7497</v>
+        <v>7222</v>
       </c>
       <c r="B37" s="2">
-        <v>45687.36458333334</v>
+        <v>45733.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7493</v>
+        <v>7179</v>
       </c>
       <c r="B38" s="2">
-        <v>45687.375</v>
+        <v>45733.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7402</v>
+        <v>7178</v>
       </c>
       <c r="B39" s="2">
-        <v>45687.38541666666</v>
+        <v>45733.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7238</v>
+        <v>7154</v>
       </c>
       <c r="B40" s="2">
-        <v>45687.39583333334</v>
+        <v>45733.39583333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>7073</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45733.40625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>7055</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45733.41666666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,330 +397,362 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5047</v>
+        <v>5940</v>
       </c>
       <c r="B2" s="2">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5011</v>
+        <v>5922</v>
       </c>
       <c r="B3" s="2">
-        <v>45733.01041666666</v>
+        <v>45734.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>4991</v>
+        <v>5868</v>
       </c>
       <c r="B4" s="2">
-        <v>45733.02083333334</v>
+        <v>45734.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4939</v>
+        <v>5845</v>
       </c>
       <c r="B5" s="2">
-        <v>45733.03125</v>
+        <v>45734.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>4914</v>
+        <v>5837</v>
       </c>
       <c r="B6" s="2">
-        <v>45733.04166666666</v>
+        <v>45734.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>4892</v>
+        <v>5828</v>
       </c>
       <c r="B7" s="2">
-        <v>45733.05208333334</v>
+        <v>45734.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4892</v>
+        <v>5787</v>
       </c>
       <c r="B8" s="2">
-        <v>45733.0625</v>
+        <v>45734.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4884</v>
+        <v>5752</v>
       </c>
       <c r="B9" s="2">
-        <v>45733.07291666666</v>
+        <v>45734.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4937</v>
+        <v>5693</v>
       </c>
       <c r="B10" s="2">
-        <v>45733.08333333334</v>
+        <v>45734.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4939</v>
+        <v>5761</v>
       </c>
       <c r="B11" s="2">
-        <v>45733.09375</v>
+        <v>45734.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4922</v>
+        <v>5836</v>
       </c>
       <c r="B12" s="2">
-        <v>45733.10416666666</v>
+        <v>45734.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4975</v>
+        <v>5828</v>
       </c>
       <c r="B13" s="2">
-        <v>45733.11458333334</v>
+        <v>45734.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5044</v>
+        <v>5794</v>
       </c>
       <c r="B14" s="2">
-        <v>45733.125</v>
+        <v>45734.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5015</v>
+        <v>5863</v>
       </c>
       <c r="B15" s="2">
-        <v>45733.13541666666</v>
+        <v>45734.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5038</v>
+        <v>5922</v>
       </c>
       <c r="B16" s="2">
-        <v>45733.14583333334</v>
+        <v>45734.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5139</v>
+        <v>5919</v>
       </c>
       <c r="B17" s="2">
-        <v>45733.15625</v>
+        <v>45734.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5235</v>
+        <v>5956</v>
       </c>
       <c r="B18" s="2">
-        <v>45733.16666666666</v>
+        <v>45734.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5214</v>
+        <v>6042</v>
       </c>
       <c r="B19" s="2">
-        <v>45733.17708333334</v>
+        <v>45734.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5359</v>
+        <v>6135</v>
       </c>
       <c r="B20" s="2">
-        <v>45733.1875</v>
+        <v>45734.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5519</v>
+        <v>6217</v>
       </c>
       <c r="B21" s="2">
-        <v>45733.19791666666</v>
+        <v>45734.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5750</v>
+        <v>6350</v>
       </c>
       <c r="B22" s="2">
-        <v>45733.20833333334</v>
+        <v>45734.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5824</v>
+        <v>6496</v>
       </c>
       <c r="B23" s="2">
-        <v>45733.21875</v>
+        <v>45734.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6006</v>
+        <v>6650</v>
       </c>
       <c r="B24" s="2">
-        <v>45733.22916666666</v>
+        <v>45734.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6215</v>
+        <v>6814</v>
       </c>
       <c r="B25" s="2">
-        <v>45733.23958333334</v>
+        <v>45734.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6517</v>
+        <v>7022</v>
       </c>
       <c r="B26" s="2">
-        <v>45733.25</v>
+        <v>45734.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6680</v>
+        <v>7214</v>
       </c>
       <c r="B27" s="2">
-        <v>45733.26041666666</v>
+        <v>45734.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6867</v>
+        <v>7324</v>
       </c>
       <c r="B28" s="2">
-        <v>45733.27083333334</v>
+        <v>45734.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7012</v>
+        <v>7351</v>
       </c>
       <c r="B29" s="2">
-        <v>45733.28125</v>
+        <v>45734.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7080</v>
+        <v>7480</v>
       </c>
       <c r="B30" s="2">
-        <v>45733.29166666666</v>
+        <v>45734.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7221</v>
+        <v>7592</v>
       </c>
       <c r="B31" s="2">
-        <v>45733.30208333334</v>
+        <v>45734.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7314</v>
+        <v>7634</v>
       </c>
       <c r="B32" s="2">
-        <v>45733.3125</v>
+        <v>45734.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7346</v>
+        <v>7515</v>
       </c>
       <c r="B33" s="2">
-        <v>45733.32291666666</v>
+        <v>45734.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7268</v>
+        <v>7528</v>
       </c>
       <c r="B34" s="2">
-        <v>45733.33333333334</v>
+        <v>45734.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7337</v>
+        <v>7466</v>
       </c>
       <c r="B35" s="2">
-        <v>45733.34375</v>
+        <v>45734.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7359</v>
+        <v>7440</v>
       </c>
       <c r="B36" s="2">
-        <v>45733.35416666666</v>
+        <v>45734.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7222</v>
+        <v>7334</v>
       </c>
       <c r="B37" s="2">
-        <v>45733.36458333334</v>
+        <v>45734.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7179</v>
+        <v>7129</v>
       </c>
       <c r="B38" s="2">
-        <v>45733.375</v>
+        <v>45734.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7178</v>
+        <v>7055</v>
       </c>
       <c r="B39" s="2">
-        <v>45733.38541666666</v>
+        <v>45734.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7154</v>
+        <v>6872</v>
       </c>
       <c r="B40" s="2">
-        <v>45733.39583333334</v>
+        <v>45734.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7073</v>
+        <v>6782</v>
       </c>
       <c r="B41" s="2">
-        <v>45733.40625</v>
+        <v>45734.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7055</v>
+        <v>6630</v>
       </c>
       <c r="B42" s="2">
-        <v>45733.41666666666</v>
+        <v>45734.41666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>6520</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45734.42708333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>6408</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45734.4375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>6375</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45734.44791666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>6219</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45734.45833333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,362 +397,402 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5940</v>
+        <v>6035</v>
       </c>
       <c r="B2" s="2">
-        <v>45734</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5922</v>
+        <v>5957</v>
       </c>
       <c r="B3" s="2">
-        <v>45734.01041666666</v>
+        <v>45736.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5868</v>
+        <v>5972</v>
       </c>
       <c r="B4" s="2">
-        <v>45734.02083333334</v>
+        <v>45736.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5845</v>
+        <v>5979</v>
       </c>
       <c r="B5" s="2">
-        <v>45734.03125</v>
+        <v>45736.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5837</v>
+        <v>5907</v>
       </c>
       <c r="B6" s="2">
-        <v>45734.04166666666</v>
+        <v>45736.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5828</v>
+        <v>5857</v>
       </c>
       <c r="B7" s="2">
-        <v>45734.05208333334</v>
+        <v>45736.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5787</v>
+        <v>5863</v>
       </c>
       <c r="B8" s="2">
-        <v>45734.0625</v>
+        <v>45736.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5752</v>
+        <v>5884</v>
       </c>
       <c r="B9" s="2">
-        <v>45734.07291666666</v>
+        <v>45736.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5693</v>
+        <v>5850</v>
       </c>
       <c r="B10" s="2">
-        <v>45734.08333333334</v>
+        <v>45736.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5761</v>
+        <v>5876</v>
       </c>
       <c r="B11" s="2">
-        <v>45734.09375</v>
+        <v>45736.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5836</v>
+        <v>5854</v>
       </c>
       <c r="B12" s="2">
-        <v>45734.10416666666</v>
+        <v>45736.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5828</v>
+        <v>5868</v>
       </c>
       <c r="B13" s="2">
-        <v>45734.11458333334</v>
+        <v>45736.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5794</v>
+        <v>5829</v>
       </c>
       <c r="B14" s="2">
-        <v>45734.125</v>
+        <v>45736.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5863</v>
+        <v>5894</v>
       </c>
       <c r="B15" s="2">
-        <v>45734.13541666666</v>
+        <v>45736.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5922</v>
+        <v>5936</v>
       </c>
       <c r="B16" s="2">
-        <v>45734.14583333334</v>
+        <v>45736.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5919</v>
+        <v>6004</v>
       </c>
       <c r="B17" s="2">
-        <v>45734.15625</v>
+        <v>45736.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5956</v>
+        <v>6044</v>
       </c>
       <c r="B18" s="2">
-        <v>45734.16666666666</v>
+        <v>45736.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6042</v>
+        <v>6074</v>
       </c>
       <c r="B19" s="2">
-        <v>45734.17708333334</v>
+        <v>45736.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6135</v>
+        <v>6184</v>
       </c>
       <c r="B20" s="2">
-        <v>45734.1875</v>
+        <v>45736.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6217</v>
+        <v>6269</v>
       </c>
       <c r="B21" s="2">
-        <v>45734.19791666666</v>
+        <v>45736.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6350</v>
+        <v>6446</v>
       </c>
       <c r="B22" s="2">
-        <v>45734.20833333334</v>
+        <v>45736.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6496</v>
+        <v>6540</v>
       </c>
       <c r="B23" s="2">
-        <v>45734.21875</v>
+        <v>45736.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6650</v>
+        <v>6694</v>
       </c>
       <c r="B24" s="2">
-        <v>45734.22916666666</v>
+        <v>45736.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6814</v>
+        <v>6769</v>
       </c>
       <c r="B25" s="2">
-        <v>45734.23958333334</v>
+        <v>45736.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7022</v>
+        <v>6959</v>
       </c>
       <c r="B26" s="2">
-        <v>45734.25</v>
+        <v>45736.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7214</v>
+        <v>7017</v>
       </c>
       <c r="B27" s="2">
-        <v>45734.26041666666</v>
+        <v>45736.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7324</v>
+        <v>7027</v>
       </c>
       <c r="B28" s="2">
-        <v>45734.27083333334</v>
+        <v>45736.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7351</v>
+        <v>6990</v>
       </c>
       <c r="B29" s="2">
-        <v>45734.28125</v>
+        <v>45736.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7480</v>
+        <v>6926</v>
       </c>
       <c r="B30" s="2">
-        <v>45734.29166666666</v>
+        <v>45736.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7592</v>
+        <v>6869</v>
       </c>
       <c r="B31" s="2">
-        <v>45734.30208333334</v>
+        <v>45736.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7634</v>
+        <v>6791</v>
       </c>
       <c r="B32" s="2">
-        <v>45734.3125</v>
+        <v>45736.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7515</v>
+        <v>6592</v>
       </c>
       <c r="B33" s="2">
-        <v>45734.32291666666</v>
+        <v>45736.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7528</v>
+        <v>6459</v>
       </c>
       <c r="B34" s="2">
-        <v>45734.33333333334</v>
+        <v>45736.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7466</v>
+        <v>6344</v>
       </c>
       <c r="B35" s="2">
-        <v>45734.34375</v>
+        <v>45736.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7440</v>
+        <v>6241</v>
       </c>
       <c r="B36" s="2">
-        <v>45734.35416666666</v>
+        <v>45736.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7334</v>
+        <v>6084</v>
       </c>
       <c r="B37" s="2">
-        <v>45734.36458333334</v>
+        <v>45736.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7129</v>
+        <v>5945</v>
       </c>
       <c r="B38" s="2">
-        <v>45734.375</v>
+        <v>45736.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7055</v>
+        <v>5863</v>
       </c>
       <c r="B39" s="2">
-        <v>45734.38541666666</v>
+        <v>45736.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6872</v>
+        <v>5709</v>
       </c>
       <c r="B40" s="2">
-        <v>45734.39583333334</v>
+        <v>45736.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6782</v>
+        <v>5668</v>
       </c>
       <c r="B41" s="2">
-        <v>45734.40625</v>
+        <v>45736.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6630</v>
+        <v>5522</v>
       </c>
       <c r="B42" s="2">
-        <v>45734.41666666666</v>
+        <v>45736.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6520</v>
+        <v>5457</v>
       </c>
       <c r="B43" s="2">
-        <v>45734.42708333334</v>
+        <v>45736.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6408</v>
+        <v>5455</v>
       </c>
       <c r="B44" s="2">
-        <v>45734.4375</v>
+        <v>45736.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6375</v>
+        <v>5343</v>
       </c>
       <c r="B45" s="2">
-        <v>45734.44791666666</v>
+        <v>45736.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6219</v>
+        <v>5308</v>
       </c>
       <c r="B46" s="2">
-        <v>45734.45833333334</v>
+        <v>45736.45833333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>5226</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45736.46875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>5143</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45736.47916666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>5152</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45736.48958333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>5218</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45736.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>5258</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45736.51041666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,402 +397,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6035</v>
+        <v>5152</v>
       </c>
       <c r="B2" s="2">
-        <v>45736</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5957</v>
+        <v>5127</v>
       </c>
       <c r="B3" s="2">
-        <v>45736.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5972</v>
+        <v>5090</v>
       </c>
       <c r="B4" s="2">
-        <v>45736.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5979</v>
+        <v>5049</v>
       </c>
       <c r="B5" s="2">
-        <v>45736.03125</v>
+        <v>45740.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5907</v>
+        <v>5035</v>
       </c>
       <c r="B6" s="2">
-        <v>45736.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5857</v>
+        <v>5015</v>
       </c>
       <c r="B7" s="2">
-        <v>45736.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5863</v>
+        <v>4989</v>
       </c>
       <c r="B8" s="2">
-        <v>45736.0625</v>
+        <v>45740.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5884</v>
+        <v>4956</v>
       </c>
       <c r="B9" s="2">
-        <v>45736.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5850</v>
+        <v>4965</v>
       </c>
       <c r="B10" s="2">
-        <v>45736.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5876</v>
+        <v>4972</v>
       </c>
       <c r="B11" s="2">
-        <v>45736.09375</v>
+        <v>45740.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5854</v>
+        <v>4968</v>
       </c>
       <c r="B12" s="2">
-        <v>45736.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5868</v>
+        <v>4985</v>
       </c>
       <c r="B13" s="2">
-        <v>45736.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5829</v>
+        <v>5001</v>
       </c>
       <c r="B14" s="2">
-        <v>45736.125</v>
+        <v>45740.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5894</v>
+        <v>5022</v>
       </c>
       <c r="B15" s="2">
-        <v>45736.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5936</v>
+        <v>5059</v>
       </c>
       <c r="B16" s="2">
-        <v>45736.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6004</v>
+        <v>5103</v>
       </c>
       <c r="B17" s="2">
-        <v>45736.15625</v>
+        <v>45740.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6044</v>
+        <v>5246</v>
       </c>
       <c r="B18" s="2">
-        <v>45736.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6074</v>
+        <v>5333</v>
       </c>
       <c r="B19" s="2">
-        <v>45736.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6184</v>
+        <v>5420</v>
       </c>
       <c r="B20" s="2">
-        <v>45736.1875</v>
+        <v>45740.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6269</v>
+        <v>5528</v>
       </c>
       <c r="B21" s="2">
-        <v>45736.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6446</v>
+        <v>5758</v>
       </c>
       <c r="B22" s="2">
-        <v>45736.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6540</v>
+        <v>5863</v>
       </c>
       <c r="B23" s="2">
-        <v>45736.21875</v>
+        <v>45740.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6694</v>
+        <v>6016</v>
       </c>
       <c r="B24" s="2">
-        <v>45736.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6769</v>
+        <v>6211</v>
       </c>
       <c r="B25" s="2">
-        <v>45736.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6959</v>
+        <v>6501</v>
       </c>
       <c r="B26" s="2">
-        <v>45736.25</v>
+        <v>45740.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7017</v>
+        <v>6683</v>
       </c>
       <c r="B27" s="2">
-        <v>45736.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7027</v>
+        <v>6812</v>
       </c>
       <c r="B28" s="2">
-        <v>45736.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6990</v>
+        <v>6886</v>
       </c>
       <c r="B29" s="2">
-        <v>45736.28125</v>
+        <v>45740.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6926</v>
+        <v>7031</v>
       </c>
       <c r="B30" s="2">
-        <v>45736.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6869</v>
+        <v>7044</v>
       </c>
       <c r="B31" s="2">
-        <v>45736.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6791</v>
+        <v>7069</v>
       </c>
       <c r="B32" s="2">
-        <v>45736.3125</v>
+        <v>45740.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6592</v>
+        <v>6997</v>
       </c>
       <c r="B33" s="2">
-        <v>45736.32291666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>6459</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45736.33333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>6344</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45736.34375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>6241</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45736.35416666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>6084</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45736.36458333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>5945</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45736.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>5863</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45736.38541666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>5709</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45736.39583333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>5668</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45736.40625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>5522</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45736.41666666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>5457</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45736.42708333334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>5455</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45736.4375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>5343</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45736.44791666666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>5308</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45736.45833333334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>5226</v>
-      </c>
-      <c r="B47" s="2">
-        <v>45736.46875</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>5143</v>
-      </c>
-      <c r="B48" s="2">
-        <v>45736.47916666666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>5152</v>
-      </c>
-      <c r="B49" s="2">
-        <v>45736.48958333334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>5218</v>
-      </c>
-      <c r="B50" s="2">
-        <v>45736.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>5258</v>
-      </c>
-      <c r="B51" s="2">
-        <v>45736.51041666666</v>
+        <v>45740.32291666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,258 +397,354 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5152</v>
+        <v>5618</v>
       </c>
       <c r="B2" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5127</v>
+        <v>5550</v>
       </c>
       <c r="B3" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5090</v>
+        <v>5514</v>
       </c>
       <c r="B4" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5049</v>
+        <v>5488</v>
       </c>
       <c r="B5" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5035</v>
+        <v>5447</v>
       </c>
       <c r="B6" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5015</v>
+        <v>5414</v>
       </c>
       <c r="B7" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4989</v>
+        <v>5411</v>
       </c>
       <c r="B8" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4956</v>
+        <v>5415</v>
       </c>
       <c r="B9" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4965</v>
+        <v>5330</v>
       </c>
       <c r="B10" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4972</v>
+        <v>5310</v>
       </c>
       <c r="B11" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4968</v>
+        <v>5307</v>
       </c>
       <c r="B12" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4985</v>
+        <v>5318</v>
       </c>
       <c r="B13" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5001</v>
+        <v>5339</v>
       </c>
       <c r="B14" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5022</v>
+        <v>5370</v>
       </c>
       <c r="B15" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5059</v>
+        <v>5422</v>
       </c>
       <c r="B16" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5103</v>
+        <v>5464</v>
       </c>
       <c r="B17" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5246</v>
+        <v>5528</v>
       </c>
       <c r="B18" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5333</v>
+        <v>5592</v>
       </c>
       <c r="B19" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5420</v>
+        <v>5669</v>
       </c>
       <c r="B20" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5528</v>
+        <v>5744</v>
       </c>
       <c r="B21" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5758</v>
+        <v>5856</v>
       </c>
       <c r="B22" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5863</v>
+        <v>5917</v>
       </c>
       <c r="B23" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6016</v>
+        <v>6039</v>
       </c>
       <c r="B24" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6211</v>
+        <v>6176</v>
       </c>
       <c r="B25" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6501</v>
+        <v>6367</v>
       </c>
       <c r="B26" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6683</v>
+        <v>6444</v>
       </c>
       <c r="B27" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6812</v>
+        <v>6526</v>
       </c>
       <c r="B28" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6886</v>
+        <v>6537</v>
       </c>
       <c r="B29" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7031</v>
+        <v>6608</v>
       </c>
       <c r="B30" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7044</v>
+        <v>6527</v>
       </c>
       <c r="B31" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7069</v>
+        <v>6528</v>
       </c>
       <c r="B32" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6997</v>
+        <v>6475</v>
       </c>
       <c r="B33" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>6330</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45741.33333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>6286</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45741.34375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>6184</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45741.35416666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>6101</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45741.36458333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>5946</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45741.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>5894</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45741.38541666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>5772</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45741.39583333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>5729</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45741.40625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>5592</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45741.41666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>5555</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45741.42708333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>5515</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45741.4375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>5564</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45741.44791666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,6 +747,30 @@
         <v>45741.44791666666</v>
       </c>
     </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>5493</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45741.45833333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>5468</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45741.46875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>5553</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45741.47916666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,378 +397,442 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5618</v>
+        <v>5576</v>
       </c>
       <c r="B2" s="2">
-        <v>45741</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5550</v>
+        <v>5531</v>
       </c>
       <c r="B3" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5514</v>
+        <v>5542</v>
       </c>
       <c r="B4" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5488</v>
+        <v>5506</v>
       </c>
       <c r="B5" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5447</v>
+        <v>5466</v>
       </c>
       <c r="B6" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5414</v>
+        <v>5464</v>
       </c>
       <c r="B7" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5411</v>
+        <v>5451</v>
       </c>
       <c r="B8" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5415</v>
+        <v>5420</v>
       </c>
       <c r="B9" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5330</v>
+        <v>5384</v>
       </c>
       <c r="B10" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5310</v>
+        <v>5412</v>
       </c>
       <c r="B11" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5307</v>
+        <v>5410</v>
       </c>
       <c r="B12" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5318</v>
+        <v>5432</v>
       </c>
       <c r="B13" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5339</v>
+        <v>5413</v>
       </c>
       <c r="B14" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5370</v>
+        <v>5461</v>
       </c>
       <c r="B15" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5422</v>
+        <v>5453</v>
       </c>
       <c r="B16" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5464</v>
+        <v>5471</v>
       </c>
       <c r="B17" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5528</v>
+        <v>5561</v>
       </c>
       <c r="B18" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5592</v>
+        <v>5642</v>
       </c>
       <c r="B19" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5669</v>
+        <v>5652</v>
       </c>
       <c r="B20" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5744</v>
+        <v>5739</v>
       </c>
       <c r="B21" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5856</v>
+        <v>5877</v>
       </c>
       <c r="B22" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5917</v>
+        <v>5979</v>
       </c>
       <c r="B23" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6039</v>
+        <v>6169</v>
       </c>
       <c r="B24" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6176</v>
+        <v>6283</v>
       </c>
       <c r="B25" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6367</v>
+        <v>6549</v>
       </c>
       <c r="B26" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6444</v>
+        <v>6780</v>
       </c>
       <c r="B27" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6526</v>
+        <v>6879</v>
       </c>
       <c r="B28" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6537</v>
+        <v>6954</v>
       </c>
       <c r="B29" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6608</v>
+        <v>7072</v>
       </c>
       <c r="B30" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6527</v>
+        <v>7216</v>
       </c>
       <c r="B31" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6528</v>
+        <v>7277</v>
       </c>
       <c r="B32" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6475</v>
+        <v>7349</v>
       </c>
       <c r="B33" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6330</v>
+        <v>7358</v>
       </c>
       <c r="B34" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6286</v>
+        <v>7419</v>
       </c>
       <c r="B35" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6184</v>
+        <v>7371</v>
       </c>
       <c r="B36" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6101</v>
+        <v>7393</v>
       </c>
       <c r="B37" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5946</v>
+        <v>7340</v>
       </c>
       <c r="B38" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5894</v>
+        <v>7287</v>
       </c>
       <c r="B39" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5772</v>
+        <v>7305</v>
       </c>
       <c r="B40" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5729</v>
+        <v>7226</v>
       </c>
       <c r="B41" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5592</v>
+        <v>7139</v>
       </c>
       <c r="B42" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5555</v>
+        <v>7096</v>
       </c>
       <c r="B43" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5515</v>
+        <v>7103</v>
       </c>
       <c r="B44" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5564</v>
+        <v>7043</v>
       </c>
       <c r="B45" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5493</v>
+        <v>6970</v>
       </c>
       <c r="B46" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5468</v>
+        <v>6905</v>
       </c>
       <c r="B47" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5553</v>
+        <v>6863</v>
       </c>
       <c r="B48" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>6786</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45744.48958333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>6654</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45744.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>6641</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45744.51041666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>6623</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45744.52083333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>6613</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45744.53125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>6585</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45744.54166666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>6581</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45744.55208333334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>6510</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45744.5625</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,442 +397,298 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5576</v>
+        <v>5052</v>
       </c>
       <c r="B2" s="2">
-        <v>45744</v>
+        <v>45747.04166666666</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5531</v>
+        <v>5040</v>
       </c>
       <c r="B3" s="2">
-        <v>45744.01041666666</v>
+        <v>45747.05208333334</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5542</v>
+        <v>5057</v>
       </c>
       <c r="B4" s="2">
-        <v>45744.02083333334</v>
+        <v>45747.0625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5506</v>
+        <v>5000</v>
       </c>
       <c r="B5" s="2">
-        <v>45744.03125</v>
+        <v>45747.07291666666</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5466</v>
+        <v>5025</v>
       </c>
       <c r="B6" s="2">
-        <v>45744.04166666666</v>
+        <v>45747.08333333334</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5464</v>
+        <v>5005</v>
       </c>
       <c r="B7" s="2">
-        <v>45744.05208333334</v>
+        <v>45747.09375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5451</v>
+        <v>5005</v>
       </c>
       <c r="B8" s="2">
-        <v>45744.0625</v>
+        <v>45747.10416666666</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5420</v>
+        <v>4977</v>
       </c>
       <c r="B9" s="2">
-        <v>45744.07291666666</v>
+        <v>45747.11458333334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5384</v>
+        <v>5034</v>
       </c>
       <c r="B10" s="2">
-        <v>45744.08333333334</v>
+        <v>45747.125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5412</v>
+        <v>5088</v>
       </c>
       <c r="B11" s="2">
-        <v>45744.09375</v>
+        <v>45747.13541666666</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5410</v>
+        <v>5087</v>
       </c>
       <c r="B12" s="2">
-        <v>45744.10416666666</v>
+        <v>45747.14583333334</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5432</v>
+        <v>5131</v>
       </c>
       <c r="B13" s="2">
-        <v>45744.11458333334</v>
+        <v>45747.15625</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5413</v>
+        <v>5219</v>
       </c>
       <c r="B14" s="2">
-        <v>45744.125</v>
+        <v>45747.16666666666</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5461</v>
+        <v>5301</v>
       </c>
       <c r="B15" s="2">
-        <v>45744.13541666666</v>
+        <v>45747.17708333334</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5453</v>
+        <v>5345</v>
       </c>
       <c r="B16" s="2">
-        <v>45744.14583333334</v>
+        <v>45747.1875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5471</v>
+        <v>5476</v>
       </c>
       <c r="B17" s="2">
-        <v>45744.15625</v>
+        <v>45747.19791666666</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5561</v>
+        <v>5751</v>
       </c>
       <c r="B18" s="2">
-        <v>45744.16666666666</v>
+        <v>45747.20833333334</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5642</v>
+        <v>5900</v>
       </c>
       <c r="B19" s="2">
-        <v>45744.17708333334</v>
+        <v>45747.21875</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5652</v>
+        <v>6012</v>
       </c>
       <c r="B20" s="2">
-        <v>45744.1875</v>
+        <v>45747.22916666666</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5739</v>
+        <v>6232</v>
       </c>
       <c r="B21" s="2">
-        <v>45744.19791666666</v>
+        <v>45747.23958333334</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5877</v>
+        <v>6635</v>
       </c>
       <c r="B22" s="2">
-        <v>45744.20833333334</v>
+        <v>45747.25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5979</v>
+        <v>6777</v>
       </c>
       <c r="B23" s="2">
-        <v>45744.21875</v>
+        <v>45747.26041666666</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6169</v>
+        <v>6824</v>
       </c>
       <c r="B24" s="2">
-        <v>45744.22916666666</v>
+        <v>45747.27083333334</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6283</v>
+        <v>6958</v>
       </c>
       <c r="B25" s="2">
-        <v>45744.23958333334</v>
+        <v>45747.28125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6549</v>
+        <v>7146</v>
       </c>
       <c r="B26" s="2">
-        <v>45744.25</v>
+        <v>45747.29166666666</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6780</v>
+        <v>7282</v>
       </c>
       <c r="B27" s="2">
-        <v>45744.26041666666</v>
+        <v>45747.30208333334</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6879</v>
+        <v>7262</v>
       </c>
       <c r="B28" s="2">
-        <v>45744.27083333334</v>
+        <v>45747.3125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6954</v>
+        <v>7321</v>
       </c>
       <c r="B29" s="2">
-        <v>45744.28125</v>
+        <v>45747.32291666666</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7072</v>
+        <v>7280</v>
       </c>
       <c r="B30" s="2">
-        <v>45744.29166666666</v>
+        <v>45747.33333333334</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7216</v>
+        <v>7247</v>
       </c>
       <c r="B31" s="2">
-        <v>45744.30208333334</v>
+        <v>45747.34375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7277</v>
+        <v>7132</v>
       </c>
       <c r="B32" s="2">
-        <v>45744.3125</v>
+        <v>45747.35416666666</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7349</v>
+        <v>7114</v>
       </c>
       <c r="B33" s="2">
-        <v>45744.32291666666</v>
+        <v>45747.36458333334</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7358</v>
+        <v>7014</v>
       </c>
       <c r="B34" s="2">
-        <v>45744.33333333334</v>
+        <v>45747.375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7419</v>
+        <v>6966</v>
       </c>
       <c r="B35" s="2">
-        <v>45744.34375</v>
+        <v>45747.38541666666</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7371</v>
+        <v>6814</v>
       </c>
       <c r="B36" s="2">
-        <v>45744.35416666666</v>
+        <v>45747.39583333334</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7393</v>
+        <v>6790</v>
       </c>
       <c r="B37" s="2">
-        <v>45744.36458333334</v>
+        <v>45747.40625</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7340</v>
+        <v>6619</v>
       </c>
       <c r="B38" s="2">
-        <v>45744.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>7287</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45744.38541666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>7305</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45744.39583333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>7226</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45744.40625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>7139</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45744.41666666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>7096</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45744.42708333334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>7103</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45744.4375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>7043</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45744.44791666666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>6970</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45744.45833333334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>6905</v>
-      </c>
-      <c r="B47" s="2">
-        <v>45744.46875</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>6863</v>
-      </c>
-      <c r="B48" s="2">
-        <v>45744.47916666666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>6786</v>
-      </c>
-      <c r="B49" s="2">
-        <v>45744.48958333334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>6654</v>
-      </c>
-      <c r="B50" s="2">
-        <v>45744.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>6641</v>
-      </c>
-      <c r="B51" s="2">
-        <v>45744.51041666666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>6623</v>
-      </c>
-      <c r="B52" s="2">
-        <v>45744.52083333334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>6613</v>
-      </c>
-      <c r="B53" s="2">
-        <v>45744.53125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>6585</v>
-      </c>
-      <c r="B54" s="2">
-        <v>45744.54166666666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>6581</v>
-      </c>
-      <c r="B55" s="2">
-        <v>45744.55208333334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>6510</v>
-      </c>
-      <c r="B56" s="2">
-        <v>45744.5625</v>
+        <v>45747.41666666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,6 +691,70 @@
         <v>45747.41666666666</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>6508</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45747.42708333334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>6478</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45747.4375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>6320</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45747.44791666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>6226</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45747.45833333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>6202</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45747.46875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>6204</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45747.47916666666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>6111</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45747.48958333334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>6112</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45747.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,362 +397,522 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5052</v>
+        <v>5730</v>
       </c>
       <c r="B2" s="2">
-        <v>45747.04166666666</v>
+        <v>45751</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5040</v>
+        <v>5733</v>
       </c>
       <c r="B3" s="2">
-        <v>45747.05208333334</v>
+        <v>45751.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5057</v>
+        <v>5665</v>
       </c>
       <c r="B4" s="2">
-        <v>45747.0625</v>
+        <v>45751.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5000</v>
+        <v>5673</v>
       </c>
       <c r="B5" s="2">
-        <v>45747.07291666666</v>
+        <v>45751.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5025</v>
+        <v>5580</v>
       </c>
       <c r="B6" s="2">
-        <v>45747.08333333334</v>
+        <v>45751.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5005</v>
+        <v>5589</v>
       </c>
       <c r="B7" s="2">
-        <v>45747.09375</v>
+        <v>45751.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5005</v>
+        <v>5556</v>
       </c>
       <c r="B8" s="2">
-        <v>45747.10416666666</v>
+        <v>45751.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4977</v>
+        <v>5612</v>
       </c>
       <c r="B9" s="2">
-        <v>45747.11458333334</v>
+        <v>45751.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5034</v>
+        <v>5527</v>
       </c>
       <c r="B10" s="2">
-        <v>45747.125</v>
+        <v>45751.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5088</v>
+        <v>5512</v>
       </c>
       <c r="B11" s="2">
-        <v>45747.13541666666</v>
+        <v>45751.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5087</v>
+        <v>5488</v>
       </c>
       <c r="B12" s="2">
-        <v>45747.14583333334</v>
+        <v>45751.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5131</v>
+        <v>5506</v>
       </c>
       <c r="B13" s="2">
-        <v>45747.15625</v>
+        <v>45751.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5219</v>
+        <v>5579</v>
       </c>
       <c r="B14" s="2">
-        <v>45747.16666666666</v>
+        <v>45751.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5301</v>
+        <v>5536</v>
       </c>
       <c r="B15" s="2">
-        <v>45747.17708333334</v>
+        <v>45751.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5345</v>
+        <v>5566</v>
       </c>
       <c r="B16" s="2">
-        <v>45747.1875</v>
+        <v>45751.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5476</v>
+        <v>5590</v>
       </c>
       <c r="B17" s="2">
-        <v>45747.19791666666</v>
+        <v>45751.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5751</v>
+        <v>5692</v>
       </c>
       <c r="B18" s="2">
-        <v>45747.20833333334</v>
+        <v>45751.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5900</v>
+        <v>5698</v>
       </c>
       <c r="B19" s="2">
-        <v>45747.21875</v>
+        <v>45751.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6012</v>
+        <v>5790</v>
       </c>
       <c r="B20" s="2">
-        <v>45747.22916666666</v>
+        <v>45751.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6232</v>
+        <v>5879</v>
       </c>
       <c r="B21" s="2">
-        <v>45747.23958333334</v>
+        <v>45751.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6635</v>
+        <v>6008</v>
       </c>
       <c r="B22" s="2">
-        <v>45747.25</v>
+        <v>45751.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6777</v>
+        <v>6131</v>
       </c>
       <c r="B23" s="2">
-        <v>45747.26041666666</v>
+        <v>45751.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6824</v>
+        <v>6228</v>
       </c>
       <c r="B24" s="2">
-        <v>45747.27083333334</v>
+        <v>45751.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6958</v>
+        <v>6403</v>
       </c>
       <c r="B25" s="2">
-        <v>45747.28125</v>
+        <v>45751.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7146</v>
+        <v>6685</v>
       </c>
       <c r="B26" s="2">
-        <v>45747.29166666666</v>
+        <v>45751.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7282</v>
+        <v>6825</v>
       </c>
       <c r="B27" s="2">
-        <v>45747.30208333334</v>
+        <v>45751.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7262</v>
+        <v>6924</v>
       </c>
       <c r="B28" s="2">
-        <v>45747.3125</v>
+        <v>45751.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7321</v>
+        <v>6980</v>
       </c>
       <c r="B29" s="2">
-        <v>45747.32291666666</v>
+        <v>45751.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7280</v>
+        <v>7055</v>
       </c>
       <c r="B30" s="2">
-        <v>45747.33333333334</v>
+        <v>45751.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7247</v>
+        <v>7078</v>
       </c>
       <c r="B31" s="2">
-        <v>45747.34375</v>
+        <v>45751.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7132</v>
+        <v>7098</v>
       </c>
       <c r="B32" s="2">
-        <v>45747.35416666666</v>
+        <v>45751.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7114</v>
+        <v>7009</v>
       </c>
       <c r="B33" s="2">
-        <v>45747.36458333334</v>
+        <v>45751.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7014</v>
+        <v>6976</v>
       </c>
       <c r="B34" s="2">
-        <v>45747.375</v>
+        <v>45751.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6966</v>
+        <v>6911</v>
       </c>
       <c r="B35" s="2">
-        <v>45747.38541666666</v>
+        <v>45751.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6814</v>
+        <v>6816</v>
       </c>
       <c r="B36" s="2">
-        <v>45747.39583333334</v>
+        <v>45751.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6790</v>
+        <v>6639</v>
       </c>
       <c r="B37" s="2">
-        <v>45747.40625</v>
+        <v>45751.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6619</v>
+        <v>6585</v>
       </c>
       <c r="B38" s="2">
-        <v>45747.41666666666</v>
+        <v>45751.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6508</v>
+        <v>6476</v>
       </c>
       <c r="B39" s="2">
-        <v>45747.42708333334</v>
+        <v>45751.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6478</v>
+        <v>6404</v>
       </c>
       <c r="B40" s="2">
-        <v>45747.4375</v>
+        <v>45751.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6320</v>
+        <v>6288</v>
       </c>
       <c r="B41" s="2">
-        <v>45747.44791666666</v>
+        <v>45751.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6226</v>
+        <v>6175</v>
       </c>
       <c r="B42" s="2">
-        <v>45747.45833333334</v>
+        <v>45751.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6202</v>
+        <v>6149</v>
       </c>
       <c r="B43" s="2">
-        <v>45747.46875</v>
+        <v>45751.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6204</v>
+        <v>6072</v>
       </c>
       <c r="B44" s="2">
-        <v>45747.47916666666</v>
+        <v>45751.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6111</v>
+        <v>6024</v>
       </c>
       <c r="B45" s="2">
-        <v>45747.48958333334</v>
+        <v>45751.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6112</v>
+        <v>5941</v>
       </c>
       <c r="B46" s="2">
-        <v>45747.5</v>
+        <v>45751.45833333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>5852</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45751.46875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>5834</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45751.47916666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>5851</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45751.48958333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>5892</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45751.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>5816</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45751.51041666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>5770</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45751.52083333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>5823</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45751.53125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>5853</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45751.54166666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>5826</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45751.55208333334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>5779</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45751.5625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>5824</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45751.57291666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>5805</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45751.58333333334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>5799</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45751.59375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>5838</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45751.60416666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>5912</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45751.61458333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>5950</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45751.625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>5949</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45751.63541666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>6020</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45751.64583333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>6077</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45751.65625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>6269</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45751.66666666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,522 +397,298 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5730</v>
+        <v>6240</v>
       </c>
       <c r="B2" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5733</v>
+        <v>6138</v>
       </c>
       <c r="B3" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5665</v>
+        <v>6107</v>
       </c>
       <c r="B4" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5673</v>
+        <v>6062</v>
       </c>
       <c r="B5" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5580</v>
+        <v>6033</v>
       </c>
       <c r="B6" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5589</v>
+        <v>5991</v>
       </c>
       <c r="B7" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5556</v>
+        <v>6040</v>
       </c>
       <c r="B8" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5612</v>
+        <v>6024</v>
       </c>
       <c r="B9" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5527</v>
+        <v>5987</v>
       </c>
       <c r="B10" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5512</v>
+        <v>6006</v>
       </c>
       <c r="B11" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5488</v>
+        <v>5961</v>
       </c>
       <c r="B12" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5506</v>
+        <v>5981</v>
       </c>
       <c r="B13" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5579</v>
+        <v>5995</v>
       </c>
       <c r="B14" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5536</v>
+        <v>6026</v>
       </c>
       <c r="B15" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5566</v>
+        <v>6051</v>
       </c>
       <c r="B16" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5590</v>
+        <v>6101</v>
       </c>
       <c r="B17" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5692</v>
+        <v>6113</v>
       </c>
       <c r="B18" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5698</v>
+        <v>6204</v>
       </c>
       <c r="B19" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5790</v>
+        <v>6245</v>
       </c>
       <c r="B20" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5879</v>
+        <v>6361</v>
       </c>
       <c r="B21" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6008</v>
+        <v>6525</v>
       </c>
       <c r="B22" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6131</v>
+        <v>6628</v>
       </c>
       <c r="B23" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6228</v>
+        <v>6773</v>
       </c>
       <c r="B24" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6403</v>
+        <v>6911</v>
       </c>
       <c r="B25" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6685</v>
+        <v>7122</v>
       </c>
       <c r="B26" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6825</v>
+        <v>7330</v>
       </c>
       <c r="B27" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6924</v>
+        <v>7470</v>
       </c>
       <c r="B28" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6980</v>
+        <v>7562</v>
       </c>
       <c r="B29" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7055</v>
+        <v>7616</v>
       </c>
       <c r="B30" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7078</v>
+        <v>7690</v>
       </c>
       <c r="B31" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7098</v>
+        <v>7721</v>
       </c>
       <c r="B32" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7009</v>
+        <v>7617</v>
       </c>
       <c r="B33" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6976</v>
+        <v>7533</v>
       </c>
       <c r="B34" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6911</v>
+        <v>7608</v>
       </c>
       <c r="B35" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6816</v>
+        <v>7578</v>
       </c>
       <c r="B36" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6639</v>
+        <v>7476</v>
       </c>
       <c r="B37" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6585</v>
+        <v>7382</v>
       </c>
       <c r="B38" s="2">
-        <v>45751.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>6476</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45751.38541666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>6404</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45751.39583333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>6288</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45751.40625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>6175</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45751.41666666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>6149</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45751.42708333334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>6072</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45751.4375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>6024</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45751.44791666666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>5941</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45751.45833333334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>5852</v>
-      </c>
-      <c r="B47" s="2">
-        <v>45751.46875</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>5834</v>
-      </c>
-      <c r="B48" s="2">
-        <v>45751.47916666666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>5851</v>
-      </c>
-      <c r="B49" s="2">
-        <v>45751.48958333334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>5892</v>
-      </c>
-      <c r="B50" s="2">
-        <v>45751.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>5816</v>
-      </c>
-      <c r="B51" s="2">
-        <v>45751.51041666666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>5770</v>
-      </c>
-      <c r="B52" s="2">
-        <v>45751.52083333334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>5823</v>
-      </c>
-      <c r="B53" s="2">
-        <v>45751.53125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>5853</v>
-      </c>
-      <c r="B54" s="2">
-        <v>45751.54166666666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>5826</v>
-      </c>
-      <c r="B55" s="2">
-        <v>45751.55208333334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>5779</v>
-      </c>
-      <c r="B56" s="2">
-        <v>45751.5625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>5824</v>
-      </c>
-      <c r="B57" s="2">
-        <v>45751.57291666666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>5805</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45751.58333333334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>5799</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45751.59375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>5838</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45751.60416666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>5912</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45751.61458333334</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>5950</v>
-      </c>
-      <c r="B62" s="2">
-        <v>45751.625</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>5949</v>
-      </c>
-      <c r="B63" s="2">
-        <v>45751.63541666666</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>6020</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45751.64583333334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>6077</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45751.65625</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>6269</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.375</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,298 +397,306 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6240</v>
+        <v>5361</v>
       </c>
       <c r="B2" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6138</v>
+        <v>5319</v>
       </c>
       <c r="B3" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6107</v>
+        <v>5244</v>
       </c>
       <c r="B4" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6062</v>
+        <v>5291</v>
       </c>
       <c r="B5" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>6033</v>
+        <v>5231</v>
       </c>
       <c r="B6" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5991</v>
+        <v>5220</v>
       </c>
       <c r="B7" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6040</v>
+        <v>5166</v>
       </c>
       <c r="B8" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6024</v>
+        <v>5164</v>
       </c>
       <c r="B9" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5987</v>
+        <v>5135</v>
       </c>
       <c r="B10" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>6006</v>
+        <v>5122</v>
       </c>
       <c r="B11" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5961</v>
+        <v>5098</v>
       </c>
       <c r="B12" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5981</v>
+        <v>5145</v>
       </c>
       <c r="B13" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5995</v>
+        <v>5179</v>
       </c>
       <c r="B14" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>6026</v>
+        <v>5172</v>
       </c>
       <c r="B15" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>6051</v>
+        <v>5196</v>
       </c>
       <c r="B16" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6101</v>
+        <v>5258</v>
       </c>
       <c r="B17" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6113</v>
+        <v>5319</v>
       </c>
       <c r="B18" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6204</v>
+        <v>5315</v>
       </c>
       <c r="B19" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6245</v>
+        <v>5409</v>
       </c>
       <c r="B20" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6361</v>
+        <v>5469</v>
       </c>
       <c r="B21" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6525</v>
+        <v>5624</v>
       </c>
       <c r="B22" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6628</v>
+        <v>5659</v>
       </c>
       <c r="B23" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6773</v>
+        <v>5770</v>
       </c>
       <c r="B24" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6911</v>
+        <v>5864</v>
       </c>
       <c r="B25" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7122</v>
+        <v>6049</v>
       </c>
       <c r="B26" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7330</v>
+        <v>6144</v>
       </c>
       <c r="B27" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7470</v>
+        <v>6175</v>
       </c>
       <c r="B28" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7562</v>
+        <v>6170</v>
       </c>
       <c r="B29" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7616</v>
+        <v>6108</v>
       </c>
       <c r="B30" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7690</v>
+        <v>6080</v>
       </c>
       <c r="B31" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7721</v>
+        <v>6022</v>
       </c>
       <c r="B32" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7617</v>
+        <v>5981</v>
       </c>
       <c r="B33" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7533</v>
+        <v>5736</v>
       </c>
       <c r="B34" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7608</v>
+        <v>5682</v>
       </c>
       <c r="B35" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7578</v>
+        <v>5572</v>
       </c>
       <c r="B36" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7476</v>
+        <v>5440</v>
       </c>
       <c r="B37" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7382</v>
+        <v>5198</v>
       </c>
       <c r="B38" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>5107</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45776.38541666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,306 +397,202 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5361</v>
+        <v>5279</v>
       </c>
       <c r="B2" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5319</v>
+        <v>5265</v>
       </c>
       <c r="B3" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5244</v>
+        <v>5297</v>
       </c>
       <c r="B4" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5291</v>
+        <v>5226</v>
       </c>
       <c r="B5" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5231</v>
+        <v>5183</v>
       </c>
       <c r="B6" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5220</v>
+        <v>5172</v>
       </c>
       <c r="B7" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5166</v>
+        <v>5168</v>
       </c>
       <c r="B8" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5164</v>
+        <v>5135</v>
       </c>
       <c r="B9" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5135</v>
+        <v>5061</v>
       </c>
       <c r="B10" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5122</v>
+        <v>5097</v>
       </c>
       <c r="B11" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5098</v>
+        <v>5063</v>
       </c>
       <c r="B12" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5145</v>
+        <v>5097</v>
       </c>
       <c r="B13" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5179</v>
+        <v>5124</v>
       </c>
       <c r="B14" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5172</v>
+        <v>5111</v>
       </c>
       <c r="B15" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5196</v>
+        <v>5157</v>
       </c>
       <c r="B16" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5258</v>
+        <v>5181</v>
       </c>
       <c r="B17" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5319</v>
+        <v>5240</v>
       </c>
       <c r="B18" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5315</v>
+        <v>5239</v>
       </c>
       <c r="B19" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5409</v>
+        <v>5239</v>
       </c>
       <c r="B20" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5469</v>
+        <v>5255</v>
       </c>
       <c r="B21" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5624</v>
+        <v>5307</v>
       </c>
       <c r="B22" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5659</v>
+        <v>5417</v>
       </c>
       <c r="B23" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5770</v>
+        <v>5522</v>
       </c>
       <c r="B24" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5864</v>
+        <v>5657</v>
       </c>
       <c r="B25" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6049</v>
+        <v>5807</v>
       </c>
       <c r="B26" s="2">
-        <v>45776.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>6144</v>
-      </c>
-      <c r="B27" s="2">
-        <v>45776.26041666666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>6175</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45776.27083333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>6170</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45776.28125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>6108</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45776.29166666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>6080</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45776.30208333334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>6022</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45776.3125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>5981</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45776.32291666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>5736</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45776.33333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>5682</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45776.34375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>5572</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45776.35416666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>5440</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45776.36458333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>5198</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45776.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>5107</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.25</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,202 +397,314 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5279</v>
+        <v>5376</v>
       </c>
       <c r="B2" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5265</v>
+        <v>5355</v>
       </c>
       <c r="B3" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5297</v>
+        <v>5348</v>
       </c>
       <c r="B4" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5226</v>
+        <v>5284</v>
       </c>
       <c r="B5" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5183</v>
+        <v>5230</v>
       </c>
       <c r="B6" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5172</v>
+        <v>5221</v>
       </c>
       <c r="B7" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="B8" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5135</v>
+        <v>5197</v>
       </c>
       <c r="B9" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5061</v>
+        <v>5159</v>
       </c>
       <c r="B10" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5097</v>
+        <v>5131</v>
       </c>
       <c r="B11" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5063</v>
+        <v>5124</v>
       </c>
       <c r="B12" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5097</v>
+        <v>5163</v>
       </c>
       <c r="B13" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5124</v>
+        <v>5247</v>
       </c>
       <c r="B14" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5111</v>
+        <v>5190</v>
       </c>
       <c r="B15" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5157</v>
+        <v>5249</v>
       </c>
       <c r="B16" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5181</v>
+        <v>5234</v>
       </c>
       <c r="B17" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5240</v>
+        <v>5337</v>
       </c>
       <c r="B18" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5239</v>
+        <v>5309</v>
       </c>
       <c r="B19" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5239</v>
+        <v>5342</v>
       </c>
       <c r="B20" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5255</v>
+        <v>5347</v>
       </c>
       <c r="B21" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5307</v>
+        <v>5505</v>
       </c>
       <c r="B22" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5417</v>
+        <v>5582</v>
       </c>
       <c r="B23" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5522</v>
+        <v>5686</v>
       </c>
       <c r="B24" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5657</v>
+        <v>5735</v>
       </c>
       <c r="B25" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
+        <v>5920</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45797.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>5975</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45797.26041666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>6003</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45797.27083333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>5979</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45797.28125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>6017</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45797.29166666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>6000</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45797.30208333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>5899</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45797.3125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
         <v>5807</v>
       </c>
-      <c r="B26" s="2">
-        <v>45786.25</v>
+      <c r="B33" s="2">
+        <v>45797.32291666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>5652</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45797.33333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>5556</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45797.34375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>5471</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45797.35416666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>5371</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45797.36458333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>5346</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45797.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>5320</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45797.38541666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>5220</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45797.39583333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,314 +397,346 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5376</v>
+        <v>5266</v>
       </c>
       <c r="B2" s="2">
-        <v>45797</v>
+        <v>45799</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5355</v>
+        <v>5262</v>
       </c>
       <c r="B3" s="2">
-        <v>45797.01041666666</v>
+        <v>45799.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5348</v>
+        <v>5182</v>
       </c>
       <c r="B4" s="2">
-        <v>45797.02083333334</v>
+        <v>45799.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5284</v>
+        <v>5202</v>
       </c>
       <c r="B5" s="2">
-        <v>45797.03125</v>
+        <v>45799.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5230</v>
+        <v>5128</v>
       </c>
       <c r="B6" s="2">
-        <v>45797.04166666666</v>
+        <v>45799.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5221</v>
+        <v>5089</v>
       </c>
       <c r="B7" s="2">
-        <v>45797.05208333334</v>
+        <v>45799.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5166</v>
+        <v>5084</v>
       </c>
       <c r="B8" s="2">
-        <v>45797.0625</v>
+        <v>45799.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5197</v>
+        <v>5047</v>
       </c>
       <c r="B9" s="2">
-        <v>45797.07291666666</v>
+        <v>45799.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5159</v>
+        <v>5012</v>
       </c>
       <c r="B10" s="2">
-        <v>45797.08333333334</v>
+        <v>45799.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5131</v>
+        <v>5084</v>
       </c>
       <c r="B11" s="2">
-        <v>45797.09375</v>
+        <v>45799.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5124</v>
+        <v>5034</v>
       </c>
       <c r="B12" s="2">
-        <v>45797.10416666666</v>
+        <v>45799.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5163</v>
+        <v>5067</v>
       </c>
       <c r="B13" s="2">
-        <v>45797.11458333334</v>
+        <v>45799.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5247</v>
+        <v>5064</v>
       </c>
       <c r="B14" s="2">
-        <v>45797.125</v>
+        <v>45799.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5190</v>
+        <v>5111</v>
       </c>
       <c r="B15" s="2">
-        <v>45797.13541666666</v>
+        <v>45799.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5249</v>
+        <v>5132</v>
       </c>
       <c r="B16" s="2">
-        <v>45797.14583333334</v>
+        <v>45799.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5234</v>
+        <v>5154</v>
       </c>
       <c r="B17" s="2">
-        <v>45797.15625</v>
+        <v>45799.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5337</v>
+        <v>5221</v>
       </c>
       <c r="B18" s="2">
-        <v>45797.16666666666</v>
+        <v>45799.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5309</v>
+        <v>5194</v>
       </c>
       <c r="B19" s="2">
-        <v>45797.17708333334</v>
+        <v>45799.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5342</v>
+        <v>5209</v>
       </c>
       <c r="B20" s="2">
-        <v>45797.1875</v>
+        <v>45799.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5347</v>
+        <v>5230</v>
       </c>
       <c r="B21" s="2">
-        <v>45797.19791666666</v>
+        <v>45799.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5505</v>
+        <v>5342</v>
       </c>
       <c r="B22" s="2">
-        <v>45797.20833333334</v>
+        <v>45799.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5582</v>
+        <v>5492</v>
       </c>
       <c r="B23" s="2">
-        <v>45797.21875</v>
+        <v>45799.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5686</v>
+        <v>5555</v>
       </c>
       <c r="B24" s="2">
-        <v>45797.22916666666</v>
+        <v>45799.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5735</v>
+        <v>5686</v>
       </c>
       <c r="B25" s="2">
-        <v>45797.23958333334</v>
+        <v>45799.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5920</v>
+        <v>5902</v>
       </c>
       <c r="B26" s="2">
-        <v>45797.25</v>
+        <v>45799.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5975</v>
+        <v>6045</v>
       </c>
       <c r="B27" s="2">
-        <v>45797.26041666666</v>
+        <v>45799.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6003</v>
+        <v>6032</v>
       </c>
       <c r="B28" s="2">
-        <v>45797.27083333334</v>
+        <v>45799.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5979</v>
+        <v>6068</v>
       </c>
       <c r="B29" s="2">
-        <v>45797.28125</v>
+        <v>45799.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6017</v>
+        <v>6172</v>
       </c>
       <c r="B30" s="2">
-        <v>45797.29166666666</v>
+        <v>45799.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6000</v>
+        <v>6214</v>
       </c>
       <c r="B31" s="2">
-        <v>45797.30208333334</v>
+        <v>45799.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5899</v>
+        <v>6213</v>
       </c>
       <c r="B32" s="2">
-        <v>45797.3125</v>
+        <v>45799.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5807</v>
+        <v>6138</v>
       </c>
       <c r="B33" s="2">
-        <v>45797.32291666666</v>
+        <v>45799.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5652</v>
+        <v>6175</v>
       </c>
       <c r="B34" s="2">
-        <v>45797.33333333334</v>
+        <v>45799.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5556</v>
+        <v>6167</v>
       </c>
       <c r="B35" s="2">
-        <v>45797.34375</v>
+        <v>45799.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5471</v>
+        <v>6131</v>
       </c>
       <c r="B36" s="2">
-        <v>45797.35416666666</v>
+        <v>45799.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5371</v>
+        <v>5951</v>
       </c>
       <c r="B37" s="2">
-        <v>45797.36458333334</v>
+        <v>45799.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5346</v>
+        <v>5834</v>
       </c>
       <c r="B38" s="2">
-        <v>45797.375</v>
+        <v>45799.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5320</v>
+        <v>5697</v>
       </c>
       <c r="B39" s="2">
-        <v>45797.38541666666</v>
+        <v>45799.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5220</v>
+        <v>5630</v>
       </c>
       <c r="B40" s="2">
-        <v>45797.39583333334</v>
+        <v>45799.39583333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>5509</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45799.40625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>5303</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45799.41666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>5208</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45799.42708333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>5232</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45799.4375</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,346 +397,210 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5266</v>
+        <v>5283</v>
       </c>
       <c r="B2" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5262</v>
+        <v>5275</v>
       </c>
       <c r="B3" s="2">
-        <v>45799.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5182</v>
+        <v>5255</v>
       </c>
       <c r="B4" s="2">
-        <v>45799.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5202</v>
+        <v>5187</v>
       </c>
       <c r="B5" s="2">
-        <v>45799.03125</v>
+        <v>45807.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5128</v>
+        <v>5103</v>
       </c>
       <c r="B6" s="2">
-        <v>45799.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5089</v>
+        <v>5067</v>
       </c>
       <c r="B7" s="2">
-        <v>45799.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5084</v>
+        <v>5077</v>
       </c>
       <c r="B8" s="2">
-        <v>45799.0625</v>
+        <v>45807.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5047</v>
+        <v>5042</v>
       </c>
       <c r="B9" s="2">
-        <v>45799.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5012</v>
+        <v>5058</v>
       </c>
       <c r="B10" s="2">
-        <v>45799.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5084</v>
+        <v>5026</v>
       </c>
       <c r="B11" s="2">
-        <v>45799.09375</v>
+        <v>45807.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5034</v>
+        <v>5113</v>
       </c>
       <c r="B12" s="2">
-        <v>45799.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5067</v>
+        <v>5056</v>
       </c>
       <c r="B13" s="2">
-        <v>45799.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5064</v>
+        <v>5007</v>
       </c>
       <c r="B14" s="2">
-        <v>45799.125</v>
+        <v>45807.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5111</v>
+        <v>5017</v>
       </c>
       <c r="B15" s="2">
-        <v>45799.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5132</v>
+        <v>5048</v>
       </c>
       <c r="B16" s="2">
-        <v>45799.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5154</v>
+        <v>5010</v>
       </c>
       <c r="B17" s="2">
-        <v>45799.15625</v>
+        <v>45807.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5221</v>
+        <v>5047</v>
       </c>
       <c r="B18" s="2">
-        <v>45799.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5194</v>
+        <v>5045</v>
       </c>
       <c r="B19" s="2">
-        <v>45799.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5209</v>
+        <v>5055</v>
       </c>
       <c r="B20" s="2">
-        <v>45799.1875</v>
+        <v>45807.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5230</v>
+        <v>5068</v>
       </c>
       <c r="B21" s="2">
-        <v>45799.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5342</v>
+        <v>5286</v>
       </c>
       <c r="B22" s="2">
-        <v>45799.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5492</v>
+        <v>5405</v>
       </c>
       <c r="B23" s="2">
-        <v>45799.21875</v>
+        <v>45807.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5555</v>
+        <v>5477</v>
       </c>
       <c r="B24" s="2">
-        <v>45799.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5686</v>
+        <v>5601</v>
       </c>
       <c r="B25" s="2">
-        <v>45799.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5902</v>
+        <v>5852</v>
       </c>
       <c r="B26" s="2">
-        <v>45799.25</v>
+        <v>45807.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6045</v>
+        <v>6007</v>
       </c>
       <c r="B27" s="2">
-        <v>45799.26041666666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>6032</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45799.27083333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>6068</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45799.28125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>6172</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45799.29166666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>6214</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45799.30208333334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>6213</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45799.3125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>6138</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45799.32291666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>6175</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45799.33333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>6167</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45799.34375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>6131</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45799.35416666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>5951</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45799.36458333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>5834</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45799.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>5697</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45799.38541666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>5630</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45799.39583333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>5509</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45799.40625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>5303</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45799.41666666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>5208</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45799.42708333334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>5232</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45799.4375</v>
+        <v>45807.26041666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,210 +397,322 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5283</v>
+        <v>4622</v>
       </c>
       <c r="B2" s="2">
-        <v>45807</v>
+        <v>45810</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5275</v>
+        <v>4520</v>
       </c>
       <c r="B3" s="2">
-        <v>45807.01041666666</v>
+        <v>45810.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5255</v>
+        <v>4502</v>
       </c>
       <c r="B4" s="2">
-        <v>45807.02083333334</v>
+        <v>45810.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5187</v>
+        <v>4573</v>
       </c>
       <c r="B5" s="2">
-        <v>45807.03125</v>
+        <v>45810.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5103</v>
+        <v>4525</v>
       </c>
       <c r="B6" s="2">
-        <v>45807.04166666666</v>
+        <v>45810.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5067</v>
+        <v>4515</v>
       </c>
       <c r="B7" s="2">
-        <v>45807.05208333334</v>
+        <v>45810.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5077</v>
+        <v>4463</v>
       </c>
       <c r="B8" s="2">
-        <v>45807.0625</v>
+        <v>45810.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5042</v>
+        <v>4434</v>
       </c>
       <c r="B9" s="2">
-        <v>45807.07291666666</v>
+        <v>45810.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5058</v>
+        <v>4408</v>
       </c>
       <c r="B10" s="2">
-        <v>45807.08333333334</v>
+        <v>45810.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5026</v>
+        <v>4416</v>
       </c>
       <c r="B11" s="2">
-        <v>45807.09375</v>
+        <v>45810.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5113</v>
+        <v>4433</v>
       </c>
       <c r="B12" s="2">
-        <v>45807.10416666666</v>
+        <v>45810.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5056</v>
+        <v>4427</v>
       </c>
       <c r="B13" s="2">
-        <v>45807.11458333334</v>
+        <v>45810.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5007</v>
+        <v>4380</v>
       </c>
       <c r="B14" s="2">
-        <v>45807.125</v>
+        <v>45810.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5017</v>
+        <v>4478</v>
       </c>
       <c r="B15" s="2">
-        <v>45807.13541666666</v>
+        <v>45810.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5048</v>
+        <v>4459</v>
       </c>
       <c r="B16" s="2">
-        <v>45807.14583333334</v>
+        <v>45810.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5010</v>
+        <v>4465</v>
       </c>
       <c r="B17" s="2">
-        <v>45807.15625</v>
+        <v>45810.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5047</v>
+        <v>4524</v>
       </c>
       <c r="B18" s="2">
-        <v>45807.16666666666</v>
+        <v>45810.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5045</v>
+        <v>4501</v>
       </c>
       <c r="B19" s="2">
-        <v>45807.17708333334</v>
+        <v>45810.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5055</v>
+        <v>4535</v>
       </c>
       <c r="B20" s="2">
-        <v>45807.1875</v>
+        <v>45810.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5068</v>
+        <v>4687</v>
       </c>
       <c r="B21" s="2">
-        <v>45807.19791666666</v>
+        <v>45810.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5286</v>
+        <v>4870</v>
       </c>
       <c r="B22" s="2">
-        <v>45807.20833333334</v>
+        <v>45810.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5405</v>
+        <v>4971</v>
       </c>
       <c r="B23" s="2">
-        <v>45807.21875</v>
+        <v>45810.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5477</v>
+        <v>5059</v>
       </c>
       <c r="B24" s="2">
-        <v>45807.22916666666</v>
+        <v>45810.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5601</v>
+        <v>5215</v>
       </c>
       <c r="B25" s="2">
-        <v>45807.23958333334</v>
+        <v>45810.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5852</v>
+        <v>5456</v>
       </c>
       <c r="B26" s="2">
-        <v>45807.25</v>
+        <v>45810.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6007</v>
+        <v>5530</v>
       </c>
       <c r="B27" s="2">
-        <v>45807.26041666666</v>
+        <v>45810.26041666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>5633</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45810.27083333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>5622</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45810.28125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>5603</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45810.29166666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>5617</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45810.30208333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>5656</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45810.3125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>5616</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45810.32291666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>5520</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45810.33333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>5472</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45810.34375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>5406</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45810.35416666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>5429</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45810.36458333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>5265</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45810.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>5098</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45810.38541666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>5087</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45810.39583333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>5040</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45810.40625</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,322 +397,202 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>4622</v>
+        <v>5529</v>
       </c>
       <c r="B2" s="2">
-        <v>45810</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>4520</v>
+        <v>5537</v>
       </c>
       <c r="B3" s="2">
-        <v>45810.01041666666</v>
+        <v>45821.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>4502</v>
+        <v>5462</v>
       </c>
       <c r="B4" s="2">
-        <v>45810.02083333334</v>
+        <v>45821.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4573</v>
+        <v>5407</v>
       </c>
       <c r="B5" s="2">
-        <v>45810.03125</v>
+        <v>45821.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>4525</v>
+        <v>5333</v>
       </c>
       <c r="B6" s="2">
-        <v>45810.04166666666</v>
+        <v>45821.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>4515</v>
+        <v>5337</v>
       </c>
       <c r="B7" s="2">
-        <v>45810.05208333334</v>
+        <v>45821.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4463</v>
+        <v>5413</v>
       </c>
       <c r="B8" s="2">
-        <v>45810.0625</v>
+        <v>45821.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4434</v>
+        <v>5338</v>
       </c>
       <c r="B9" s="2">
-        <v>45810.07291666666</v>
+        <v>45821.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4408</v>
+        <v>5228</v>
       </c>
       <c r="B10" s="2">
-        <v>45810.08333333334</v>
+        <v>45821.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4416</v>
+        <v>5319</v>
       </c>
       <c r="B11" s="2">
-        <v>45810.09375</v>
+        <v>45821.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4433</v>
+        <v>5263</v>
       </c>
       <c r="B12" s="2">
-        <v>45810.10416666666</v>
+        <v>45821.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4427</v>
+        <v>5264</v>
       </c>
       <c r="B13" s="2">
-        <v>45810.11458333334</v>
+        <v>45821.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4380</v>
+        <v>5232</v>
       </c>
       <c r="B14" s="2">
-        <v>45810.125</v>
+        <v>45821.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>4478</v>
+        <v>5339</v>
       </c>
       <c r="B15" s="2">
-        <v>45810.13541666666</v>
+        <v>45821.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>4459</v>
+        <v>5317</v>
       </c>
       <c r="B16" s="2">
-        <v>45810.14583333334</v>
+        <v>45821.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>4465</v>
+        <v>5289</v>
       </c>
       <c r="B17" s="2">
-        <v>45810.15625</v>
+        <v>45821.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>4524</v>
+        <v>5291</v>
       </c>
       <c r="B18" s="2">
-        <v>45810.16666666666</v>
+        <v>45821.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>4501</v>
+        <v>5317</v>
       </c>
       <c r="B19" s="2">
-        <v>45810.17708333334</v>
+        <v>45821.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>4535</v>
+        <v>5370</v>
       </c>
       <c r="B20" s="2">
-        <v>45810.1875</v>
+        <v>45821.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>4687</v>
+        <v>5343</v>
       </c>
       <c r="B21" s="2">
-        <v>45810.19791666666</v>
+        <v>45821.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>4870</v>
+        <v>5518</v>
       </c>
       <c r="B22" s="2">
-        <v>45810.20833333334</v>
+        <v>45821.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>4971</v>
+        <v>5470</v>
       </c>
       <c r="B23" s="2">
-        <v>45810.21875</v>
+        <v>45821.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5059</v>
+        <v>5603</v>
       </c>
       <c r="B24" s="2">
-        <v>45810.22916666666</v>
+        <v>45821.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5215</v>
+        <v>5670</v>
       </c>
       <c r="B25" s="2">
-        <v>45810.23958333334</v>
+        <v>45821.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5456</v>
+        <v>5802</v>
       </c>
       <c r="B26" s="2">
-        <v>45810.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>5530</v>
-      </c>
-      <c r="B27" s="2">
-        <v>45810.26041666666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>5633</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45810.27083333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>5622</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45810.28125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>5603</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45810.29166666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>5617</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45810.30208333334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>5656</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45810.3125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>5616</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45810.32291666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>5520</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45810.33333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>5472</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45810.34375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>5406</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45810.35416666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>5429</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45810.36458333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>5265</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45810.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>5098</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45810.38541666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>5087</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45810.39583333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>5040</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45810.40625</v>
+        <v>45821.25</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,202 +397,322 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5529</v>
+        <v>5509</v>
       </c>
       <c r="B2" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5537</v>
+        <v>5420</v>
       </c>
       <c r="B3" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5462</v>
+        <v>5377</v>
       </c>
       <c r="B4" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5407</v>
+        <v>5365</v>
       </c>
       <c r="B5" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5333</v>
+        <v>5329</v>
       </c>
       <c r="B6" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5337</v>
+        <v>5315</v>
       </c>
       <c r="B7" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5413</v>
+        <v>5301</v>
       </c>
       <c r="B8" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5338</v>
+        <v>5299</v>
       </c>
       <c r="B9" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5228</v>
+        <v>5237</v>
       </c>
       <c r="B10" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5319</v>
+        <v>5235</v>
       </c>
       <c r="B11" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5263</v>
+        <v>5218</v>
       </c>
       <c r="B12" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5264</v>
+        <v>5225</v>
       </c>
       <c r="B13" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5232</v>
+        <v>5309</v>
       </c>
       <c r="B14" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5339</v>
+        <v>5257</v>
       </c>
       <c r="B15" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5317</v>
+        <v>5343</v>
       </c>
       <c r="B16" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5289</v>
+        <v>5300</v>
       </c>
       <c r="B17" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5291</v>
+        <v>5262</v>
       </c>
       <c r="B18" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5317</v>
+        <v>5271</v>
       </c>
       <c r="B19" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5370</v>
+        <v>5258</v>
       </c>
       <c r="B20" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5343</v>
+        <v>5357</v>
       </c>
       <c r="B21" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5518</v>
+        <v>5451</v>
       </c>
       <c r="B22" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5470</v>
+        <v>5528</v>
       </c>
       <c r="B23" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5603</v>
+        <v>5604</v>
       </c>
       <c r="B24" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5670</v>
+        <v>5658</v>
       </c>
       <c r="B25" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
+        <v>5857</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45825.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>5932</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45825.26041666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>5960</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45825.27083333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>5948</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45825.28125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>6026</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45825.29166666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>5993</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45825.30208333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>5982</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45825.3125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>5982</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45825.32291666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>5928</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45825.33333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>5849</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45825.34375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>5862</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45825.35416666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
         <v>5802</v>
       </c>
-      <c r="B26" s="2">
-        <v>45821.25</v>
+      <c r="B37" s="2">
+        <v>45825.36458333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>5688</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45825.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>5634</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45825.38541666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>5597</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45825.39583333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>5557</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45825.40625</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,322 +397,370 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5509</v>
+        <v>5788</v>
       </c>
       <c r="B2" s="2">
-        <v>45825</v>
+        <v>45828</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5420</v>
+        <v>5719</v>
       </c>
       <c r="B3" s="2">
-        <v>45825.01041666666</v>
+        <v>45828.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5377</v>
+        <v>5682</v>
       </c>
       <c r="B4" s="2">
-        <v>45825.02083333334</v>
+        <v>45828.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5365</v>
+        <v>5639</v>
       </c>
       <c r="B5" s="2">
-        <v>45825.03125</v>
+        <v>45828.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5329</v>
+        <v>5610</v>
       </c>
       <c r="B6" s="2">
-        <v>45825.04166666666</v>
+        <v>45828.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5315</v>
+        <v>5518</v>
       </c>
       <c r="B7" s="2">
-        <v>45825.05208333334</v>
+        <v>45828.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5301</v>
+        <v>5500</v>
       </c>
       <c r="B8" s="2">
-        <v>45825.0625</v>
+        <v>45828.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5299</v>
+        <v>5513</v>
       </c>
       <c r="B9" s="2">
-        <v>45825.07291666666</v>
+        <v>45828.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5237</v>
+        <v>5495</v>
       </c>
       <c r="B10" s="2">
-        <v>45825.08333333334</v>
+        <v>45828.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5235</v>
+        <v>5513</v>
       </c>
       <c r="B11" s="2">
-        <v>45825.09375</v>
+        <v>45828.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5218</v>
+        <v>5453</v>
       </c>
       <c r="B12" s="2">
-        <v>45825.10416666666</v>
+        <v>45828.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5225</v>
+        <v>5549</v>
       </c>
       <c r="B13" s="2">
-        <v>45825.11458333334</v>
+        <v>45828.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5309</v>
+        <v>5509</v>
       </c>
       <c r="B14" s="2">
-        <v>45825.125</v>
+        <v>45828.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5257</v>
+        <v>5475</v>
       </c>
       <c r="B15" s="2">
-        <v>45825.13541666666</v>
+        <v>45828.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5343</v>
+        <v>5454</v>
       </c>
       <c r="B16" s="2">
-        <v>45825.14583333334</v>
+        <v>45828.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5300</v>
+        <v>5473</v>
       </c>
       <c r="B17" s="2">
-        <v>45825.15625</v>
+        <v>45828.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5262</v>
+        <v>5402</v>
       </c>
       <c r="B18" s="2">
-        <v>45825.16666666666</v>
+        <v>45828.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5271</v>
+        <v>5376</v>
       </c>
       <c r="B19" s="2">
-        <v>45825.17708333334</v>
+        <v>45828.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5258</v>
+        <v>5391</v>
       </c>
       <c r="B20" s="2">
-        <v>45825.1875</v>
+        <v>45828.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5357</v>
+        <v>5443</v>
       </c>
       <c r="B21" s="2">
-        <v>45825.19791666666</v>
+        <v>45828.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5451</v>
+        <v>5524</v>
       </c>
       <c r="B22" s="2">
-        <v>45825.20833333334</v>
+        <v>45828.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5528</v>
+        <v>5703</v>
       </c>
       <c r="B23" s="2">
-        <v>45825.21875</v>
+        <v>45828.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5604</v>
+        <v>5734</v>
       </c>
       <c r="B24" s="2">
-        <v>45825.22916666666</v>
+        <v>45828.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5658</v>
+        <v>5779</v>
       </c>
       <c r="B25" s="2">
-        <v>45825.23958333334</v>
+        <v>45828.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5857</v>
+        <v>5984</v>
       </c>
       <c r="B26" s="2">
-        <v>45825.25</v>
+        <v>45828.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5932</v>
+        <v>6081</v>
       </c>
       <c r="B27" s="2">
-        <v>45825.26041666666</v>
+        <v>45828.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5960</v>
+        <v>6163</v>
       </c>
       <c r="B28" s="2">
-        <v>45825.27083333334</v>
+        <v>45828.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5948</v>
+        <v>6231</v>
       </c>
       <c r="B29" s="2">
-        <v>45825.28125</v>
+        <v>45828.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6026</v>
+        <v>6285</v>
       </c>
       <c r="B30" s="2">
-        <v>45825.29166666666</v>
+        <v>45828.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5993</v>
+        <v>6271</v>
       </c>
       <c r="B31" s="2">
-        <v>45825.30208333334</v>
+        <v>45828.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5982</v>
+        <v>6225</v>
       </c>
       <c r="B32" s="2">
-        <v>45825.3125</v>
+        <v>45828.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5982</v>
+        <v>6209</v>
       </c>
       <c r="B33" s="2">
-        <v>45825.32291666666</v>
+        <v>45828.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5928</v>
+        <v>6062</v>
       </c>
       <c r="B34" s="2">
-        <v>45825.33333333334</v>
+        <v>45828.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5849</v>
+        <v>5962</v>
       </c>
       <c r="B35" s="2">
-        <v>45825.34375</v>
+        <v>45828.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5862</v>
+        <v>5975</v>
       </c>
       <c r="B36" s="2">
-        <v>45825.35416666666</v>
+        <v>45828.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5802</v>
+        <v>5860</v>
       </c>
       <c r="B37" s="2">
-        <v>45825.36458333334</v>
+        <v>45828.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5688</v>
+        <v>5671</v>
       </c>
       <c r="B38" s="2">
-        <v>45825.375</v>
+        <v>45828.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5634</v>
+        <v>5639</v>
       </c>
       <c r="B39" s="2">
-        <v>45825.38541666666</v>
+        <v>45828.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5597</v>
+        <v>5646</v>
       </c>
       <c r="B40" s="2">
-        <v>45825.39583333334</v>
+        <v>45828.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5557</v>
+        <v>5651</v>
       </c>
       <c r="B41" s="2">
-        <v>45825.40625</v>
+        <v>45828.40625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>5404</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45828.41666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>5303</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45828.42708333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>5334</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45828.4375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>5307</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45828.44791666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>5293</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45828.45833333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>5225</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45828.46875</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,370 +397,306 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5788</v>
+        <v>5187</v>
       </c>
       <c r="B2" s="2">
-        <v>45828</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5719</v>
+        <v>5169</v>
       </c>
       <c r="B3" s="2">
-        <v>45828.01041666666</v>
+        <v>45859.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5682</v>
+        <v>5060</v>
       </c>
       <c r="B4" s="2">
-        <v>45828.02083333334</v>
+        <v>45859.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5639</v>
+        <v>5033</v>
       </c>
       <c r="B5" s="2">
-        <v>45828.03125</v>
+        <v>45859.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5610</v>
+        <v>5004</v>
       </c>
       <c r="B6" s="2">
-        <v>45828.04166666666</v>
+        <v>45859.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5518</v>
+        <v>5004</v>
       </c>
       <c r="B7" s="2">
-        <v>45828.05208333334</v>
+        <v>45859.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5500</v>
+        <v>5006</v>
       </c>
       <c r="B8" s="2">
-        <v>45828.0625</v>
+        <v>45859.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5513</v>
+        <v>4925</v>
       </c>
       <c r="B9" s="2">
-        <v>45828.07291666666</v>
+        <v>45859.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5495</v>
+        <v>4919</v>
       </c>
       <c r="B10" s="2">
-        <v>45828.08333333334</v>
+        <v>45859.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5513</v>
+        <v>4934</v>
       </c>
       <c r="B11" s="2">
-        <v>45828.09375</v>
+        <v>45859.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5453</v>
+        <v>4932</v>
       </c>
       <c r="B12" s="2">
-        <v>45828.10416666666</v>
+        <v>45859.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5549</v>
+        <v>4991</v>
       </c>
       <c r="B13" s="2">
-        <v>45828.11458333334</v>
+        <v>45859.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5509</v>
+        <v>4985</v>
       </c>
       <c r="B14" s="2">
-        <v>45828.125</v>
+        <v>45859.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5475</v>
+        <v>4932</v>
       </c>
       <c r="B15" s="2">
-        <v>45828.13541666666</v>
+        <v>45859.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5454</v>
+        <v>4960</v>
       </c>
       <c r="B16" s="2">
-        <v>45828.14583333334</v>
+        <v>45859.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5473</v>
+        <v>4986</v>
       </c>
       <c r="B17" s="2">
-        <v>45828.15625</v>
+        <v>45859.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5402</v>
+        <v>5016</v>
       </c>
       <c r="B18" s="2">
-        <v>45828.16666666666</v>
+        <v>45859.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5376</v>
+        <v>5019</v>
       </c>
       <c r="B19" s="2">
-        <v>45828.17708333334</v>
+        <v>45859.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5391</v>
+        <v>5030</v>
       </c>
       <c r="B20" s="2">
-        <v>45828.1875</v>
+        <v>45859.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5443</v>
+        <v>5042</v>
       </c>
       <c r="B21" s="2">
-        <v>45828.19791666666</v>
+        <v>45859.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5524</v>
+        <v>5251</v>
       </c>
       <c r="B22" s="2">
-        <v>45828.20833333334</v>
+        <v>45859.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5703</v>
+        <v>5328</v>
       </c>
       <c r="B23" s="2">
-        <v>45828.21875</v>
+        <v>45859.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5734</v>
+        <v>5411</v>
       </c>
       <c r="B24" s="2">
-        <v>45828.22916666666</v>
+        <v>45859.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5779</v>
+        <v>5528</v>
       </c>
       <c r="B25" s="2">
-        <v>45828.23958333334</v>
+        <v>45859.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5984</v>
+        <v>5732</v>
       </c>
       <c r="B26" s="2">
-        <v>45828.25</v>
+        <v>45859.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6081</v>
+        <v>5930</v>
       </c>
       <c r="B27" s="2">
-        <v>45828.26041666666</v>
+        <v>45859.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6163</v>
+        <v>5957</v>
       </c>
       <c r="B28" s="2">
-        <v>45828.27083333334</v>
+        <v>45859.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6231</v>
+        <v>5995</v>
       </c>
       <c r="B29" s="2">
-        <v>45828.28125</v>
+        <v>45859.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6285</v>
+        <v>6064</v>
       </c>
       <c r="B30" s="2">
-        <v>45828.29166666666</v>
+        <v>45859.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6271</v>
+        <v>6087</v>
       </c>
       <c r="B31" s="2">
-        <v>45828.30208333334</v>
+        <v>45859.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6225</v>
+        <v>6171</v>
       </c>
       <c r="B32" s="2">
-        <v>45828.3125</v>
+        <v>45859.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6209</v>
+        <v>6093</v>
       </c>
       <c r="B33" s="2">
-        <v>45828.32291666666</v>
+        <v>45859.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6062</v>
+        <v>6140</v>
       </c>
       <c r="B34" s="2">
-        <v>45828.33333333334</v>
+        <v>45859.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5962</v>
+        <v>6038</v>
       </c>
       <c r="B35" s="2">
-        <v>45828.34375</v>
+        <v>45859.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5975</v>
+        <v>6062</v>
       </c>
       <c r="B36" s="2">
-        <v>45828.35416666666</v>
+        <v>45859.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5860</v>
+        <v>6021</v>
       </c>
       <c r="B37" s="2">
-        <v>45828.36458333334</v>
+        <v>45859.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5671</v>
+        <v>5959</v>
       </c>
       <c r="B38" s="2">
-        <v>45828.375</v>
+        <v>45859.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5639</v>
+        <v>5911</v>
       </c>
       <c r="B39" s="2">
-        <v>45828.38541666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>5646</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45828.39583333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>5651</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45828.40625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>5404</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45828.41666666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>5303</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45828.42708333334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>5334</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45828.4375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>5307</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45828.44791666666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>5293</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45828.45833333334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>5225</v>
-      </c>
-      <c r="B47" s="2">
-        <v>45828.46875</v>
+        <v>45859.38541666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -397,306 +397,306 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5187</v>
+        <v>6047</v>
       </c>
       <c r="B2" s="2">
-        <v>45859</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5169</v>
+        <v>5969</v>
       </c>
       <c r="B3" s="2">
-        <v>45859.01041666666</v>
+        <v>45863.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5060</v>
+        <v>5934</v>
       </c>
       <c r="B4" s="2">
-        <v>45859.02083333334</v>
+        <v>45863.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5033</v>
+        <v>5912</v>
       </c>
       <c r="B5" s="2">
-        <v>45859.03125</v>
+        <v>45863.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5004</v>
+        <v>5896</v>
       </c>
       <c r="B6" s="2">
-        <v>45859.04166666666</v>
+        <v>45863.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5004</v>
+        <v>5810</v>
       </c>
       <c r="B7" s="2">
-        <v>45859.05208333334</v>
+        <v>45863.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5006</v>
+        <v>5792</v>
       </c>
       <c r="B8" s="2">
-        <v>45859.0625</v>
+        <v>45863.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4925</v>
+        <v>5804</v>
       </c>
       <c r="B9" s="2">
-        <v>45859.07291666666</v>
+        <v>45863.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4919</v>
+        <v>5767</v>
       </c>
       <c r="B10" s="2">
-        <v>45859.08333333334</v>
+        <v>45863.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4934</v>
+        <v>5703</v>
       </c>
       <c r="B11" s="2">
-        <v>45859.09375</v>
+        <v>45863.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4932</v>
+        <v>5695</v>
       </c>
       <c r="B12" s="2">
-        <v>45859.10416666666</v>
+        <v>45863.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4991</v>
+        <v>5695</v>
       </c>
       <c r="B13" s="2">
-        <v>45859.11458333334</v>
+        <v>45863.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4985</v>
+        <v>5749</v>
       </c>
       <c r="B14" s="2">
-        <v>45859.125</v>
+        <v>45863.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>4932</v>
+        <v>5753</v>
       </c>
       <c r="B15" s="2">
-        <v>45859.13541666666</v>
+        <v>45863.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>4960</v>
+        <v>5734</v>
       </c>
       <c r="B16" s="2">
-        <v>45859.14583333334</v>
+        <v>45863.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>4986</v>
+        <v>5687</v>
       </c>
       <c r="B17" s="2">
-        <v>45859.15625</v>
+        <v>45863.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5016</v>
+        <v>5748</v>
       </c>
       <c r="B18" s="2">
-        <v>45859.16666666666</v>
+        <v>45863.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5019</v>
+        <v>5807</v>
       </c>
       <c r="B19" s="2">
-        <v>45859.17708333334</v>
+        <v>45863.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5030</v>
+        <v>5767</v>
       </c>
       <c r="B20" s="2">
-        <v>45859.1875</v>
+        <v>45863.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5042</v>
+        <v>5799</v>
       </c>
       <c r="B21" s="2">
-        <v>45859.19791666666</v>
+        <v>45863.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5251</v>
+        <v>5875</v>
       </c>
       <c r="B22" s="2">
-        <v>45859.20833333334</v>
+        <v>45863.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5328</v>
+        <v>5903</v>
       </c>
       <c r="B23" s="2">
-        <v>45859.21875</v>
+        <v>45863.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5411</v>
+        <v>5981</v>
       </c>
       <c r="B24" s="2">
-        <v>45859.22916666666</v>
+        <v>45863.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5528</v>
+        <v>6084</v>
       </c>
       <c r="B25" s="2">
-        <v>45859.23958333334</v>
+        <v>45863.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5732</v>
+        <v>6247</v>
       </c>
       <c r="B26" s="2">
-        <v>45859.25</v>
+        <v>45863.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5930</v>
+        <v>6396</v>
       </c>
       <c r="B27" s="2">
-        <v>45859.26041666666</v>
+        <v>45863.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5957</v>
+        <v>6412</v>
       </c>
       <c r="B28" s="2">
-        <v>45859.27083333334</v>
+        <v>45863.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5995</v>
+        <v>6476</v>
       </c>
       <c r="B29" s="2">
-        <v>45859.28125</v>
+        <v>45863.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6064</v>
+        <v>6596</v>
       </c>
       <c r="B30" s="2">
-        <v>45859.29166666666</v>
+        <v>45863.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6087</v>
+        <v>6602</v>
       </c>
       <c r="B31" s="2">
-        <v>45859.30208333334</v>
+        <v>45863.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6171</v>
+        <v>6613</v>
       </c>
       <c r="B32" s="2">
-        <v>45859.3125</v>
+        <v>45863.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6093</v>
+        <v>6546</v>
       </c>
       <c r="B33" s="2">
-        <v>45859.32291666666</v>
+        <v>45863.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6140</v>
+        <v>6514</v>
       </c>
       <c r="B34" s="2">
-        <v>45859.33333333334</v>
+        <v>45863.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6038</v>
+        <v>6541</v>
       </c>
       <c r="B35" s="2">
-        <v>45859.34375</v>
+        <v>45863.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6062</v>
+        <v>6547</v>
       </c>
       <c r="B36" s="2">
-        <v>45859.35416666666</v>
+        <v>45863.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6021</v>
+        <v>6496</v>
       </c>
       <c r="B37" s="2">
-        <v>45859.36458333334</v>
+        <v>45863.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5959</v>
+        <v>6528</v>
       </c>
       <c r="B38" s="2">
-        <v>45859.375</v>
+        <v>45863.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5911</v>
+        <v>6555</v>
       </c>
       <c r="B39" s="2">
-        <v>45859.38541666666</v>
+        <v>45863.38541666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,306 +397,218 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6047</v>
+        <v>5686</v>
       </c>
       <c r="B2" s="2">
-        <v>45863</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5969</v>
+        <v>5612</v>
       </c>
       <c r="B3" s="2">
-        <v>45863.01041666666</v>
+        <v>45875.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5934</v>
+        <v>5583</v>
       </c>
       <c r="B4" s="2">
-        <v>45863.02083333334</v>
+        <v>45875.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5912</v>
+        <v>5526</v>
       </c>
       <c r="B5" s="2">
-        <v>45863.03125</v>
+        <v>45875.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5896</v>
+        <v>5477</v>
       </c>
       <c r="B6" s="2">
-        <v>45863.04166666666</v>
+        <v>45875.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5810</v>
+        <v>5420</v>
       </c>
       <c r="B7" s="2">
-        <v>45863.05208333334</v>
+        <v>45875.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5792</v>
+        <v>5443</v>
       </c>
       <c r="B8" s="2">
-        <v>45863.0625</v>
+        <v>45875.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5804</v>
+        <v>5433</v>
       </c>
       <c r="B9" s="2">
-        <v>45863.07291666666</v>
+        <v>45875.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5767</v>
+        <v>5461</v>
       </c>
       <c r="B10" s="2">
-        <v>45863.08333333334</v>
+        <v>45875.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5703</v>
+        <v>5488</v>
       </c>
       <c r="B11" s="2">
-        <v>45863.09375</v>
+        <v>45875.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5695</v>
+        <v>5447</v>
       </c>
       <c r="B12" s="2">
-        <v>45863.10416666666</v>
+        <v>45875.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5695</v>
+        <v>5346</v>
       </c>
       <c r="B13" s="2">
-        <v>45863.11458333334</v>
+        <v>45875.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5749</v>
+        <v>5392</v>
       </c>
       <c r="B14" s="2">
-        <v>45863.125</v>
+        <v>45875.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5753</v>
+        <v>5388</v>
       </c>
       <c r="B15" s="2">
-        <v>45863.13541666666</v>
+        <v>45875.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5734</v>
+        <v>5394</v>
       </c>
       <c r="B16" s="2">
-        <v>45863.14583333334</v>
+        <v>45875.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5687</v>
+        <v>5391</v>
       </c>
       <c r="B17" s="2">
-        <v>45863.15625</v>
+        <v>45875.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5748</v>
+        <v>5409</v>
       </c>
       <c r="B18" s="2">
-        <v>45863.16666666666</v>
+        <v>45875.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5807</v>
+        <v>5436</v>
       </c>
       <c r="B19" s="2">
-        <v>45863.17708333334</v>
+        <v>45875.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5767</v>
+        <v>5450</v>
       </c>
       <c r="B20" s="2">
-        <v>45863.1875</v>
+        <v>45875.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5799</v>
+        <v>5459</v>
       </c>
       <c r="B21" s="2">
-        <v>45863.19791666666</v>
+        <v>45875.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5875</v>
+        <v>5536</v>
       </c>
       <c r="B22" s="2">
-        <v>45863.20833333334</v>
+        <v>45875.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5903</v>
+        <v>5563</v>
       </c>
       <c r="B23" s="2">
-        <v>45863.21875</v>
+        <v>45875.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5981</v>
+        <v>5644</v>
       </c>
       <c r="B24" s="2">
-        <v>45863.22916666666</v>
+        <v>45875.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6084</v>
+        <v>5708</v>
       </c>
       <c r="B25" s="2">
-        <v>45863.23958333334</v>
+        <v>45875.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6247</v>
+        <v>5833</v>
       </c>
       <c r="B26" s="2">
-        <v>45863.25</v>
+        <v>45875.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6396</v>
+        <v>5942</v>
       </c>
       <c r="B27" s="2">
-        <v>45863.26041666666</v>
+        <v>45875.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6412</v>
+        <v>6000</v>
       </c>
       <c r="B28" s="2">
-        <v>45863.27083333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>6476</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45863.28125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>6596</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45863.29166666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>6602</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45863.30208333334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>6613</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45863.3125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>6546</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45863.32291666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>6514</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45863.33333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>6541</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45863.34375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>6547</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45863.35416666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>6496</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45863.36458333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>6528</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45863.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>6555</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45863.38541666666</v>
+        <v>45875.27083333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,218 +397,322 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5686</v>
+        <v>5340</v>
       </c>
       <c r="B2" s="2">
-        <v>45875</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5612</v>
+        <v>5303</v>
       </c>
       <c r="B3" s="2">
-        <v>45875.01041666666</v>
+        <v>45889.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5583</v>
+        <v>5242</v>
       </c>
       <c r="B4" s="2">
-        <v>45875.02083333334</v>
+        <v>45889.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5526</v>
+        <v>5233</v>
       </c>
       <c r="B5" s="2">
-        <v>45875.03125</v>
+        <v>45889.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5477</v>
+        <v>5237</v>
       </c>
       <c r="B6" s="2">
-        <v>45875.04166666666</v>
+        <v>45889.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5420</v>
+        <v>5215</v>
       </c>
       <c r="B7" s="2">
-        <v>45875.05208333334</v>
+        <v>45889.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5443</v>
+        <v>5164</v>
       </c>
       <c r="B8" s="2">
-        <v>45875.0625</v>
+        <v>45889.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5433</v>
+        <v>5178</v>
       </c>
       <c r="B9" s="2">
-        <v>45875.07291666666</v>
+        <v>45889.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5461</v>
+        <v>5196</v>
       </c>
       <c r="B10" s="2">
-        <v>45875.08333333334</v>
+        <v>45889.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5488</v>
+        <v>5172</v>
       </c>
       <c r="B11" s="2">
-        <v>45875.09375</v>
+        <v>45889.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5447</v>
+        <v>5140</v>
       </c>
       <c r="B12" s="2">
-        <v>45875.10416666666</v>
+        <v>45889.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5346</v>
+        <v>5133</v>
       </c>
       <c r="B13" s="2">
-        <v>45875.11458333334</v>
+        <v>45889.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5392</v>
+        <v>5093</v>
       </c>
       <c r="B14" s="2">
-        <v>45875.125</v>
+        <v>45889.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5388</v>
+        <v>5055</v>
       </c>
       <c r="B15" s="2">
-        <v>45875.13541666666</v>
+        <v>45889.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5394</v>
+        <v>5070</v>
       </c>
       <c r="B16" s="2">
-        <v>45875.14583333334</v>
+        <v>45889.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5391</v>
+        <v>5080</v>
       </c>
       <c r="B17" s="2">
-        <v>45875.15625</v>
+        <v>45889.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5409</v>
+        <v>5142</v>
       </c>
       <c r="B18" s="2">
-        <v>45875.16666666666</v>
+        <v>45889.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5436</v>
+        <v>5190</v>
       </c>
       <c r="B19" s="2">
-        <v>45875.17708333334</v>
+        <v>45889.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5450</v>
+        <v>5229</v>
       </c>
       <c r="B20" s="2">
-        <v>45875.1875</v>
+        <v>45889.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5459</v>
+        <v>5260</v>
       </c>
       <c r="B21" s="2">
-        <v>45875.19791666666</v>
+        <v>45889.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5536</v>
+        <v>5356</v>
       </c>
       <c r="B22" s="2">
-        <v>45875.20833333334</v>
+        <v>45889.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5563</v>
+        <v>5404</v>
       </c>
       <c r="B23" s="2">
-        <v>45875.21875</v>
+        <v>45889.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5644</v>
+        <v>5507</v>
       </c>
       <c r="B24" s="2">
-        <v>45875.22916666666</v>
+        <v>45889.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5708</v>
+        <v>5578</v>
       </c>
       <c r="B25" s="2">
-        <v>45875.23958333334</v>
+        <v>45889.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5833</v>
+        <v>5725</v>
       </c>
       <c r="B26" s="2">
-        <v>45875.25</v>
+        <v>45889.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5942</v>
+        <v>5828</v>
       </c>
       <c r="B27" s="2">
-        <v>45875.26041666666</v>
+        <v>45889.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6000</v>
+        <v>5881</v>
       </c>
       <c r="B28" s="2">
-        <v>45875.27083333334</v>
+        <v>45889.27083333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>5920</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45889.28125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>5948</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45889.29166666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>5915</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45889.30208333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>5890</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45889.3125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>5738</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45889.32291666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>5685</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45889.33333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>5647</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45889.34375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>5584</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45889.35416666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>5463</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45889.36458333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>5347</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45889.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>5230</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45889.38541666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>5181</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45889.39583333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>5148</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45889.40625</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,322 +397,314 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5340</v>
+        <v>5371</v>
       </c>
       <c r="B2" s="2">
-        <v>45889</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5303</v>
+        <v>5337</v>
       </c>
       <c r="B3" s="2">
-        <v>45889.01041666666</v>
+        <v>45890.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5242</v>
+        <v>5300</v>
       </c>
       <c r="B4" s="2">
-        <v>45889.02083333334</v>
+        <v>45890.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5233</v>
+        <v>5252</v>
       </c>
       <c r="B5" s="2">
-        <v>45889.03125</v>
+        <v>45890.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5237</v>
+        <v>5213</v>
       </c>
       <c r="B6" s="2">
-        <v>45889.04166666666</v>
+        <v>45890.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5215</v>
+        <v>5190</v>
       </c>
       <c r="B7" s="2">
-        <v>45889.05208333334</v>
+        <v>45890.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5164</v>
+        <v>5171</v>
       </c>
       <c r="B8" s="2">
-        <v>45889.0625</v>
+        <v>45890.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5178</v>
+        <v>5136</v>
       </c>
       <c r="B9" s="2">
-        <v>45889.07291666666</v>
+        <v>45890.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5196</v>
+        <v>5121</v>
       </c>
       <c r="B10" s="2">
-        <v>45889.08333333334</v>
+        <v>45890.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5172</v>
+        <v>5098</v>
       </c>
       <c r="B11" s="2">
-        <v>45889.09375</v>
+        <v>45890.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5140</v>
+        <v>5085</v>
       </c>
       <c r="B12" s="2">
-        <v>45889.10416666666</v>
+        <v>45890.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5133</v>
+        <v>5085</v>
       </c>
       <c r="B13" s="2">
-        <v>45889.11458333334</v>
+        <v>45890.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5093</v>
+        <v>5083</v>
       </c>
       <c r="B14" s="2">
-        <v>45889.125</v>
+        <v>45890.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5055</v>
+        <v>5099</v>
       </c>
       <c r="B15" s="2">
-        <v>45889.13541666666</v>
+        <v>45890.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5070</v>
+        <v>5114</v>
       </c>
       <c r="B16" s="2">
-        <v>45889.14583333334</v>
+        <v>45890.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5080</v>
+        <v>5123</v>
       </c>
       <c r="B17" s="2">
-        <v>45889.15625</v>
+        <v>45890.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5142</v>
+        <v>5174</v>
       </c>
       <c r="B18" s="2">
-        <v>45889.16666666666</v>
+        <v>45890.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5190</v>
+        <v>5213</v>
       </c>
       <c r="B19" s="2">
-        <v>45889.17708333334</v>
+        <v>45890.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5229</v>
+        <v>5261</v>
       </c>
       <c r="B20" s="2">
-        <v>45889.1875</v>
+        <v>45890.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5260</v>
+        <v>5312</v>
       </c>
       <c r="B21" s="2">
-        <v>45889.19791666666</v>
+        <v>45890.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5356</v>
+        <v>5455</v>
       </c>
       <c r="B22" s="2">
-        <v>45889.20833333334</v>
+        <v>45890.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5404</v>
+        <v>5487</v>
       </c>
       <c r="B23" s="2">
-        <v>45889.21875</v>
+        <v>45890.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5507</v>
+        <v>5516</v>
       </c>
       <c r="B24" s="2">
-        <v>45889.22916666666</v>
+        <v>45890.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5578</v>
+        <v>5585</v>
       </c>
       <c r="B25" s="2">
-        <v>45889.23958333334</v>
+        <v>45890.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5725</v>
+        <v>5792</v>
       </c>
       <c r="B26" s="2">
-        <v>45889.25</v>
+        <v>45890.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5828</v>
+        <v>5837</v>
       </c>
       <c r="B27" s="2">
-        <v>45889.26041666666</v>
+        <v>45890.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5881</v>
+        <v>5886</v>
       </c>
       <c r="B28" s="2">
-        <v>45889.27083333334</v>
+        <v>45890.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5920</v>
+        <v>5953</v>
       </c>
       <c r="B29" s="2">
-        <v>45889.28125</v>
+        <v>45890.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5948</v>
+        <v>6013</v>
       </c>
       <c r="B30" s="2">
-        <v>45889.29166666666</v>
+        <v>45890.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5915</v>
+        <v>5994</v>
       </c>
       <c r="B31" s="2">
-        <v>45889.30208333334</v>
+        <v>45890.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5890</v>
+        <v>5974</v>
       </c>
       <c r="B32" s="2">
-        <v>45889.3125</v>
+        <v>45890.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5738</v>
+        <v>5939</v>
       </c>
       <c r="B33" s="2">
-        <v>45889.32291666666</v>
+        <v>45890.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5685</v>
+        <v>5814</v>
       </c>
       <c r="B34" s="2">
-        <v>45889.33333333334</v>
+        <v>45890.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5647</v>
+        <v>5851</v>
       </c>
       <c r="B35" s="2">
-        <v>45889.34375</v>
+        <v>45890.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5584</v>
+        <v>5812</v>
       </c>
       <c r="B36" s="2">
-        <v>45889.35416666666</v>
+        <v>45890.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5463</v>
+        <v>5732</v>
       </c>
       <c r="B37" s="2">
-        <v>45889.36458333334</v>
+        <v>45890.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5347</v>
+        <v>5712</v>
       </c>
       <c r="B38" s="2">
-        <v>45889.375</v>
+        <v>45890.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5230</v>
+        <v>5641</v>
       </c>
       <c r="B39" s="2">
-        <v>45889.38541666666</v>
+        <v>45890.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5181</v>
+        <v>5623</v>
       </c>
       <c r="B40" s="2">
-        <v>45889.39583333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>5148</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45889.40625</v>
+        <v>45890.39583333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,314 +397,330 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5371</v>
+        <v>5184</v>
       </c>
       <c r="B2" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5337</v>
+        <v>5139</v>
       </c>
       <c r="B3" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5300</v>
+        <v>5137</v>
       </c>
       <c r="B4" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5252</v>
+        <v>5095</v>
       </c>
       <c r="B5" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5213</v>
+        <v>4961</v>
       </c>
       <c r="B6" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5190</v>
+        <v>5014</v>
       </c>
       <c r="B7" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5171</v>
+        <v>4980</v>
       </c>
       <c r="B8" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5136</v>
+        <v>4962</v>
       </c>
       <c r="B9" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5121</v>
+        <v>4860</v>
       </c>
       <c r="B10" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5098</v>
+        <v>4926</v>
       </c>
       <c r="B11" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5085</v>
+        <v>4970</v>
       </c>
       <c r="B12" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5085</v>
+        <v>4926</v>
       </c>
       <c r="B13" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5083</v>
+        <v>4970</v>
       </c>
       <c r="B14" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5099</v>
+        <v>4936</v>
       </c>
       <c r="B15" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5114</v>
+        <v>5016</v>
       </c>
       <c r="B16" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5123</v>
+        <v>4971</v>
       </c>
       <c r="B17" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5174</v>
+        <v>5096</v>
       </c>
       <c r="B18" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5213</v>
+        <v>5138</v>
       </c>
       <c r="B19" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5261</v>
+        <v>5151</v>
       </c>
       <c r="B20" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5312</v>
+        <v>5247</v>
       </c>
       <c r="B21" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5455</v>
+        <v>5446</v>
       </c>
       <c r="B22" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5487</v>
+        <v>5551</v>
       </c>
       <c r="B23" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5516</v>
+        <v>5678</v>
       </c>
       <c r="B24" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5585</v>
+        <v>5764</v>
       </c>
       <c r="B25" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5792</v>
+        <v>5974</v>
       </c>
       <c r="B26" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5837</v>
+        <v>6151</v>
       </c>
       <c r="B27" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5886</v>
+        <v>6227</v>
       </c>
       <c r="B28" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5953</v>
+        <v>6263</v>
       </c>
       <c r="B29" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6013</v>
+        <v>6255</v>
       </c>
       <c r="B30" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5994</v>
+        <v>6172</v>
       </c>
       <c r="B31" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5974</v>
+        <v>6178</v>
       </c>
       <c r="B32" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5939</v>
+        <v>6171</v>
       </c>
       <c r="B33" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5814</v>
+        <v>5883</v>
       </c>
       <c r="B34" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5851</v>
+        <v>5818</v>
       </c>
       <c r="B35" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5812</v>
+        <v>5783</v>
       </c>
       <c r="B36" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5732</v>
+        <v>5616</v>
       </c>
       <c r="B37" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5712</v>
+        <v>5324</v>
       </c>
       <c r="B38" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5641</v>
+        <v>5195</v>
       </c>
       <c r="B39" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5623</v>
+        <v>5135</v>
       </c>
       <c r="B40" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>5055</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45918.40625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>4914</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45918.41666666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -397,330 +397,330 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5184</v>
+        <v>5053</v>
       </c>
       <c r="B2" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5139</v>
+        <v>5063</v>
       </c>
       <c r="B3" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5137</v>
+        <v>5051</v>
       </c>
       <c r="B4" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5095</v>
+        <v>5031</v>
       </c>
       <c r="B5" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>4961</v>
+        <v>4981</v>
       </c>
       <c r="B6" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5014</v>
+        <v>5038</v>
       </c>
       <c r="B7" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4980</v>
+        <v>4972</v>
       </c>
       <c r="B8" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4962</v>
+        <v>4985</v>
       </c>
       <c r="B9" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4860</v>
+        <v>4933</v>
       </c>
       <c r="B10" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4926</v>
+        <v>4949</v>
       </c>
       <c r="B11" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4970</v>
+        <v>4906</v>
       </c>
       <c r="B12" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4926</v>
+        <v>4922</v>
       </c>
       <c r="B13" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4970</v>
+        <v>4942</v>
       </c>
       <c r="B14" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>4936</v>
+        <v>5011</v>
       </c>
       <c r="B15" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5016</v>
+        <v>4974</v>
       </c>
       <c r="B16" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>4971</v>
+        <v>4991</v>
       </c>
       <c r="B17" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5096</v>
+        <v>5117</v>
       </c>
       <c r="B18" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5138</v>
+        <v>5198</v>
       </c>
       <c r="B19" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5151</v>
+        <v>5168</v>
       </c>
       <c r="B20" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5247</v>
+        <v>5262</v>
       </c>
       <c r="B21" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5446</v>
+        <v>5484</v>
       </c>
       <c r="B22" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5551</v>
+        <v>5587</v>
       </c>
       <c r="B23" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5678</v>
+        <v>5640</v>
       </c>
       <c r="B24" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5764</v>
+        <v>5709</v>
       </c>
       <c r="B25" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5974</v>
+        <v>5941</v>
       </c>
       <c r="B26" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6151</v>
+        <v>6121</v>
       </c>
       <c r="B27" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6227</v>
+        <v>6129</v>
       </c>
       <c r="B28" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6263</v>
+        <v>6160</v>
       </c>
       <c r="B29" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6255</v>
+        <v>6230</v>
       </c>
       <c r="B30" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6172</v>
+        <v>6284</v>
       </c>
       <c r="B31" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6178</v>
+        <v>6235</v>
       </c>
       <c r="B32" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6171</v>
+        <v>6082</v>
       </c>
       <c r="B33" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5883</v>
+        <v>5983</v>
       </c>
       <c r="B34" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5818</v>
+        <v>5905</v>
       </c>
       <c r="B35" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5783</v>
+        <v>5815</v>
       </c>
       <c r="B36" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5616</v>
+        <v>5680</v>
       </c>
       <c r="B37" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5324</v>
+        <v>5577</v>
       </c>
       <c r="B38" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5195</v>
+        <v>5473</v>
       </c>
       <c r="B39" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5135</v>
+        <v>5343</v>
       </c>
       <c r="B40" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5055</v>
+        <v>5243</v>
       </c>
       <c r="B41" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>4914</v>
+        <v>5105</v>
       </c>
       <c r="B42" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,330 +397,218 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5053</v>
+        <v>5142</v>
       </c>
       <c r="B2" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5063</v>
+        <v>5136</v>
       </c>
       <c r="B3" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5051</v>
+        <v>5093</v>
       </c>
       <c r="B4" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5031</v>
+        <v>5035</v>
       </c>
       <c r="B5" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>4981</v>
+        <v>5049</v>
       </c>
       <c r="B6" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5038</v>
+        <v>5056</v>
       </c>
       <c r="B7" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4972</v>
+        <v>5058</v>
       </c>
       <c r="B8" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4985</v>
+        <v>5015</v>
       </c>
       <c r="B9" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4933</v>
+        <v>5028</v>
       </c>
       <c r="B10" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4949</v>
+        <v>4988</v>
       </c>
       <c r="B11" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4906</v>
+        <v>4992</v>
       </c>
       <c r="B12" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4922</v>
+        <v>4986</v>
       </c>
       <c r="B13" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4942</v>
+        <v>5040</v>
       </c>
       <c r="B14" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5011</v>
+        <v>5053</v>
       </c>
       <c r="B15" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>4974</v>
+        <v>5109</v>
       </c>
       <c r="B16" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>4991</v>
+        <v>5027</v>
       </c>
       <c r="B17" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5117</v>
+        <v>5128</v>
       </c>
       <c r="B18" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5198</v>
+        <v>5163</v>
       </c>
       <c r="B19" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5168</v>
+        <v>5278</v>
       </c>
       <c r="B20" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5262</v>
+        <v>5314</v>
       </c>
       <c r="B21" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5484</v>
+        <v>5556</v>
       </c>
       <c r="B22" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5587</v>
+        <v>5692</v>
       </c>
       <c r="B23" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5640</v>
+        <v>5780</v>
       </c>
       <c r="B24" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5709</v>
+        <v>5832</v>
       </c>
       <c r="B25" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5941</v>
+        <v>6079</v>
       </c>
       <c r="B26" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6121</v>
+        <v>6252</v>
       </c>
       <c r="B27" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6129</v>
+        <v>6295</v>
       </c>
       <c r="B28" s="2">
-        <v>45919.27083333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>6160</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45919.28125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>6230</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45919.29166666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>6284</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45919.30208333334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>6235</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45919.3125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>6082</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45919.32291666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>5983</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45919.33333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>5905</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45919.34375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>5815</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45919.35416666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>5680</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45919.36458333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>5577</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45919.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>5473</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45919.38541666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>5343</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45919.39583333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>5243</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45919.40625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>5105</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.27083333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -26,9 +26,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -81,12 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,222 +391,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>5142</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>5136</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45923.01041666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>5093</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45923.02083333334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>5035</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45923.03125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5049</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45923.04166666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>5056</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45923.05208333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>5058</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45923.0625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>5015</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45923.07291666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>5028</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45923.08333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>4988</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45923.09375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>4992</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45923.10416666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>4986</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45923.11458333334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>5040</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45923.125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>5053</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45923.13541666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>5109</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45923.14583333334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>5027</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45923.15625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>5128</v>
-      </c>
-      <c r="B18" s="2">
-        <v>45923.16666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>5163</v>
-      </c>
-      <c r="B19" s="2">
-        <v>45923.17708333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>5278</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45923.1875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>5314</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45923.19791666666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>5556</v>
-      </c>
-      <c r="B22" s="2">
-        <v>45923.20833333334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>5692</v>
-      </c>
-      <c r="B23" s="2">
-        <v>45923.21875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>5780</v>
-      </c>
-      <c r="B24" s="2">
-        <v>45923.22916666666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>5832</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45923.23958333334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>6079</v>
-      </c>
-      <c r="B26" s="2">
-        <v>45923.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>6252</v>
-      </c>
-      <c r="B27" s="2">
-        <v>45923.26041666666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>6295</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45923.27083333334</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -26,6 +26,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,11 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,6 +395,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>6614</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45946.40625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>6483</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45946.41666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>6386</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45946.42708333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,26 +397,330 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6614</v>
+        <v>5610</v>
       </c>
       <c r="B2" s="2">
-        <v>45946.40625</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6483</v>
+        <v>5565</v>
       </c>
       <c r="B3" s="2">
-        <v>45946.41666666666</v>
+        <v>45947.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6386</v>
+        <v>5518</v>
       </c>
       <c r="B4" s="2">
-        <v>45946.42708333334</v>
+        <v>45947.02083333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5490</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45947.03125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5449</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45947.04166666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5455</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45947.05208333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>5399</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45947.0625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>5404</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45947.07291666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>5415</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45947.08333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>5425</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45947.09375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>5412</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45947.10416666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>5365</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45947.11458333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>5410</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45947.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>5435</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45947.13541666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>5441</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45947.14583333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>5500</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45947.15625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>5529</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45947.16666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>5641</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45947.17708333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>5679</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45947.1875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>5790</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45947.19791666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>5990</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45947.20833333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>6166</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45947.21875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>6344</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45947.22916666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>6495</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45947.23958333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>6808</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45947.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>6949</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45947.26041666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>7077</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45947.27083333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>7105</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45947.28125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>7248</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45947.29166666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>7300</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45947.30208333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>7269</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45947.3125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>7098</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45947.32291666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>7066</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45947.33333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>6988</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45947.34375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>6917</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45947.35416666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>6797</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45947.36458333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>6672</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45947.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>6473</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45947.38541666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>6342</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45947.39583333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>6207</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45947.40625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>5994</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45947.41666666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,330 +397,242 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5610</v>
+        <v>5450</v>
       </c>
       <c r="B2" s="2">
-        <v>45947</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5565</v>
+        <v>5367</v>
       </c>
       <c r="B3" s="2">
-        <v>45947.01041666666</v>
+        <v>45954.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5518</v>
+        <v>5340</v>
       </c>
       <c r="B4" s="2">
-        <v>45947.02083333334</v>
+        <v>45954.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5490</v>
+        <v>5343</v>
       </c>
       <c r="B5" s="2">
-        <v>45947.03125</v>
+        <v>45954.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5449</v>
+        <v>5286</v>
       </c>
       <c r="B6" s="2">
-        <v>45947.04166666666</v>
+        <v>45954.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5455</v>
+        <v>5269</v>
       </c>
       <c r="B7" s="2">
-        <v>45947.05208333334</v>
+        <v>45954.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5399</v>
+        <v>5280</v>
       </c>
       <c r="B8" s="2">
-        <v>45947.0625</v>
+        <v>45954.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5404</v>
+        <v>5232</v>
       </c>
       <c r="B9" s="2">
-        <v>45947.07291666666</v>
+        <v>45954.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5415</v>
+        <v>5194</v>
       </c>
       <c r="B10" s="2">
-        <v>45947.08333333334</v>
+        <v>45954.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5425</v>
+        <v>5214</v>
       </c>
       <c r="B11" s="2">
-        <v>45947.09375</v>
+        <v>45954.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5412</v>
+        <v>5249</v>
       </c>
       <c r="B12" s="2">
-        <v>45947.10416666666</v>
+        <v>45954.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5365</v>
+        <v>5290</v>
       </c>
       <c r="B13" s="2">
-        <v>45947.11458333334</v>
+        <v>45954.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5410</v>
+        <v>5263</v>
       </c>
       <c r="B14" s="2">
-        <v>45947.125</v>
+        <v>45954.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5435</v>
+        <v>5224</v>
       </c>
       <c r="B15" s="2">
-        <v>45947.13541666666</v>
+        <v>45954.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5441</v>
+        <v>5328</v>
       </c>
       <c r="B16" s="2">
-        <v>45947.14583333334</v>
+        <v>45954.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5500</v>
+        <v>5357</v>
       </c>
       <c r="B17" s="2">
-        <v>45947.15625</v>
+        <v>45954.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5529</v>
+        <v>5418</v>
       </c>
       <c r="B18" s="2">
-        <v>45947.16666666666</v>
+        <v>45954.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5641</v>
+        <v>5499</v>
       </c>
       <c r="B19" s="2">
-        <v>45947.17708333334</v>
+        <v>45954.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5679</v>
+        <v>5526</v>
       </c>
       <c r="B20" s="2">
-        <v>45947.1875</v>
+        <v>45954.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5790</v>
+        <v>5631</v>
       </c>
       <c r="B21" s="2">
-        <v>45947.19791666666</v>
+        <v>45954.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5990</v>
+        <v>5783</v>
       </c>
       <c r="B22" s="2">
-        <v>45947.20833333334</v>
+        <v>45954.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6166</v>
+        <v>5957</v>
       </c>
       <c r="B23" s="2">
-        <v>45947.21875</v>
+        <v>45954.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6344</v>
+        <v>6136</v>
       </c>
       <c r="B24" s="2">
-        <v>45947.22916666666</v>
+        <v>45954.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6495</v>
+        <v>6263</v>
       </c>
       <c r="B25" s="2">
-        <v>45947.23958333334</v>
+        <v>45954.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6808</v>
+        <v>6576</v>
       </c>
       <c r="B26" s="2">
-        <v>45947.25</v>
+        <v>45954.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6949</v>
+        <v>6709</v>
       </c>
       <c r="B27" s="2">
-        <v>45947.26041666666</v>
+        <v>45954.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7077</v>
+        <v>6816</v>
       </c>
       <c r="B28" s="2">
-        <v>45947.27083333334</v>
+        <v>45954.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7105</v>
+        <v>6902</v>
       </c>
       <c r="B29" s="2">
-        <v>45947.28125</v>
+        <v>45954.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7248</v>
+        <v>7084</v>
       </c>
       <c r="B30" s="2">
-        <v>45947.29166666666</v>
+        <v>45954.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7300</v>
+        <v>7162</v>
       </c>
       <c r="B31" s="2">
-        <v>45947.30208333334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>7269</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45947.3125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>7098</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45947.32291666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>7066</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45947.33333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>6988</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45947.34375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>6917</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45947.35416666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>6797</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45947.36458333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>6672</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45947.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>6473</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45947.38541666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>6342</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45947.39583333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>6207</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45947.40625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>5994</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45947.41666666666</v>
+        <v>45954.30208333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,242 +397,274 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5450</v>
+        <v>5920</v>
       </c>
       <c r="B2" s="2">
-        <v>45954</v>
+        <v>45968.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5367</v>
+        <v>5835</v>
       </c>
       <c r="B3" s="2">
-        <v>45954.01041666666</v>
+        <v>45968.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5340</v>
+        <v>5744</v>
       </c>
       <c r="B4" s="2">
-        <v>45954.02083333334</v>
+        <v>45968.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5343</v>
+        <v>5666</v>
       </c>
       <c r="B5" s="2">
-        <v>45954.03125</v>
+        <v>45968.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5286</v>
+        <v>5600</v>
       </c>
       <c r="B6" s="2">
-        <v>45954.04166666666</v>
+        <v>45969</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5269</v>
+        <v>5569</v>
       </c>
       <c r="B7" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5280</v>
+        <v>5557</v>
       </c>
       <c r="B8" s="2">
-        <v>45954.0625</v>
+        <v>45969.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5232</v>
+        <v>5475</v>
       </c>
       <c r="B9" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5194</v>
+        <v>5469</v>
       </c>
       <c r="B10" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5214</v>
+        <v>5449</v>
       </c>
       <c r="B11" s="2">
-        <v>45954.09375</v>
+        <v>45969.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5249</v>
+        <v>5412</v>
       </c>
       <c r="B12" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5290</v>
+        <v>5365</v>
       </c>
       <c r="B13" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5263</v>
+        <v>5403</v>
       </c>
       <c r="B14" s="2">
-        <v>45954.125</v>
+        <v>45969.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5224</v>
+        <v>5364</v>
       </c>
       <c r="B15" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5328</v>
+        <v>5399</v>
       </c>
       <c r="B16" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5357</v>
+        <v>5391</v>
       </c>
       <c r="B17" s="2">
-        <v>45954.15625</v>
+        <v>45969.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5418</v>
+        <v>5423</v>
       </c>
       <c r="B18" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5499</v>
+        <v>5402</v>
       </c>
       <c r="B19" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5526</v>
+        <v>5421</v>
       </c>
       <c r="B20" s="2">
-        <v>45954.1875</v>
+        <v>45969.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5631</v>
+        <v>5401</v>
       </c>
       <c r="B21" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5783</v>
+        <v>5457</v>
       </c>
       <c r="B22" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5957</v>
+        <v>5475</v>
       </c>
       <c r="B23" s="2">
-        <v>45954.21875</v>
+        <v>45969.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6136</v>
+        <v>5481</v>
       </c>
       <c r="B24" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6263</v>
+        <v>5526</v>
       </c>
       <c r="B25" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6576</v>
+        <v>5485</v>
       </c>
       <c r="B26" s="2">
-        <v>45954.25</v>
+        <v>45969.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6709</v>
+        <v>5534</v>
       </c>
       <c r="B27" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6816</v>
+        <v>5588</v>
       </c>
       <c r="B28" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6902</v>
+        <v>5636</v>
       </c>
       <c r="B29" s="2">
-        <v>45954.28125</v>
+        <v>45969.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7084</v>
+        <v>5744</v>
       </c>
       <c r="B30" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7162</v>
+        <v>5821</v>
       </c>
       <c r="B31" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.26041666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>5843</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45969.27083333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>5915</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45969.28125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>5985</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45969.29166666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>6024</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45969.30208333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -397,274 +397,274 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5920</v>
+        <v>5424</v>
       </c>
       <c r="B2" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5835</v>
+        <v>5455</v>
       </c>
       <c r="B3" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5744</v>
+        <v>5430</v>
       </c>
       <c r="B4" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5666</v>
+        <v>5337</v>
       </c>
       <c r="B5" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5600</v>
+        <v>5216</v>
       </c>
       <c r="B6" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5569</v>
+        <v>5126</v>
       </c>
       <c r="B7" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5557</v>
+        <v>5129</v>
       </c>
       <c r="B8" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5475</v>
+        <v>5037</v>
       </c>
       <c r="B9" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5469</v>
+        <v>5048</v>
       </c>
       <c r="B10" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5449</v>
+        <v>5060</v>
       </c>
       <c r="B11" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5412</v>
+        <v>5022</v>
       </c>
       <c r="B12" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5365</v>
+        <v>5029</v>
       </c>
       <c r="B13" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5403</v>
+        <v>4966</v>
       </c>
       <c r="B14" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5364</v>
+        <v>4994</v>
       </c>
       <c r="B15" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5399</v>
+        <v>4913</v>
       </c>
       <c r="B16" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5391</v>
+        <v>4884</v>
       </c>
       <c r="B17" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5423</v>
+        <v>4913</v>
       </c>
       <c r="B18" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5402</v>
+        <v>4897</v>
       </c>
       <c r="B19" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5421</v>
+        <v>4904</v>
       </c>
       <c r="B20" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5401</v>
+        <v>4886</v>
       </c>
       <c r="B21" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5457</v>
+        <v>4956</v>
       </c>
       <c r="B22" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5475</v>
+        <v>4906</v>
       </c>
       <c r="B23" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5481</v>
+        <v>4948</v>
       </c>
       <c r="B24" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5526</v>
+        <v>4986</v>
       </c>
       <c r="B25" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5485</v>
+        <v>5046</v>
       </c>
       <c r="B26" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5534</v>
+        <v>5055</v>
       </c>
       <c r="B27" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5588</v>
+        <v>5116</v>
       </c>
       <c r="B28" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5636</v>
+        <v>5102</v>
       </c>
       <c r="B29" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5744</v>
+        <v>5093</v>
       </c>
       <c r="B30" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5821</v>
+        <v>5143</v>
       </c>
       <c r="B31" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5843</v>
+        <v>5207</v>
       </c>
       <c r="B32" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5915</v>
+        <v>5258</v>
       </c>
       <c r="B33" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5985</v>
+        <v>5269</v>
       </c>
       <c r="B34" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6024</v>
+        <v>5295</v>
       </c>
       <c r="B35" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,274 +397,346 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5424</v>
+        <v>5787</v>
       </c>
       <c r="B2" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5455</v>
+        <v>5752</v>
       </c>
       <c r="B3" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5430</v>
+        <v>5664</v>
       </c>
       <c r="B4" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5337</v>
+        <v>5591</v>
       </c>
       <c r="B5" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5216</v>
+        <v>5619</v>
       </c>
       <c r="B6" s="2">
-        <v>45970</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5126</v>
+        <v>5572</v>
       </c>
       <c r="B7" s="2">
-        <v>45970.01041666666</v>
+        <v>45973.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5129</v>
+        <v>5550</v>
       </c>
       <c r="B8" s="2">
-        <v>45970.02083333334</v>
+        <v>45973.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5037</v>
+        <v>5492</v>
       </c>
       <c r="B9" s="2">
-        <v>45970.03125</v>
+        <v>45973.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5048</v>
+        <v>5459</v>
       </c>
       <c r="B10" s="2">
-        <v>45970.04166666666</v>
+        <v>45973.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5060</v>
+        <v>5455</v>
       </c>
       <c r="B11" s="2">
-        <v>45970.05208333334</v>
+        <v>45973.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5022</v>
+        <v>5375</v>
       </c>
       <c r="B12" s="2">
-        <v>45970.0625</v>
+        <v>45973.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5029</v>
+        <v>5373</v>
       </c>
       <c r="B13" s="2">
-        <v>45970.07291666666</v>
+        <v>45973.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4966</v>
+        <v>5432</v>
       </c>
       <c r="B14" s="2">
-        <v>45970.08333333334</v>
+        <v>45973.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>4994</v>
+        <v>5408</v>
       </c>
       <c r="B15" s="2">
-        <v>45970.09375</v>
+        <v>45973.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>4913</v>
+        <v>5381</v>
       </c>
       <c r="B16" s="2">
-        <v>45970.10416666666</v>
+        <v>45973.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>4884</v>
+        <v>5408</v>
       </c>
       <c r="B17" s="2">
-        <v>45970.11458333334</v>
+        <v>45973.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>4913</v>
+        <v>5367</v>
       </c>
       <c r="B18" s="2">
-        <v>45970.125</v>
+        <v>45973.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>4897</v>
+        <v>5431</v>
       </c>
       <c r="B19" s="2">
-        <v>45970.13541666666</v>
+        <v>45973.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>4904</v>
+        <v>5482</v>
       </c>
       <c r="B20" s="2">
-        <v>45970.14583333334</v>
+        <v>45973.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>4886</v>
+        <v>5558</v>
       </c>
       <c r="B21" s="2">
-        <v>45970.15625</v>
+        <v>45973.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>4956</v>
+        <v>5543</v>
       </c>
       <c r="B22" s="2">
-        <v>45970.16666666666</v>
+        <v>45973.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>4906</v>
+        <v>5681</v>
       </c>
       <c r="B23" s="2">
-        <v>45970.17708333334</v>
+        <v>45973.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>4948</v>
+        <v>5810</v>
       </c>
       <c r="B24" s="2">
-        <v>45970.1875</v>
+        <v>45973.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>4986</v>
+        <v>5717</v>
       </c>
       <c r="B25" s="2">
-        <v>45970.19791666666</v>
+        <v>45973.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5046</v>
+        <v>6030</v>
       </c>
       <c r="B26" s="2">
-        <v>45970.20833333334</v>
+        <v>45973.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5055</v>
+        <v>6233</v>
       </c>
       <c r="B27" s="2">
-        <v>45970.21875</v>
+        <v>45973.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5116</v>
+        <v>6395</v>
       </c>
       <c r="B28" s="2">
-        <v>45970.22916666666</v>
+        <v>45973.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5102</v>
+        <v>6572</v>
       </c>
       <c r="B29" s="2">
-        <v>45970.23958333334</v>
+        <v>45973.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5093</v>
+        <v>6826</v>
       </c>
       <c r="B30" s="2">
-        <v>45970.25</v>
+        <v>45973.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5143</v>
+        <v>7003</v>
       </c>
       <c r="B31" s="2">
-        <v>45970.26041666666</v>
+        <v>45973.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5207</v>
+        <v>7124</v>
       </c>
       <c r="B32" s="2">
-        <v>45970.27083333334</v>
+        <v>45973.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5258</v>
+        <v>7167</v>
       </c>
       <c r="B33" s="2">
-        <v>45970.28125</v>
+        <v>45973.28125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5269</v>
+        <v>7333</v>
       </c>
       <c r="B34" s="2">
-        <v>45970.29166666666</v>
+        <v>45973.29166666666</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5295</v>
+        <v>7456</v>
       </c>
       <c r="B35" s="2">
-        <v>45970.30208333334</v>
+        <v>45973.30208333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>7542</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45973.3125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>7496</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45973.32291666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>7486</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45973.33333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>7418</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45973.34375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>7406</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45973.35416666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>7294</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45973.36458333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>7113</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45973.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>7157</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45973.38541666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>7097</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45973.39583333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,346 +397,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5787</v>
+        <v>5945</v>
       </c>
       <c r="B2" s="2">
-        <v>45972.95833333334</v>
+        <v>45981.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5752</v>
+        <v>5897</v>
       </c>
       <c r="B3" s="2">
-        <v>45972.96875</v>
+        <v>45981.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5664</v>
+        <v>5855</v>
       </c>
       <c r="B4" s="2">
-        <v>45972.97916666666</v>
+        <v>45981.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5591</v>
+        <v>5806</v>
       </c>
       <c r="B5" s="2">
-        <v>45972.98958333334</v>
+        <v>45981.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5619</v>
+        <v>5758</v>
       </c>
       <c r="B6" s="2">
-        <v>45973</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5572</v>
+        <v>5705</v>
       </c>
       <c r="B7" s="2">
-        <v>45973.01041666666</v>
+        <v>45982.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5550</v>
+        <v>5655</v>
       </c>
       <c r="B8" s="2">
-        <v>45973.02083333334</v>
+        <v>45982.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5492</v>
+        <v>5652</v>
       </c>
       <c r="B9" s="2">
-        <v>45973.03125</v>
+        <v>45982.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5459</v>
+        <v>5625</v>
       </c>
       <c r="B10" s="2">
-        <v>45973.04166666666</v>
+        <v>45982.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5455</v>
+        <v>5586</v>
       </c>
       <c r="B11" s="2">
-        <v>45973.05208333334</v>
+        <v>45982.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5375</v>
+        <v>5576</v>
       </c>
       <c r="B12" s="2">
-        <v>45973.0625</v>
+        <v>45982.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5373</v>
+        <v>5578</v>
       </c>
       <c r="B13" s="2">
-        <v>45973.07291666666</v>
+        <v>45982.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5432</v>
+        <v>5552</v>
       </c>
       <c r="B14" s="2">
-        <v>45973.08333333334</v>
+        <v>45982.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5408</v>
+        <v>5546</v>
       </c>
       <c r="B15" s="2">
-        <v>45973.09375</v>
+        <v>45982.10416666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5381</v>
+        <v>5577</v>
       </c>
       <c r="B16" s="2">
-        <v>45973.10416666666</v>
+        <v>45982.11458333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5408</v>
+        <v>5583</v>
       </c>
       <c r="B17" s="2">
-        <v>45973.11458333334</v>
+        <v>45982.125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5367</v>
+        <v>5624</v>
       </c>
       <c r="B18" s="2">
-        <v>45973.125</v>
+        <v>45982.13541666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5431</v>
+        <v>5644</v>
       </c>
       <c r="B19" s="2">
-        <v>45973.13541666666</v>
+        <v>45982.14583333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5482</v>
+        <v>5687</v>
       </c>
       <c r="B20" s="2">
-        <v>45973.14583333334</v>
+        <v>45982.15625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5558</v>
+        <v>5715</v>
       </c>
       <c r="B21" s="2">
-        <v>45973.15625</v>
+        <v>45982.16666666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5543</v>
+        <v>5775</v>
       </c>
       <c r="B22" s="2">
-        <v>45973.16666666666</v>
+        <v>45982.17708333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5681</v>
+        <v>5860</v>
       </c>
       <c r="B23" s="2">
-        <v>45973.17708333334</v>
+        <v>45982.1875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5810</v>
+        <v>5961</v>
       </c>
       <c r="B24" s="2">
-        <v>45973.1875</v>
+        <v>45982.19791666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5717</v>
+        <v>6188</v>
       </c>
       <c r="B25" s="2">
-        <v>45973.19791666666</v>
+        <v>45982.20833333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6030</v>
+        <v>6326</v>
       </c>
       <c r="B26" s="2">
-        <v>45973.20833333334</v>
+        <v>45982.21875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6233</v>
+        <v>6458</v>
       </c>
       <c r="B27" s="2">
-        <v>45973.21875</v>
+        <v>45982.22916666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6395</v>
+        <v>6656</v>
       </c>
       <c r="B28" s="2">
-        <v>45973.22916666666</v>
+        <v>45982.23958333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6572</v>
+        <v>6906</v>
       </c>
       <c r="B29" s="2">
-        <v>45973.23958333334</v>
+        <v>45982.25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6826</v>
+        <v>7043</v>
       </c>
       <c r="B30" s="2">
-        <v>45973.25</v>
+        <v>45982.26041666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7003</v>
+        <v>7201</v>
       </c>
       <c r="B31" s="2">
-        <v>45973.26041666666</v>
+        <v>45982.27083333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7124</v>
+        <v>7228</v>
       </c>
       <c r="B32" s="2">
-        <v>45973.27083333334</v>
+        <v>45982.28125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7167</v>
+        <v>7346</v>
       </c>
       <c r="B33" s="2">
-        <v>45973.28125</v>
+        <v>45982.29166666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7333</v>
+        <v>7393</v>
       </c>
       <c r="B34" s="2">
-        <v>45973.29166666666</v>
+        <v>45982.30208333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7456</v>
+        <v>7380</v>
       </c>
       <c r="B35" s="2">
-        <v>45973.30208333334</v>
+        <v>45982.3125</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7542</v>
+        <v>7376</v>
       </c>
       <c r="B36" s="2">
-        <v>45973.3125</v>
+        <v>45982.32291666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7496</v>
+        <v>7339</v>
       </c>
       <c r="B37" s="2">
-        <v>45973.32291666666</v>
+        <v>45982.33333333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7486</v>
+        <v>7327</v>
       </c>
       <c r="B38" s="2">
-        <v>45973.33333333334</v>
+        <v>45982.34375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7418</v>
+        <v>7276</v>
       </c>
       <c r="B39" s="2">
-        <v>45973.34375</v>
+        <v>45982.35416666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7406</v>
+        <v>7293</v>
       </c>
       <c r="B40" s="2">
-        <v>45973.35416666666</v>
+        <v>45982.36458333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7294</v>
+        <v>7202</v>
       </c>
       <c r="B41" s="2">
-        <v>45973.36458333334</v>
+        <v>45982.375</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7113</v>
+        <v>7148</v>
       </c>
       <c r="B42" s="2">
-        <v>45973.375</v>
+        <v>45982.38541666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>7157</v>
+        <v>7048</v>
       </c>
       <c r="B43" s="2">
-        <v>45973.38541666666</v>
+        <v>45982.39583333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>7097</v>
+        <v>7027</v>
       </c>
       <c r="B44" s="2">
-        <v>45973.39583333334</v>
+        <v>45982.40625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>6902</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45982.41666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>6894</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45982.42708333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>6858</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45982.4375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>6760</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45982.44791666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>6756</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45982.45833333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>6718</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45982.46875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>6805</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45982.47916666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>6869</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45982.48958333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>6875</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45982.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>6932</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45982.51041666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>6909</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45982.52083333334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>6899</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45982.53125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>6955</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45982.54166666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>6965</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45982.55208333334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>6978</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45982.5625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>6964</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45982.57291666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>6949</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45982.58333333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,482 +397,274 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5945</v>
+        <v>5622</v>
       </c>
       <c r="B2" s="2">
-        <v>45981.95833333334</v>
+        <v>45983.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5897</v>
+        <v>5545</v>
       </c>
       <c r="B3" s="2">
-        <v>45981.96875</v>
+        <v>45983.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5855</v>
+        <v>5517</v>
       </c>
       <c r="B4" s="2">
-        <v>45981.97916666666</v>
+        <v>45983.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5806</v>
+        <v>5415</v>
       </c>
       <c r="B5" s="2">
-        <v>45981.98958333334</v>
+        <v>45983.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5758</v>
+        <v>5380</v>
       </c>
       <c r="B6" s="2">
-        <v>45982</v>
+        <v>45984</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5705</v>
+        <v>5334</v>
       </c>
       <c r="B7" s="2">
-        <v>45982.01041666666</v>
+        <v>45984.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5655</v>
+        <v>5272</v>
       </c>
       <c r="B8" s="2">
-        <v>45982.02083333334</v>
+        <v>45984.03125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5652</v>
+        <v>5270</v>
       </c>
       <c r="B9" s="2">
-        <v>45982.03125</v>
+        <v>45984.04166666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5625</v>
+        <v>5262</v>
       </c>
       <c r="B10" s="2">
-        <v>45982.04166666666</v>
+        <v>45984.05208333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5586</v>
+        <v>5273</v>
       </c>
       <c r="B11" s="2">
-        <v>45982.05208333334</v>
+        <v>45984.0625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5576</v>
+        <v>5219</v>
       </c>
       <c r="B12" s="2">
-        <v>45982.0625</v>
+        <v>45984.07291666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5578</v>
+        <v>5177</v>
       </c>
       <c r="B13" s="2">
-        <v>45982.07291666666</v>
+        <v>45984.08333333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5552</v>
+        <v>5147</v>
       </c>
       <c r="B14" s="2">
-        <v>45982.08333333334</v>
+        <v>45984.09375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5546</v>
+        <v>5114</v>
       </c>
       <c r="B15" s="2">
-        <v>45982.10416666666</v>
+        <v>45984.10416666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5577</v>
+        <v>5132</v>
       </c>
       <c r="B16" s="2">
-        <v>45982.11458333334</v>
+        <v>45984.11458333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5583</v>
+        <v>5188</v>
       </c>
       <c r="B17" s="2">
-        <v>45982.125</v>
+        <v>45984.125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5624</v>
+        <v>5215</v>
       </c>
       <c r="B18" s="2">
-        <v>45982.13541666666</v>
+        <v>45984.13541666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5644</v>
+        <v>5220</v>
       </c>
       <c r="B19" s="2">
-        <v>45982.14583333334</v>
+        <v>45984.14583333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5687</v>
+        <v>5215</v>
       </c>
       <c r="B20" s="2">
-        <v>45982.15625</v>
+        <v>45984.15625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5715</v>
+        <v>5249</v>
       </c>
       <c r="B21" s="2">
-        <v>45982.16666666666</v>
+        <v>45984.16666666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5775</v>
+        <v>5250</v>
       </c>
       <c r="B22" s="2">
-        <v>45982.17708333334</v>
+        <v>45984.17708333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5860</v>
+        <v>5283</v>
       </c>
       <c r="B23" s="2">
-        <v>45982.1875</v>
+        <v>45984.1875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5961</v>
+        <v>5345</v>
       </c>
       <c r="B24" s="2">
-        <v>45982.19791666666</v>
+        <v>45984.19791666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6188</v>
+        <v>5442</v>
       </c>
       <c r="B25" s="2">
-        <v>45982.20833333334</v>
+        <v>45984.20833333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6326</v>
+        <v>5458</v>
       </c>
       <c r="B26" s="2">
-        <v>45982.21875</v>
+        <v>45984.21875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6458</v>
+        <v>5517</v>
       </c>
       <c r="B27" s="2">
-        <v>45982.22916666666</v>
+        <v>45984.22916666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6656</v>
+        <v>5608</v>
       </c>
       <c r="B28" s="2">
-        <v>45982.23958333334</v>
+        <v>45984.23958333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6906</v>
+        <v>5474</v>
       </c>
       <c r="B29" s="2">
-        <v>45982.25</v>
+        <v>45984.25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7043</v>
+        <v>5539</v>
       </c>
       <c r="B30" s="2">
-        <v>45982.26041666666</v>
+        <v>45984.26041666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7201</v>
+        <v>5566</v>
       </c>
       <c r="B31" s="2">
-        <v>45982.27083333334</v>
+        <v>45984.27083333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7228</v>
+        <v>5620</v>
       </c>
       <c r="B32" s="2">
-        <v>45982.28125</v>
+        <v>45984.28125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7346</v>
+        <v>5696</v>
       </c>
       <c r="B33" s="2">
-        <v>45982.29166666666</v>
+        <v>45984.29166666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7393</v>
+        <v>5751</v>
       </c>
       <c r="B34" s="2">
-        <v>45982.30208333334</v>
+        <v>45984.30208333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7380</v>
+        <v>5805</v>
       </c>
       <c r="B35" s="2">
-        <v>45982.3125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>7376</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45982.32291666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>7339</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45982.33333333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>7327</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45982.34375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>7276</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45982.35416666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>7293</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45982.36458333334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>7202</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45982.375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>7148</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45982.38541666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>7048</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45982.39583333334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>7027</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45982.40625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>6902</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45982.41666666666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>6894</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45982.42708333334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>6858</v>
-      </c>
-      <c r="B47" s="2">
-        <v>45982.4375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>6760</v>
-      </c>
-      <c r="B48" s="2">
-        <v>45982.44791666666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>6756</v>
-      </c>
-      <c r="B49" s="2">
-        <v>45982.45833333334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>6718</v>
-      </c>
-      <c r="B50" s="2">
-        <v>45982.46875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>6805</v>
-      </c>
-      <c r="B51" s="2">
-        <v>45982.47916666666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>6869</v>
-      </c>
-      <c r="B52" s="2">
-        <v>45982.48958333334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>6875</v>
-      </c>
-      <c r="B53" s="2">
-        <v>45982.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>6932</v>
-      </c>
-      <c r="B54" s="2">
-        <v>45982.51041666666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>6909</v>
-      </c>
-      <c r="B55" s="2">
-        <v>45982.52083333334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>6899</v>
-      </c>
-      <c r="B56" s="2">
-        <v>45982.53125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>6955</v>
-      </c>
-      <c r="B57" s="2">
-        <v>45982.54166666666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>6965</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45982.55208333334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>6978</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45982.5625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>6964</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45982.57291666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>6949</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45982.58333333334</v>
+        <v>45984.3125</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,274 +397,362 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5622</v>
+        <v>5631</v>
       </c>
       <c r="B2" s="2">
-        <v>45983.95833333334</v>
+        <v>45992.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5545</v>
+        <v>5543</v>
       </c>
       <c r="B3" s="2">
-        <v>45983.96875</v>
+        <v>45992.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5517</v>
+        <v>5452</v>
       </c>
       <c r="B4" s="2">
-        <v>45983.97916666666</v>
+        <v>45992.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5415</v>
+        <v>5331</v>
       </c>
       <c r="B5" s="2">
-        <v>45983.98958333334</v>
+        <v>45992.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5380</v>
+        <v>5269</v>
       </c>
       <c r="B6" s="2">
-        <v>45984</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5334</v>
+        <v>5272</v>
       </c>
       <c r="B7" s="2">
-        <v>45984.01041666666</v>
+        <v>45993.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5272</v>
+        <v>5223</v>
       </c>
       <c r="B8" s="2">
-        <v>45984.03125</v>
+        <v>45993.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5270</v>
+        <v>5145</v>
       </c>
       <c r="B9" s="2">
-        <v>45984.04166666666</v>
+        <v>45993.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5262</v>
+        <v>5158</v>
       </c>
       <c r="B10" s="2">
-        <v>45984.05208333334</v>
+        <v>45993.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5273</v>
+        <v>5131</v>
       </c>
       <c r="B11" s="2">
-        <v>45984.0625</v>
+        <v>45993.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5219</v>
+        <v>5183</v>
       </c>
       <c r="B12" s="2">
-        <v>45984.07291666666</v>
+        <v>45993.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5177</v>
+        <v>5110</v>
       </c>
       <c r="B13" s="2">
-        <v>45984.08333333334</v>
+        <v>45993.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5147</v>
+        <v>5159</v>
       </c>
       <c r="B14" s="2">
-        <v>45984.09375</v>
+        <v>45993.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5114</v>
+        <v>5177</v>
       </c>
       <c r="B15" s="2">
-        <v>45984.10416666666</v>
+        <v>45993.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5132</v>
+        <v>5151</v>
       </c>
       <c r="B16" s="2">
-        <v>45984.11458333334</v>
+        <v>45993.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5188</v>
+        <v>5097</v>
       </c>
       <c r="B17" s="2">
-        <v>45984.125</v>
+        <v>45993.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5215</v>
+        <v>5176</v>
       </c>
       <c r="B18" s="2">
-        <v>45984.13541666666</v>
+        <v>45993.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5220</v>
+        <v>5219</v>
       </c>
       <c r="B19" s="2">
-        <v>45984.14583333334</v>
+        <v>45993.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5215</v>
+        <v>5222</v>
       </c>
       <c r="B20" s="2">
-        <v>45984.15625</v>
+        <v>45993.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5249</v>
+        <v>5266</v>
       </c>
       <c r="B21" s="2">
-        <v>45984.16666666666</v>
+        <v>45993.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5250</v>
+        <v>5375</v>
       </c>
       <c r="B22" s="2">
-        <v>45984.17708333334</v>
+        <v>45993.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5283</v>
+        <v>5439</v>
       </c>
       <c r="B23" s="2">
-        <v>45984.1875</v>
+        <v>45993.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5345</v>
+        <v>5488</v>
       </c>
       <c r="B24" s="2">
-        <v>45984.19791666666</v>
+        <v>45993.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5442</v>
+        <v>5591</v>
       </c>
       <c r="B25" s="2">
-        <v>45984.20833333334</v>
+        <v>45993.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5458</v>
+        <v>5947</v>
       </c>
       <c r="B26" s="2">
-        <v>45984.21875</v>
+        <v>45993.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5517</v>
+        <v>6101</v>
       </c>
       <c r="B27" s="2">
-        <v>45984.22916666666</v>
+        <v>45993.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5608</v>
+        <v>6345</v>
       </c>
       <c r="B28" s="2">
-        <v>45984.23958333334</v>
+        <v>45993.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5474</v>
+        <v>6524</v>
       </c>
       <c r="B29" s="2">
-        <v>45984.25</v>
+        <v>45993.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5539</v>
+        <v>6914</v>
       </c>
       <c r="B30" s="2">
-        <v>45984.26041666666</v>
+        <v>45993.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5566</v>
+        <v>7122</v>
       </c>
       <c r="B31" s="2">
-        <v>45984.27083333334</v>
+        <v>45993.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5620</v>
+        <v>7291</v>
       </c>
       <c r="B32" s="2">
-        <v>45984.28125</v>
+        <v>45993.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5696</v>
+        <v>7368</v>
       </c>
       <c r="B33" s="2">
-        <v>45984.29166666666</v>
+        <v>45993.28125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5751</v>
+        <v>7561</v>
       </c>
       <c r="B34" s="2">
-        <v>45984.30208333334</v>
+        <v>45993.29166666666</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5805</v>
+        <v>7674</v>
       </c>
       <c r="B35" s="2">
-        <v>45984.3125</v>
+        <v>45993.30208333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>7792</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45993.3125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>7781</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45993.32291666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>7842</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45993.33333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>7874</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45993.34375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>7979</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45993.35416666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>7905</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45993.36458333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>7869</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45993.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>7834</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45993.38541666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>7821</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45993.39583333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>7755</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45993.40625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>7741</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45993.41666666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -397,362 +397,362 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5631</v>
+        <v>6097</v>
       </c>
       <c r="B2" s="2">
-        <v>45992.95833333334</v>
+        <v>45994.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5543</v>
+        <v>6047</v>
       </c>
       <c r="B3" s="2">
-        <v>45992.96875</v>
+        <v>45994.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5452</v>
+        <v>5968</v>
       </c>
       <c r="B4" s="2">
-        <v>45992.97916666666</v>
+        <v>45994.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5331</v>
+        <v>5957</v>
       </c>
       <c r="B5" s="2">
-        <v>45992.98958333334</v>
+        <v>45994.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5269</v>
+        <v>5848</v>
       </c>
       <c r="B6" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5272</v>
+        <v>5824</v>
       </c>
       <c r="B7" s="2">
-        <v>45993.01041666666</v>
+        <v>45995.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5223</v>
+        <v>5811</v>
       </c>
       <c r="B8" s="2">
-        <v>45993.02083333334</v>
+        <v>45995.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5145</v>
+        <v>5780</v>
       </c>
       <c r="B9" s="2">
-        <v>45993.03125</v>
+        <v>45995.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5158</v>
+        <v>5649</v>
       </c>
       <c r="B10" s="2">
-        <v>45993.04166666666</v>
+        <v>45995.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5131</v>
+        <v>5596</v>
       </c>
       <c r="B11" s="2">
-        <v>45993.05208333334</v>
+        <v>45995.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5183</v>
+        <v>5626</v>
       </c>
       <c r="B12" s="2">
-        <v>45993.0625</v>
+        <v>45995.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5110</v>
+        <v>5650</v>
       </c>
       <c r="B13" s="2">
-        <v>45993.07291666666</v>
+        <v>45995.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5159</v>
+        <v>5580</v>
       </c>
       <c r="B14" s="2">
-        <v>45993.08333333334</v>
+        <v>45995.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5177</v>
+        <v>5525</v>
       </c>
       <c r="B15" s="2">
-        <v>45993.09375</v>
+        <v>45995.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5151</v>
+        <v>5577</v>
       </c>
       <c r="B16" s="2">
-        <v>45993.10416666666</v>
+        <v>45995.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5097</v>
+        <v>5655</v>
       </c>
       <c r="B17" s="2">
-        <v>45993.11458333334</v>
+        <v>45995.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5176</v>
+        <v>5565</v>
       </c>
       <c r="B18" s="2">
-        <v>45993.125</v>
+        <v>45995.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5219</v>
+        <v>5634</v>
       </c>
       <c r="B19" s="2">
-        <v>45993.13541666666</v>
+        <v>45995.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5222</v>
+        <v>5707</v>
       </c>
       <c r="B20" s="2">
-        <v>45993.14583333334</v>
+        <v>45995.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5266</v>
+        <v>5687</v>
       </c>
       <c r="B21" s="2">
-        <v>45993.15625</v>
+        <v>45995.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5375</v>
+        <v>5821</v>
       </c>
       <c r="B22" s="2">
-        <v>45993.16666666666</v>
+        <v>45995.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5439</v>
+        <v>5852</v>
       </c>
       <c r="B23" s="2">
-        <v>45993.17708333334</v>
+        <v>45995.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5488</v>
+        <v>6012</v>
       </c>
       <c r="B24" s="2">
-        <v>45993.1875</v>
+        <v>45995.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5591</v>
+        <v>6037</v>
       </c>
       <c r="B25" s="2">
-        <v>45993.19791666666</v>
+        <v>45995.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5947</v>
+        <v>6316</v>
       </c>
       <c r="B26" s="2">
-        <v>45993.20833333334</v>
+        <v>45995.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6101</v>
+        <v>6460</v>
       </c>
       <c r="B27" s="2">
-        <v>45993.21875</v>
+        <v>45995.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6345</v>
+        <v>6647</v>
       </c>
       <c r="B28" s="2">
-        <v>45993.22916666666</v>
+        <v>45995.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6524</v>
+        <v>6829</v>
       </c>
       <c r="B29" s="2">
-        <v>45993.23958333334</v>
+        <v>45995.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6914</v>
+        <v>7063</v>
       </c>
       <c r="B30" s="2">
-        <v>45993.25</v>
+        <v>45995.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7122</v>
+        <v>7369</v>
       </c>
       <c r="B31" s="2">
-        <v>45993.26041666666</v>
+        <v>45995.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7291</v>
+        <v>7385</v>
       </c>
       <c r="B32" s="2">
-        <v>45993.27083333334</v>
+        <v>45995.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7368</v>
+        <v>7492</v>
       </c>
       <c r="B33" s="2">
-        <v>45993.28125</v>
+        <v>45995.28125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7561</v>
+        <v>7599</v>
       </c>
       <c r="B34" s="2">
-        <v>45993.29166666666</v>
+        <v>45995.29166666666</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7674</v>
+        <v>7736</v>
       </c>
       <c r="B35" s="2">
-        <v>45993.30208333334</v>
+        <v>45995.30208333334</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7792</v>
+        <v>7782</v>
       </c>
       <c r="B36" s="2">
-        <v>45993.3125</v>
+        <v>45995.3125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7781</v>
+        <v>7792</v>
       </c>
       <c r="B37" s="2">
-        <v>45993.32291666666</v>
+        <v>45995.32291666666</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7842</v>
+        <v>7798</v>
       </c>
       <c r="B38" s="2">
-        <v>45993.33333333334</v>
+        <v>45995.33333333334</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7874</v>
+        <v>7769</v>
       </c>
       <c r="B39" s="2">
-        <v>45993.34375</v>
+        <v>45995.34375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7979</v>
+        <v>7738</v>
       </c>
       <c r="B40" s="2">
-        <v>45993.35416666666</v>
+        <v>45995.35416666666</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7905</v>
+        <v>7696</v>
       </c>
       <c r="B41" s="2">
-        <v>45993.36458333334</v>
+        <v>45995.36458333334</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7869</v>
+        <v>7635</v>
       </c>
       <c r="B42" s="2">
-        <v>45993.375</v>
+        <v>45995.375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>7834</v>
+        <v>7527</v>
       </c>
       <c r="B43" s="2">
-        <v>45993.38541666666</v>
+        <v>45995.38541666666</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>7821</v>
+        <v>7453</v>
       </c>
       <c r="B44" s="2">
-        <v>45993.39583333334</v>
+        <v>45995.39583333334</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>7755</v>
+        <v>7452</v>
       </c>
       <c r="B45" s="2">
-        <v>45993.40625</v>
+        <v>45995.40625</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>7741</v>
+        <v>7406</v>
       </c>
       <c r="B46" s="2">
-        <v>45993.41666666666</v>
+        <v>45995.41666666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,362 +397,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6097</v>
+        <v>5633</v>
       </c>
       <c r="B2" s="2">
-        <v>45994.95833333334</v>
+        <v>46005.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6047</v>
+        <v>5628</v>
       </c>
       <c r="B3" s="2">
-        <v>45994.96875</v>
+        <v>46005.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5968</v>
+        <v>5572</v>
       </c>
       <c r="B4" s="2">
-        <v>45994.97916666666</v>
+        <v>46005.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5957</v>
+        <v>5529</v>
       </c>
       <c r="B5" s="2">
-        <v>45994.98958333334</v>
+        <v>46005.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5848</v>
+        <v>5518</v>
       </c>
       <c r="B6" s="2">
-        <v>45995</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5824</v>
+        <v>5451</v>
       </c>
       <c r="B7" s="2">
-        <v>45995.01041666666</v>
+        <v>46006.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5811</v>
+        <v>5382</v>
       </c>
       <c r="B8" s="2">
-        <v>45995.02083333334</v>
+        <v>46006.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5780</v>
+        <v>5370</v>
       </c>
       <c r="B9" s="2">
-        <v>45995.03125</v>
+        <v>46006.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5649</v>
+        <v>5346</v>
       </c>
       <c r="B10" s="2">
-        <v>45995.04166666666</v>
+        <v>46006.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5596</v>
+        <v>5326</v>
       </c>
       <c r="B11" s="2">
-        <v>45995.05208333334</v>
+        <v>46006.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5626</v>
+        <v>5306</v>
       </c>
       <c r="B12" s="2">
-        <v>45995.0625</v>
+        <v>46006.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5650</v>
+        <v>5345</v>
       </c>
       <c r="B13" s="2">
-        <v>45995.07291666666</v>
+        <v>46006.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5580</v>
+        <v>5335</v>
       </c>
       <c r="B14" s="2">
-        <v>45995.08333333334</v>
+        <v>46006.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5525</v>
+        <v>5296</v>
       </c>
       <c r="B15" s="2">
-        <v>45995.09375</v>
+        <v>46006.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5577</v>
+        <v>5253</v>
       </c>
       <c r="B16" s="2">
-        <v>45995.10416666666</v>
+        <v>46006.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5655</v>
+        <v>5284</v>
       </c>
       <c r="B17" s="2">
-        <v>45995.11458333334</v>
+        <v>46006.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5565</v>
+        <v>5296</v>
       </c>
       <c r="B18" s="2">
-        <v>45995.125</v>
+        <v>46006.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5634</v>
+        <v>5318</v>
       </c>
       <c r="B19" s="2">
-        <v>45995.13541666666</v>
+        <v>46006.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5707</v>
+        <v>5363</v>
       </c>
       <c r="B20" s="2">
-        <v>45995.14583333334</v>
+        <v>46006.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5687</v>
+        <v>5389</v>
       </c>
       <c r="B21" s="2">
-        <v>45995.15625</v>
+        <v>46006.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5821</v>
+        <v>5489</v>
       </c>
       <c r="B22" s="2">
-        <v>45995.16666666666</v>
+        <v>46006.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5852</v>
+        <v>5589</v>
       </c>
       <c r="B23" s="2">
-        <v>45995.17708333334</v>
+        <v>46006.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6012</v>
+        <v>5717</v>
       </c>
       <c r="B24" s="2">
-        <v>45995.1875</v>
+        <v>46006.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6037</v>
+        <v>5817</v>
       </c>
       <c r="B25" s="2">
-        <v>45995.19791666666</v>
+        <v>46006.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6316</v>
+        <v>6075</v>
       </c>
       <c r="B26" s="2">
-        <v>45995.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6460</v>
+        <v>6336</v>
       </c>
       <c r="B27" s="2">
-        <v>45995.21875</v>
+        <v>46006.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6647</v>
+        <v>6537</v>
       </c>
       <c r="B28" s="2">
-        <v>45995.22916666666</v>
+        <v>46006.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6829</v>
+        <v>6791</v>
       </c>
       <c r="B29" s="2">
-        <v>45995.23958333334</v>
+        <v>46006.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7063</v>
+        <v>7161</v>
       </c>
       <c r="B30" s="2">
-        <v>45995.25</v>
+        <v>46006.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7369</v>
+        <v>7394</v>
       </c>
       <c r="B31" s="2">
-        <v>45995.26041666666</v>
+        <v>46006.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7385</v>
+        <v>7638</v>
       </c>
       <c r="B32" s="2">
-        <v>45995.27083333334</v>
+        <v>46006.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7492</v>
+        <v>7748</v>
       </c>
       <c r="B33" s="2">
-        <v>45995.28125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>7599</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45995.29166666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>7736</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45995.30208333334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>7782</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45995.3125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>7792</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45995.32291666666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>7798</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45995.33333333334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>7769</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45995.34375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>7738</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45995.35416666666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>7696</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45995.36458333334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>7635</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45995.375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>7527</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45995.38541666666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>7453</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45995.39583333334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>7452</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45995.40625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>7406</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45995.41666666666</v>
+        <v>46006.28125</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,258 +397,346 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5633</v>
+        <v>6064</v>
       </c>
       <c r="B2" s="2">
-        <v>46005.95833333334</v>
+        <v>46021.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5628</v>
+        <v>5998</v>
       </c>
       <c r="B3" s="2">
-        <v>46005.96875</v>
+        <v>46021.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5572</v>
+        <v>5876</v>
       </c>
       <c r="B4" s="2">
-        <v>46005.97916666666</v>
+        <v>46021.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5529</v>
+        <v>5837</v>
       </c>
       <c r="B5" s="2">
-        <v>46005.98958333334</v>
+        <v>46021.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5518</v>
+        <v>5819</v>
       </c>
       <c r="B6" s="2">
-        <v>46006</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5451</v>
+        <v>5748</v>
       </c>
       <c r="B7" s="2">
-        <v>46006.01041666666</v>
+        <v>46022.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5382</v>
+        <v>5704</v>
       </c>
       <c r="B8" s="2">
-        <v>46006.02083333334</v>
+        <v>46022.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5370</v>
+        <v>5663</v>
       </c>
       <c r="B9" s="2">
-        <v>46006.03125</v>
+        <v>46022.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5346</v>
+        <v>5569</v>
       </c>
       <c r="B10" s="2">
-        <v>46006.04166666666</v>
+        <v>46022.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5326</v>
+        <v>5523</v>
       </c>
       <c r="B11" s="2">
-        <v>46006.05208333334</v>
+        <v>46022.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5306</v>
+        <v>5487</v>
       </c>
       <c r="B12" s="2">
-        <v>46006.0625</v>
+        <v>46022.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5345</v>
+        <v>5459</v>
       </c>
       <c r="B13" s="2">
-        <v>46006.07291666666</v>
+        <v>46022.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5335</v>
+        <v>5418</v>
       </c>
       <c r="B14" s="2">
-        <v>46006.08333333334</v>
+        <v>46022.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5296</v>
+        <v>5409</v>
       </c>
       <c r="B15" s="2">
-        <v>46006.09375</v>
+        <v>46022.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5253</v>
+        <v>5387</v>
       </c>
       <c r="B16" s="2">
-        <v>46006.10416666666</v>
+        <v>46022.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5284</v>
+        <v>5368</v>
       </c>
       <c r="B17" s="2">
-        <v>46006.11458333334</v>
+        <v>46022.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5296</v>
+        <v>5355</v>
       </c>
       <c r="B18" s="2">
-        <v>46006.125</v>
+        <v>46022.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5318</v>
+        <v>5403</v>
       </c>
       <c r="B19" s="2">
-        <v>46006.13541666666</v>
+        <v>46022.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5363</v>
+        <v>5434</v>
       </c>
       <c r="B20" s="2">
-        <v>46006.14583333334</v>
+        <v>46022.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5389</v>
+        <v>5425</v>
       </c>
       <c r="B21" s="2">
-        <v>46006.15625</v>
+        <v>46022.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5489</v>
+        <v>5478</v>
       </c>
       <c r="B22" s="2">
-        <v>46006.16666666666</v>
+        <v>46022.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5589</v>
+        <v>5516</v>
       </c>
       <c r="B23" s="2">
-        <v>46006.17708333334</v>
+        <v>46022.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5717</v>
+        <v>5553</v>
       </c>
       <c r="B24" s="2">
-        <v>46006.1875</v>
+        <v>46022.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5817</v>
+        <v>5606</v>
       </c>
       <c r="B25" s="2">
-        <v>46006.19791666666</v>
+        <v>46022.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6075</v>
+        <v>5723</v>
       </c>
       <c r="B26" s="2">
-        <v>46006.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6336</v>
+        <v>5804</v>
       </c>
       <c r="B27" s="2">
-        <v>46006.21875</v>
+        <v>46022.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6537</v>
+        <v>5865</v>
       </c>
       <c r="B28" s="2">
-        <v>46006.22916666666</v>
+        <v>46022.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6791</v>
+        <v>5920</v>
       </c>
       <c r="B29" s="2">
-        <v>46006.23958333334</v>
+        <v>46022.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7161</v>
+        <v>5950</v>
       </c>
       <c r="B30" s="2">
-        <v>46006.25</v>
+        <v>46022.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7394</v>
+        <v>6051</v>
       </c>
       <c r="B31" s="2">
-        <v>46006.26041666666</v>
+        <v>46022.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7638</v>
+        <v>6146</v>
       </c>
       <c r="B32" s="2">
-        <v>46006.27083333334</v>
+        <v>46022.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7748</v>
+        <v>6243</v>
       </c>
       <c r="B33" s="2">
-        <v>46006.28125</v>
+        <v>46022.28125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>6346</v>
+      </c>
+      <c r="B34" s="2">
+        <v>46022.29166666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>6419</v>
+      </c>
+      <c r="B35" s="2">
+        <v>46022.30208333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>6477</v>
+      </c>
+      <c r="B36" s="2">
+        <v>46022.3125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>6497</v>
+      </c>
+      <c r="B37" s="2">
+        <v>46022.32291666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>6519</v>
+      </c>
+      <c r="B38" s="2">
+        <v>46022.33333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>6494</v>
+      </c>
+      <c r="B39" s="2">
+        <v>46022.34375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>6461</v>
+      </c>
+      <c r="B40" s="2">
+        <v>46022.35416666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>6414</v>
+      </c>
+      <c r="B41" s="2">
+        <v>46022.36458333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>6386</v>
+      </c>
+      <c r="B42" s="2">
+        <v>46022.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>6354</v>
+      </c>
+      <c r="B43" s="2">
+        <v>46022.38541666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>6311</v>
+      </c>
+      <c r="B44" s="2">
+        <v>46022.39583333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,346 +397,274 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6064</v>
+        <v>6819</v>
       </c>
       <c r="B2" s="2">
-        <v>46021.95833333334</v>
+        <v>46043.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5998</v>
+        <v>6756</v>
       </c>
       <c r="B3" s="2">
-        <v>46021.96875</v>
+        <v>46043.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5876</v>
+        <v>6657</v>
       </c>
       <c r="B4" s="2">
-        <v>46021.97916666666</v>
+        <v>46043.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5837</v>
+        <v>6677</v>
       </c>
       <c r="B5" s="2">
-        <v>46021.98958333334</v>
+        <v>46043.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5819</v>
+        <v>6627</v>
       </c>
       <c r="B6" s="2">
-        <v>46022</v>
+        <v>46044</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5748</v>
+        <v>6604</v>
       </c>
       <c r="B7" s="2">
-        <v>46022.01041666666</v>
+        <v>46044.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5704</v>
+        <v>6507</v>
       </c>
       <c r="B8" s="2">
-        <v>46022.02083333334</v>
+        <v>46044.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5663</v>
+        <v>6530</v>
       </c>
       <c r="B9" s="2">
-        <v>46022.03125</v>
+        <v>46044.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5569</v>
+        <v>6440</v>
       </c>
       <c r="B10" s="2">
-        <v>46022.04166666666</v>
+        <v>46044.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5523</v>
+        <v>6493</v>
       </c>
       <c r="B11" s="2">
-        <v>46022.05208333334</v>
+        <v>46044.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5487</v>
+        <v>6426</v>
       </c>
       <c r="B12" s="2">
-        <v>46022.0625</v>
+        <v>46044.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5459</v>
+        <v>6432</v>
       </c>
       <c r="B13" s="2">
-        <v>46022.07291666666</v>
+        <v>46044.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5418</v>
+        <v>6453</v>
       </c>
       <c r="B14" s="2">
-        <v>46022.08333333334</v>
+        <v>46044.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5409</v>
+        <v>6455</v>
       </c>
       <c r="B15" s="2">
-        <v>46022.09375</v>
+        <v>46044.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5387</v>
+        <v>6473</v>
       </c>
       <c r="B16" s="2">
-        <v>46022.10416666666</v>
+        <v>46044.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5368</v>
+        <v>6544</v>
       </c>
       <c r="B17" s="2">
-        <v>46022.11458333334</v>
+        <v>46044.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5355</v>
+        <v>6535</v>
       </c>
       <c r="B18" s="2">
-        <v>46022.125</v>
+        <v>46044.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5403</v>
+        <v>6496</v>
       </c>
       <c r="B19" s="2">
-        <v>46022.13541666666</v>
+        <v>46044.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5434</v>
+        <v>6555</v>
       </c>
       <c r="B20" s="2">
-        <v>46022.14583333334</v>
+        <v>46044.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5425</v>
+        <v>6584</v>
       </c>
       <c r="B21" s="2">
-        <v>46022.15625</v>
+        <v>46044.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5478</v>
+        <v>6646</v>
       </c>
       <c r="B22" s="2">
-        <v>46022.16666666666</v>
+        <v>46044.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5516</v>
+        <v>6557</v>
       </c>
       <c r="B23" s="2">
-        <v>46022.17708333334</v>
+        <v>46044.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5553</v>
+        <v>6601</v>
       </c>
       <c r="B24" s="2">
-        <v>46022.1875</v>
+        <v>46044.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5606</v>
+        <v>6712</v>
       </c>
       <c r="B25" s="2">
-        <v>46022.19791666666</v>
+        <v>46044.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5723</v>
+        <v>6989</v>
       </c>
       <c r="B26" s="2">
-        <v>46022.20833333334</v>
+        <v>46044.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5804</v>
+        <v>7189</v>
       </c>
       <c r="B27" s="2">
-        <v>46022.21875</v>
+        <v>46044.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5865</v>
+        <v>7353</v>
       </c>
       <c r="B28" s="2">
-        <v>46022.22916666666</v>
+        <v>46044.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5920</v>
+        <v>7609</v>
       </c>
       <c r="B29" s="2">
-        <v>46022.23958333334</v>
+        <v>46044.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5950</v>
+        <v>7945</v>
       </c>
       <c r="B30" s="2">
-        <v>46022.25</v>
+        <v>46044.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6051</v>
+        <v>8141</v>
       </c>
       <c r="B31" s="2">
-        <v>46022.26041666666</v>
+        <v>46044.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6146</v>
+        <v>8286</v>
       </c>
       <c r="B32" s="2">
-        <v>46022.27083333334</v>
+        <v>46044.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6243</v>
+        <v>8404</v>
       </c>
       <c r="B33" s="2">
-        <v>46022.28125</v>
+        <v>46044.28125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6346</v>
+        <v>8562</v>
       </c>
       <c r="B34" s="2">
-        <v>46022.29166666666</v>
+        <v>46044.29166666666</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6419</v>
+        <v>8703</v>
       </c>
       <c r="B35" s="2">
-        <v>46022.30208333334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>6477</v>
-      </c>
-      <c r="B36" s="2">
-        <v>46022.3125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>6497</v>
-      </c>
-      <c r="B37" s="2">
-        <v>46022.32291666666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>6519</v>
-      </c>
-      <c r="B38" s="2">
-        <v>46022.33333333334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>6494</v>
-      </c>
-      <c r="B39" s="2">
-        <v>46022.34375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>6461</v>
-      </c>
-      <c r="B40" s="2">
-        <v>46022.35416666666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>6414</v>
-      </c>
-      <c r="B41" s="2">
-        <v>46022.36458333334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>6386</v>
-      </c>
-      <c r="B42" s="2">
-        <v>46022.375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>6354</v>
-      </c>
-      <c r="B43" s="2">
-        <v>46022.38541666666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>6311</v>
-      </c>
-      <c r="B44" s="2">
-        <v>46022.39583333334</v>
+        <v>46044.30208333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,274 +397,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6819</v>
+        <v>6566</v>
       </c>
       <c r="B2" s="2">
-        <v>46043.95833333334</v>
+        <v>46045.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6756</v>
+        <v>6556</v>
       </c>
       <c r="B3" s="2">
-        <v>46043.96875</v>
+        <v>46045.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6657</v>
+        <v>6434</v>
       </c>
       <c r="B4" s="2">
-        <v>46043.97916666666</v>
+        <v>46045.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6677</v>
+        <v>6396</v>
       </c>
       <c r="B5" s="2">
-        <v>46043.98958333334</v>
+        <v>46045.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>6627</v>
+        <v>6320</v>
       </c>
       <c r="B6" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6604</v>
+        <v>6219</v>
       </c>
       <c r="B7" s="2">
-        <v>46044.01041666666</v>
+        <v>46046.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6507</v>
+        <v>6208</v>
       </c>
       <c r="B8" s="2">
-        <v>46044.02083333334</v>
+        <v>46046.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6530</v>
+        <v>6156</v>
       </c>
       <c r="B9" s="2">
-        <v>46044.03125</v>
+        <v>46046.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>6440</v>
+        <v>6211</v>
       </c>
       <c r="B10" s="2">
-        <v>46044.04166666666</v>
+        <v>46046.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>6493</v>
+        <v>6160</v>
       </c>
       <c r="B11" s="2">
-        <v>46044.05208333334</v>
+        <v>46046.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>6426</v>
+        <v>6151</v>
       </c>
       <c r="B12" s="2">
-        <v>46044.0625</v>
+        <v>46046.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>6432</v>
+        <v>6123</v>
       </c>
       <c r="B13" s="2">
-        <v>46044.07291666666</v>
+        <v>46046.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>6453</v>
+        <v>6148</v>
       </c>
       <c r="B14" s="2">
-        <v>46044.08333333334</v>
+        <v>46046.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>6455</v>
+        <v>6111</v>
       </c>
       <c r="B15" s="2">
-        <v>46044.09375</v>
+        <v>46046.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>6473</v>
+        <v>6086</v>
       </c>
       <c r="B16" s="2">
-        <v>46044.10416666666</v>
+        <v>46046.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6544</v>
+        <v>6106</v>
       </c>
       <c r="B17" s="2">
-        <v>46044.11458333334</v>
+        <v>46046.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6535</v>
+        <v>6133</v>
       </c>
       <c r="B18" s="2">
-        <v>46044.125</v>
+        <v>46046.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6496</v>
+        <v>6108</v>
       </c>
       <c r="B19" s="2">
-        <v>46044.13541666666</v>
+        <v>46046.14583333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6555</v>
+        <v>6139</v>
       </c>
       <c r="B20" s="2">
-        <v>46044.14583333334</v>
+        <v>46046.15625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6584</v>
+        <v>6164</v>
       </c>
       <c r="B21" s="2">
-        <v>46044.15625</v>
+        <v>46046.16666666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6646</v>
+        <v>6166</v>
       </c>
       <c r="B22" s="2">
-        <v>46044.16666666666</v>
+        <v>46046.17708333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6557</v>
+        <v>6200</v>
       </c>
       <c r="B23" s="2">
-        <v>46044.17708333334</v>
+        <v>46046.1875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6601</v>
+        <v>6242</v>
       </c>
       <c r="B24" s="2">
-        <v>46044.1875</v>
+        <v>46046.19791666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6712</v>
+        <v>6259</v>
       </c>
       <c r="B25" s="2">
-        <v>46044.19791666666</v>
+        <v>46046.20833333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6989</v>
+        <v>6320</v>
       </c>
       <c r="B26" s="2">
-        <v>46044.20833333334</v>
+        <v>46046.21875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7189</v>
+        <v>6329</v>
       </c>
       <c r="B27" s="2">
-        <v>46044.21875</v>
+        <v>46046.22916666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7353</v>
+        <v>6411</v>
       </c>
       <c r="B28" s="2">
-        <v>46044.22916666666</v>
+        <v>46046.23958333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7609</v>
+        <v>6536</v>
       </c>
       <c r="B29" s="2">
-        <v>46044.23958333334</v>
+        <v>46046.25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7945</v>
+        <v>6619</v>
       </c>
       <c r="B30" s="2">
-        <v>46044.25</v>
+        <v>46046.26041666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>8141</v>
+        <v>6697</v>
       </c>
       <c r="B31" s="2">
-        <v>46044.26041666666</v>
+        <v>46046.27083333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>8286</v>
+        <v>6805</v>
       </c>
       <c r="B32" s="2">
-        <v>46044.27083333334</v>
+        <v>46046.28125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>8404</v>
+        <v>6907</v>
       </c>
       <c r="B33" s="2">
-        <v>46044.28125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>8562</v>
-      </c>
-      <c r="B34" s="2">
-        <v>46044.29166666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>8703</v>
-      </c>
-      <c r="B35" s="2">
-        <v>46044.30208333334</v>
+        <v>46046.29166666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,258 +397,370 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6566</v>
+        <v>5874</v>
       </c>
       <c r="B2" s="2">
-        <v>46045.95833333334</v>
+        <v>46047.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6556</v>
+        <v>5844</v>
       </c>
       <c r="B3" s="2">
-        <v>46045.96875</v>
+        <v>46047.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6434</v>
+        <v>5831</v>
       </c>
       <c r="B4" s="2">
-        <v>46045.97916666666</v>
+        <v>46047.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6396</v>
+        <v>5746</v>
       </c>
       <c r="B5" s="2">
-        <v>46045.98958333334</v>
+        <v>46047.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>6320</v>
+        <v>5723</v>
       </c>
       <c r="B6" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6219</v>
+        <v>5712</v>
       </c>
       <c r="B7" s="2">
-        <v>46046.01041666666</v>
+        <v>46048.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6208</v>
+        <v>5692</v>
       </c>
       <c r="B8" s="2">
-        <v>46046.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6156</v>
+        <v>5629</v>
       </c>
       <c r="B9" s="2">
-        <v>46046.03125</v>
+        <v>46048.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>6211</v>
+        <v>5598</v>
       </c>
       <c r="B10" s="2">
-        <v>46046.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>6160</v>
+        <v>5619</v>
       </c>
       <c r="B11" s="2">
-        <v>46046.05208333334</v>
+        <v>46048.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>6151</v>
+        <v>5596</v>
       </c>
       <c r="B12" s="2">
-        <v>46046.0625</v>
+        <v>46048.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>6123</v>
+        <v>5616</v>
       </c>
       <c r="B13" s="2">
-        <v>46046.07291666666</v>
+        <v>46048.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>6148</v>
+        <v>5596</v>
       </c>
       <c r="B14" s="2">
-        <v>46046.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>6111</v>
+        <v>5593</v>
       </c>
       <c r="B15" s="2">
-        <v>46046.09375</v>
+        <v>46048.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>6086</v>
+        <v>5590</v>
       </c>
       <c r="B16" s="2">
-        <v>46046.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6106</v>
+        <v>5618</v>
       </c>
       <c r="B17" s="2">
-        <v>46046.11458333334</v>
+        <v>46048.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6133</v>
+        <v>5651</v>
       </c>
       <c r="B18" s="2">
-        <v>46046.125</v>
+        <v>46048.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6108</v>
+        <v>5650</v>
       </c>
       <c r="B19" s="2">
-        <v>46046.14583333334</v>
+        <v>46048.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6139</v>
+        <v>5686</v>
       </c>
       <c r="B20" s="2">
-        <v>46046.15625</v>
+        <v>46048.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6164</v>
+        <v>5725</v>
       </c>
       <c r="B21" s="2">
-        <v>46046.16666666666</v>
+        <v>46048.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6166</v>
+        <v>5821</v>
       </c>
       <c r="B22" s="2">
-        <v>46046.17708333334</v>
+        <v>46048.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6200</v>
+        <v>5781</v>
       </c>
       <c r="B23" s="2">
-        <v>46046.1875</v>
+        <v>46048.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6242</v>
+        <v>5892</v>
       </c>
       <c r="B24" s="2">
-        <v>46046.19791666666</v>
+        <v>46048.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6259</v>
+        <v>5978</v>
       </c>
       <c r="B25" s="2">
-        <v>46046.20833333334</v>
+        <v>46048.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6320</v>
+        <v>6299</v>
       </c>
       <c r="B26" s="2">
-        <v>46046.21875</v>
+        <v>46048.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6329</v>
+        <v>6494</v>
       </c>
       <c r="B27" s="2">
-        <v>46046.22916666666</v>
+        <v>46048.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6411</v>
+        <v>6678</v>
       </c>
       <c r="B28" s="2">
-        <v>46046.23958333334</v>
+        <v>46048.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6536</v>
+        <v>6973</v>
       </c>
       <c r="B29" s="2">
-        <v>46046.25</v>
+        <v>46048.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6619</v>
+        <v>7330</v>
       </c>
       <c r="B30" s="2">
-        <v>46046.26041666666</v>
+        <v>46048.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6697</v>
+        <v>7621</v>
       </c>
       <c r="B31" s="2">
-        <v>46046.27083333334</v>
+        <v>46048.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6805</v>
+        <v>7735</v>
       </c>
       <c r="B32" s="2">
-        <v>46046.28125</v>
+        <v>46048.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6907</v>
+        <v>7886</v>
       </c>
       <c r="B33" s="2">
-        <v>46046.29166666666</v>
+        <v>46048.28125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>8117</v>
+      </c>
+      <c r="B34" s="2">
+        <v>46048.29166666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>8228</v>
+      </c>
+      <c r="B35" s="2">
+        <v>46048.30208333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>8411</v>
+      </c>
+      <c r="B36" s="2">
+        <v>46048.3125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>8485</v>
+      </c>
+      <c r="B37" s="2">
+        <v>46048.32291666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>8566</v>
+      </c>
+      <c r="B38" s="2">
+        <v>46048.33333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>8628</v>
+      </c>
+      <c r="B39" s="2">
+        <v>46048.34375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>8673</v>
+      </c>
+      <c r="B40" s="2">
+        <v>46048.35416666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>8711</v>
+      </c>
+      <c r="B41" s="2">
+        <v>46048.36458333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>8627</v>
+      </c>
+      <c r="B42" s="2">
+        <v>46048.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>8617</v>
+      </c>
+      <c r="B43" s="2">
+        <v>46048.38541666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>8558</v>
+      </c>
+      <c r="B44" s="2">
+        <v>46048.39583333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>8571</v>
+      </c>
+      <c r="B45" s="2">
+        <v>46048.40625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>8556</v>
+      </c>
+      <c r="B46" s="2">
+        <v>46048.41666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>8525</v>
+      </c>
+      <c r="B47" s="2">
+        <v>46048.42708333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,370 +397,386 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5874</v>
+        <v>6338</v>
       </c>
       <c r="B2" s="2">
-        <v>46047.95833333334</v>
+        <v>46048.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5844</v>
+        <v>6316</v>
       </c>
       <c r="B3" s="2">
-        <v>46047.96875</v>
+        <v>46048.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5831</v>
+        <v>6254</v>
       </c>
       <c r="B4" s="2">
-        <v>46047.97916666666</v>
+        <v>46048.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5746</v>
+        <v>6184</v>
       </c>
       <c r="B5" s="2">
-        <v>46047.98958333334</v>
+        <v>46048.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5723</v>
+        <v>6203</v>
       </c>
       <c r="B6" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5712</v>
+        <v>6097</v>
       </c>
       <c r="B7" s="2">
-        <v>46048.01041666666</v>
+        <v>46049.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5692</v>
+        <v>6051</v>
       </c>
       <c r="B8" s="2">
-        <v>46048.02083333334</v>
+        <v>46049.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5629</v>
+        <v>6023</v>
       </c>
       <c r="B9" s="2">
-        <v>46048.03125</v>
+        <v>46049.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5598</v>
+        <v>5920</v>
       </c>
       <c r="B10" s="2">
-        <v>46048.04166666666</v>
+        <v>46049.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5619</v>
+        <v>5891</v>
       </c>
       <c r="B11" s="2">
-        <v>46048.05208333334</v>
+        <v>46049.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5596</v>
+        <v>5890</v>
       </c>
       <c r="B12" s="2">
-        <v>46048.0625</v>
+        <v>46049.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5616</v>
+        <v>5895</v>
       </c>
       <c r="B13" s="2">
-        <v>46048.07291666666</v>
+        <v>46049.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5596</v>
+        <v>5978</v>
       </c>
       <c r="B14" s="2">
-        <v>46048.08333333334</v>
+        <v>46049.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5593</v>
+        <v>6016</v>
       </c>
       <c r="B15" s="2">
-        <v>46048.09375</v>
+        <v>46049.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5590</v>
+        <v>5981</v>
       </c>
       <c r="B16" s="2">
-        <v>46048.10416666666</v>
+        <v>46049.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5618</v>
+        <v>5963</v>
       </c>
       <c r="B17" s="2">
-        <v>46048.11458333334</v>
+        <v>46049.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5651</v>
+        <v>5992</v>
       </c>
       <c r="B18" s="2">
-        <v>46048.125</v>
+        <v>46049.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5650</v>
+        <v>5987</v>
       </c>
       <c r="B19" s="2">
-        <v>46048.13541666666</v>
+        <v>46049.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5686</v>
+        <v>6041</v>
       </c>
       <c r="B20" s="2">
-        <v>46048.14583333334</v>
+        <v>46049.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5725</v>
+        <v>6082</v>
       </c>
       <c r="B21" s="2">
-        <v>46048.15625</v>
+        <v>46049.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5821</v>
+        <v>6183</v>
       </c>
       <c r="B22" s="2">
-        <v>46048.16666666666</v>
+        <v>46049.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5781</v>
+        <v>6225</v>
       </c>
       <c r="B23" s="2">
-        <v>46048.17708333334</v>
+        <v>46049.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5892</v>
+        <v>6297</v>
       </c>
       <c r="B24" s="2">
-        <v>46048.1875</v>
+        <v>46049.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5978</v>
+        <v>6441</v>
       </c>
       <c r="B25" s="2">
-        <v>46048.19791666666</v>
+        <v>46049.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6299</v>
+        <v>6580</v>
       </c>
       <c r="B26" s="2">
-        <v>46048.20833333334</v>
+        <v>46049.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6494</v>
+        <v>6773</v>
       </c>
       <c r="B27" s="2">
-        <v>46048.21875</v>
+        <v>46049.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6678</v>
+        <v>6875</v>
       </c>
       <c r="B28" s="2">
-        <v>46048.22916666666</v>
+        <v>46049.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6973</v>
+        <v>7119</v>
       </c>
       <c r="B29" s="2">
-        <v>46048.23958333334</v>
+        <v>46049.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7330</v>
+        <v>7472</v>
       </c>
       <c r="B30" s="2">
-        <v>46048.25</v>
+        <v>46049.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7621</v>
+        <v>7666</v>
       </c>
       <c r="B31" s="2">
-        <v>46048.26041666666</v>
+        <v>46049.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7735</v>
+        <v>7801</v>
       </c>
       <c r="B32" s="2">
-        <v>46048.27083333334</v>
+        <v>46049.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7886</v>
+        <v>7872</v>
       </c>
       <c r="B33" s="2">
-        <v>46048.28125</v>
+        <v>46049.28125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>8117</v>
+        <v>8073</v>
       </c>
       <c r="B34" s="2">
-        <v>46048.29166666666</v>
+        <v>46049.29166666666</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>8228</v>
+        <v>8266</v>
       </c>
       <c r="B35" s="2">
-        <v>46048.30208333334</v>
+        <v>46049.30208333334</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>8411</v>
+        <v>8344</v>
       </c>
       <c r="B36" s="2">
-        <v>46048.3125</v>
+        <v>46049.3125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>8485</v>
+        <v>8343</v>
       </c>
       <c r="B37" s="2">
-        <v>46048.32291666666</v>
+        <v>46049.32291666666</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>8566</v>
+        <v>8515</v>
       </c>
       <c r="B38" s="2">
-        <v>46048.33333333334</v>
+        <v>46049.33333333334</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>8628</v>
+        <v>8550</v>
       </c>
       <c r="B39" s="2">
-        <v>46048.34375</v>
+        <v>46049.34375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>8673</v>
+        <v>8570</v>
       </c>
       <c r="B40" s="2">
-        <v>46048.35416666666</v>
+        <v>46049.35416666666</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>8711</v>
+        <v>8577</v>
       </c>
       <c r="B41" s="2">
-        <v>46048.36458333334</v>
+        <v>46049.36458333334</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>8627</v>
+        <v>8558</v>
       </c>
       <c r="B42" s="2">
-        <v>46048.375</v>
+        <v>46049.375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>8617</v>
+        <v>8567</v>
       </c>
       <c r="B43" s="2">
-        <v>46048.38541666666</v>
+        <v>46049.38541666666</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>8558</v>
+        <v>8547</v>
       </c>
       <c r="B44" s="2">
-        <v>46048.39583333334</v>
+        <v>46049.39583333334</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>8571</v>
+        <v>8510</v>
       </c>
       <c r="B45" s="2">
-        <v>46048.40625</v>
+        <v>46049.40625</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>8556</v>
+        <v>8447</v>
       </c>
       <c r="B46" s="2">
-        <v>46048.41666666666</v>
+        <v>46049.41666666666</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>8525</v>
+        <v>8410</v>
       </c>
       <c r="B47" s="2">
-        <v>46048.42708333334</v>
+        <v>46049.42708333334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>8464</v>
+      </c>
+      <c r="B48" s="2">
+        <v>46049.4375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>8385</v>
+      </c>
+      <c r="B49" s="2">
+        <v>46049.44791666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,386 +397,418 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6338</v>
+        <v>6690</v>
       </c>
       <c r="B2" s="2">
-        <v>46048.95833333334</v>
+        <v>46055.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6316</v>
+        <v>6607</v>
       </c>
       <c r="B3" s="2">
-        <v>46048.96875</v>
+        <v>46055.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6254</v>
+        <v>6577</v>
       </c>
       <c r="B4" s="2">
-        <v>46048.97916666666</v>
+        <v>46055.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6184</v>
+        <v>6544</v>
       </c>
       <c r="B5" s="2">
-        <v>46048.98958333334</v>
+        <v>46055.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>6203</v>
+        <v>6559</v>
       </c>
       <c r="B6" s="2">
-        <v>46049</v>
+        <v>46056</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6097</v>
+        <v>6500</v>
       </c>
       <c r="B7" s="2">
-        <v>46049.01041666666</v>
+        <v>46056.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6051</v>
+        <v>6453</v>
       </c>
       <c r="B8" s="2">
-        <v>46049.02083333334</v>
+        <v>46056.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6023</v>
+        <v>6470</v>
       </c>
       <c r="B9" s="2">
-        <v>46049.03125</v>
+        <v>46056.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5920</v>
+        <v>6389</v>
       </c>
       <c r="B10" s="2">
-        <v>46049.04166666666</v>
+        <v>46056.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5891</v>
+        <v>6405</v>
       </c>
       <c r="B11" s="2">
-        <v>46049.05208333334</v>
+        <v>46056.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5890</v>
+        <v>6407</v>
       </c>
       <c r="B12" s="2">
-        <v>46049.0625</v>
+        <v>46056.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5895</v>
+        <v>6368</v>
       </c>
       <c r="B13" s="2">
-        <v>46049.07291666666</v>
+        <v>46056.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5978</v>
+        <v>6439</v>
       </c>
       <c r="B14" s="2">
-        <v>46049.08333333334</v>
+        <v>46056.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>6016</v>
+        <v>6382</v>
       </c>
       <c r="B15" s="2">
-        <v>46049.09375</v>
+        <v>46056.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5981</v>
+        <v>6387</v>
       </c>
       <c r="B16" s="2">
-        <v>46049.10416666666</v>
+        <v>46056.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5963</v>
+        <v>6437</v>
       </c>
       <c r="B17" s="2">
-        <v>46049.11458333334</v>
+        <v>46056.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5992</v>
+        <v>6415</v>
       </c>
       <c r="B18" s="2">
-        <v>46049.125</v>
+        <v>46056.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5987</v>
+        <v>6441</v>
       </c>
       <c r="B19" s="2">
-        <v>46049.13541666666</v>
+        <v>46056.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6041</v>
+        <v>6508</v>
       </c>
       <c r="B20" s="2">
-        <v>46049.14583333334</v>
+        <v>46056.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6082</v>
+        <v>6505</v>
       </c>
       <c r="B21" s="2">
-        <v>46049.15625</v>
+        <v>46056.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6183</v>
+        <v>6668</v>
       </c>
       <c r="B22" s="2">
-        <v>46049.16666666666</v>
+        <v>46056.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6225</v>
+        <v>6737</v>
       </c>
       <c r="B23" s="2">
-        <v>46049.17708333334</v>
+        <v>46056.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6297</v>
+        <v>6758</v>
       </c>
       <c r="B24" s="2">
-        <v>46049.1875</v>
+        <v>46056.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6441</v>
+        <v>6903</v>
       </c>
       <c r="B25" s="2">
-        <v>46049.19791666666</v>
+        <v>46056.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6580</v>
+        <v>7086</v>
       </c>
       <c r="B26" s="2">
-        <v>46049.20833333334</v>
+        <v>46056.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6773</v>
+        <v>7258</v>
       </c>
       <c r="B27" s="2">
-        <v>46049.21875</v>
+        <v>46056.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6875</v>
+        <v>7369</v>
       </c>
       <c r="B28" s="2">
-        <v>46049.22916666666</v>
+        <v>46056.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7119</v>
+        <v>7663</v>
       </c>
       <c r="B29" s="2">
-        <v>46049.23958333334</v>
+        <v>46056.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7472</v>
+        <v>7974</v>
       </c>
       <c r="B30" s="2">
-        <v>46049.25</v>
+        <v>46056.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7666</v>
+        <v>8225</v>
       </c>
       <c r="B31" s="2">
-        <v>46049.26041666666</v>
+        <v>46056.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7801</v>
+        <v>8384</v>
       </c>
       <c r="B32" s="2">
-        <v>46049.27083333334</v>
+        <v>46056.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7872</v>
+        <v>8480</v>
       </c>
       <c r="B33" s="2">
-        <v>46049.28125</v>
+        <v>46056.28125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>8073</v>
+        <v>8709</v>
       </c>
       <c r="B34" s="2">
-        <v>46049.29166666666</v>
+        <v>46056.29166666666</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>8266</v>
+        <v>8816</v>
       </c>
       <c r="B35" s="2">
-        <v>46049.30208333334</v>
+        <v>46056.30208333334</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>8344</v>
+        <v>8841</v>
       </c>
       <c r="B36" s="2">
-        <v>46049.3125</v>
+        <v>46056.3125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>8343</v>
+        <v>8846</v>
       </c>
       <c r="B37" s="2">
-        <v>46049.32291666666</v>
+        <v>46056.32291666666</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>8515</v>
+        <v>8762</v>
       </c>
       <c r="B38" s="2">
-        <v>46049.33333333334</v>
+        <v>46056.33333333334</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>8550</v>
+        <v>8758</v>
       </c>
       <c r="B39" s="2">
-        <v>46049.34375</v>
+        <v>46056.34375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>8570</v>
+        <v>8685</v>
       </c>
       <c r="B40" s="2">
-        <v>46049.35416666666</v>
+        <v>46056.35416666666</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>8577</v>
+        <v>8616</v>
       </c>
       <c r="B41" s="2">
-        <v>46049.36458333334</v>
+        <v>46056.36458333334</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>8558</v>
+        <v>8533</v>
       </c>
       <c r="B42" s="2">
-        <v>46049.375</v>
+        <v>46056.375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>8567</v>
+        <v>8358</v>
       </c>
       <c r="B43" s="2">
-        <v>46049.38541666666</v>
+        <v>46056.38541666666</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>8547</v>
+        <v>8257</v>
       </c>
       <c r="B44" s="2">
-        <v>46049.39583333334</v>
+        <v>46056.39583333334</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>8510</v>
+        <v>8144</v>
       </c>
       <c r="B45" s="2">
-        <v>46049.40625</v>
+        <v>46056.40625</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>8447</v>
+        <v>8012</v>
       </c>
       <c r="B46" s="2">
-        <v>46049.41666666666</v>
+        <v>46056.41666666666</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>8410</v>
+        <v>7945</v>
       </c>
       <c r="B47" s="2">
-        <v>46049.42708333334</v>
+        <v>46056.42708333334</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>8464</v>
+        <v>7824</v>
       </c>
       <c r="B48" s="2">
-        <v>46049.4375</v>
+        <v>46056.4375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>8385</v>
+        <v>7727</v>
       </c>
       <c r="B49" s="2">
-        <v>46049.44791666666</v>
+        <v>46056.44791666666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>7776</v>
+      </c>
+      <c r="B50" s="2">
+        <v>46056.45833333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>7686</v>
+      </c>
+      <c r="B51" s="2">
+        <v>46056.46875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>7704</v>
+      </c>
+      <c r="B52" s="2">
+        <v>46056.47916666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>7659</v>
+      </c>
+      <c r="B53" s="2">
+        <v>46056.48958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,418 +397,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6690</v>
+        <v>5801</v>
       </c>
       <c r="B2" s="2">
-        <v>46055.95833333334</v>
+        <v>46068.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6607</v>
+        <v>5817</v>
       </c>
       <c r="B3" s="2">
-        <v>46055.96875</v>
+        <v>46068.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6577</v>
+        <v>5856</v>
       </c>
       <c r="B4" s="2">
-        <v>46055.97916666666</v>
+        <v>46068.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6544</v>
+        <v>5625</v>
       </c>
       <c r="B5" s="2">
-        <v>46055.98958333334</v>
+        <v>46068.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>6559</v>
+        <v>5474</v>
       </c>
       <c r="B6" s="2">
-        <v>46056</v>
+        <v>46069</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6500</v>
+        <v>5406</v>
       </c>
       <c r="B7" s="2">
-        <v>46056.01041666666</v>
+        <v>46069.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6453</v>
+        <v>5553</v>
       </c>
       <c r="B8" s="2">
-        <v>46056.02083333334</v>
+        <v>46069.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6470</v>
+        <v>5551</v>
       </c>
       <c r="B9" s="2">
-        <v>46056.03125</v>
+        <v>46069.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>6389</v>
+        <v>5548</v>
       </c>
       <c r="B10" s="2">
-        <v>46056.04166666666</v>
+        <v>46069.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>6405</v>
+        <v>5535</v>
       </c>
       <c r="B11" s="2">
-        <v>46056.05208333334</v>
+        <v>46069.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>6407</v>
+        <v>5550</v>
       </c>
       <c r="B12" s="2">
-        <v>46056.0625</v>
+        <v>46069.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>6368</v>
+        <v>5508</v>
       </c>
       <c r="B13" s="2">
-        <v>46056.07291666666</v>
+        <v>46069.08333333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>6439</v>
+        <v>5498</v>
       </c>
       <c r="B14" s="2">
-        <v>46056.08333333334</v>
+        <v>46069.09375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>6382</v>
+        <v>5484</v>
       </c>
       <c r="B15" s="2">
-        <v>46056.09375</v>
+        <v>46069.10416666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>6387</v>
+        <v>5523</v>
       </c>
       <c r="B16" s="2">
-        <v>46056.10416666666</v>
+        <v>46069.11458333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6437</v>
+        <v>5654</v>
       </c>
       <c r="B17" s="2">
-        <v>46056.11458333334</v>
+        <v>46069.125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6415</v>
+        <v>5662</v>
       </c>
       <c r="B18" s="2">
-        <v>46056.125</v>
+        <v>46069.13541666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6441</v>
+        <v>5738</v>
       </c>
       <c r="B19" s="2">
-        <v>46056.13541666666</v>
+        <v>46069.14583333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6508</v>
+        <v>5803</v>
       </c>
       <c r="B20" s="2">
-        <v>46056.14583333334</v>
+        <v>46069.15625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6505</v>
+        <v>5918</v>
       </c>
       <c r="B21" s="2">
-        <v>46056.15625</v>
+        <v>46069.16666666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6668</v>
+        <v>6001</v>
       </c>
       <c r="B22" s="2">
-        <v>46056.16666666666</v>
+        <v>46069.17708333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6737</v>
+        <v>6046</v>
       </c>
       <c r="B23" s="2">
-        <v>46056.17708333334</v>
+        <v>46069.1875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6758</v>
+        <v>6180</v>
       </c>
       <c r="B24" s="2">
-        <v>46056.1875</v>
+        <v>46069.19791666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6903</v>
+        <v>6202</v>
       </c>
       <c r="B25" s="2">
-        <v>46056.19791666666</v>
+        <v>46069.20833333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7086</v>
+        <v>6377</v>
       </c>
       <c r="B26" s="2">
-        <v>46056.20833333334</v>
+        <v>46069.21875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7258</v>
+        <v>6566</v>
       </c>
       <c r="B27" s="2">
-        <v>46056.21875</v>
+        <v>46069.22916666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7369</v>
+        <v>6777</v>
       </c>
       <c r="B28" s="2">
-        <v>46056.22916666666</v>
+        <v>46069.23958333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7663</v>
+        <v>7079</v>
       </c>
       <c r="B29" s="2">
-        <v>46056.23958333334</v>
+        <v>46069.25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7974</v>
+        <v>7220</v>
       </c>
       <c r="B30" s="2">
-        <v>46056.25</v>
+        <v>46069.26041666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>8225</v>
+        <v>7403</v>
       </c>
       <c r="B31" s="2">
-        <v>46056.26041666666</v>
+        <v>46069.27083333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>8384</v>
+        <v>7623</v>
       </c>
       <c r="B32" s="2">
-        <v>46056.27083333334</v>
+        <v>46069.28125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>8480</v>
+        <v>7848</v>
       </c>
       <c r="B33" s="2">
-        <v>46056.28125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>8709</v>
-      </c>
-      <c r="B34" s="2">
-        <v>46056.29166666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>8816</v>
-      </c>
-      <c r="B35" s="2">
-        <v>46056.30208333334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>8841</v>
-      </c>
-      <c r="B36" s="2">
-        <v>46056.3125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>8846</v>
-      </c>
-      <c r="B37" s="2">
-        <v>46056.32291666666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>8762</v>
-      </c>
-      <c r="B38" s="2">
-        <v>46056.33333333334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>8758</v>
-      </c>
-      <c r="B39" s="2">
-        <v>46056.34375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>8685</v>
-      </c>
-      <c r="B40" s="2">
-        <v>46056.35416666666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>8616</v>
-      </c>
-      <c r="B41" s="2">
-        <v>46056.36458333334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>8533</v>
-      </c>
-      <c r="B42" s="2">
-        <v>46056.375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>8358</v>
-      </c>
-      <c r="B43" s="2">
-        <v>46056.38541666666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>8257</v>
-      </c>
-      <c r="B44" s="2">
-        <v>46056.39583333334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>8144</v>
-      </c>
-      <c r="B45" s="2">
-        <v>46056.40625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>8012</v>
-      </c>
-      <c r="B46" s="2">
-        <v>46056.41666666666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>7945</v>
-      </c>
-      <c r="B47" s="2">
-        <v>46056.42708333334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>7824</v>
-      </c>
-      <c r="B48" s="2">
-        <v>46056.4375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>7727</v>
-      </c>
-      <c r="B49" s="2">
-        <v>46056.44791666666</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>7776</v>
-      </c>
-      <c r="B50" s="2">
-        <v>46056.45833333334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>7686</v>
-      </c>
-      <c r="B51" s="2">
-        <v>46056.46875</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>7704</v>
-      </c>
-      <c r="B52" s="2">
-        <v>46056.47916666666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>7659</v>
-      </c>
-      <c r="B53" s="2">
-        <v>46056.48958333334</v>
+        <v>46069.29166666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -397,258 +397,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5801</v>
+        <v>6264</v>
       </c>
       <c r="B2" s="2">
-        <v>46068.95833333334</v>
+        <v>46069.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5817</v>
+        <v>6226</v>
       </c>
       <c r="B3" s="2">
-        <v>46068.96875</v>
+        <v>46069.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5856</v>
+        <v>6217</v>
       </c>
       <c r="B4" s="2">
-        <v>46068.97916666666</v>
+        <v>46069.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5625</v>
+        <v>6139</v>
       </c>
       <c r="B5" s="2">
-        <v>46068.98958333334</v>
+        <v>46069.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5474</v>
+        <v>6094</v>
       </c>
       <c r="B6" s="2">
-        <v>46069</v>
+        <v>46070</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5406</v>
+        <v>6046</v>
       </c>
       <c r="B7" s="2">
-        <v>46069.01041666666</v>
+        <v>46070.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5553</v>
+        <v>6042</v>
       </c>
       <c r="B8" s="2">
-        <v>46069.02083333334</v>
+        <v>46070.03125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5551</v>
+        <v>6008</v>
       </c>
       <c r="B9" s="2">
-        <v>46069.03125</v>
+        <v>46070.04166666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5548</v>
+        <v>5951</v>
       </c>
       <c r="B10" s="2">
-        <v>46069.04166666666</v>
+        <v>46070.05208333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5535</v>
+        <v>5938</v>
       </c>
       <c r="B11" s="2">
-        <v>46069.05208333334</v>
+        <v>46070.0625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5550</v>
+        <v>5920</v>
       </c>
       <c r="B12" s="2">
-        <v>46069.0625</v>
+        <v>46070.07291666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5508</v>
+        <v>5945</v>
       </c>
       <c r="B13" s="2">
-        <v>46069.08333333334</v>
+        <v>46070.08333333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5498</v>
+        <v>5967</v>
       </c>
       <c r="B14" s="2">
-        <v>46069.09375</v>
+        <v>46070.09375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5484</v>
+        <v>5949</v>
       </c>
       <c r="B15" s="2">
-        <v>46069.10416666666</v>
+        <v>46070.10416666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5523</v>
+        <v>5917</v>
       </c>
       <c r="B16" s="2">
-        <v>46069.11458333334</v>
+        <v>46070.11458333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5654</v>
+        <v>5910</v>
       </c>
       <c r="B17" s="2">
-        <v>46069.125</v>
+        <v>46070.125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5662</v>
+        <v>6021</v>
       </c>
       <c r="B18" s="2">
-        <v>46069.13541666666</v>
+        <v>46070.13541666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5738</v>
+        <v>6059</v>
       </c>
       <c r="B19" s="2">
-        <v>46069.14583333334</v>
+        <v>46070.14583333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5803</v>
+        <v>6056</v>
       </c>
       <c r="B20" s="2">
-        <v>46069.15625</v>
+        <v>46070.15625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5918</v>
+        <v>6100</v>
       </c>
       <c r="B21" s="2">
-        <v>46069.16666666666</v>
+        <v>46070.16666666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6001</v>
+        <v>6221</v>
       </c>
       <c r="B22" s="2">
-        <v>46069.17708333334</v>
+        <v>46070.17708333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6046</v>
+        <v>6391</v>
       </c>
       <c r="B23" s="2">
-        <v>46069.1875</v>
+        <v>46070.1875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6180</v>
+        <v>6459</v>
       </c>
       <c r="B24" s="2">
-        <v>46069.19791666666</v>
+        <v>46070.19791666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6202</v>
+        <v>6727</v>
       </c>
       <c r="B25" s="2">
-        <v>46069.20833333334</v>
+        <v>46070.20833333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6377</v>
+        <v>6880</v>
       </c>
       <c r="B26" s="2">
-        <v>46069.21875</v>
+        <v>46070.21875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6566</v>
+        <v>6975</v>
       </c>
       <c r="B27" s="2">
-        <v>46069.22916666666</v>
+        <v>46070.22916666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6777</v>
+        <v>7071</v>
       </c>
       <c r="B28" s="2">
-        <v>46069.23958333334</v>
+        <v>46070.23958333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7079</v>
+        <v>7360</v>
       </c>
       <c r="B29" s="2">
-        <v>46069.25</v>
+        <v>46070.25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7220</v>
+        <v>7480</v>
       </c>
       <c r="B30" s="2">
-        <v>46069.26041666666</v>
+        <v>46070.26041666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7403</v>
+        <v>7661</v>
       </c>
       <c r="B31" s="2">
-        <v>46069.27083333334</v>
+        <v>46070.27083333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7623</v>
+        <v>7804</v>
       </c>
       <c r="B32" s="2">
-        <v>46069.28125</v>
+        <v>46070.28125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7848</v>
+        <v>8068</v>
       </c>
       <c r="B33" s="2">
-        <v>46069.29166666666</v>
+        <v>46070.29166666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -397,258 +397,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6264</v>
+        <v>6624</v>
       </c>
       <c r="B2" s="2">
-        <v>46069.95833333334</v>
+        <v>46070.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6226</v>
+        <v>6509</v>
       </c>
       <c r="B3" s="2">
-        <v>46069.96875</v>
+        <v>46070.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6217</v>
+        <v>6461</v>
       </c>
       <c r="B4" s="2">
-        <v>46069.97916666666</v>
+        <v>46070.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6139</v>
+        <v>6422</v>
       </c>
       <c r="B5" s="2">
-        <v>46069.98958333334</v>
+        <v>46070.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>6094</v>
+        <v>6467</v>
       </c>
       <c r="B6" s="2">
-        <v>46070</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6046</v>
+        <v>6388</v>
       </c>
       <c r="B7" s="2">
-        <v>46070.01041666666</v>
+        <v>46071.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6042</v>
+        <v>6384</v>
       </c>
       <c r="B8" s="2">
-        <v>46070.03125</v>
+        <v>46071.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6008</v>
+        <v>6324</v>
       </c>
       <c r="B9" s="2">
-        <v>46070.04166666666</v>
+        <v>46071.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5951</v>
+        <v>6322</v>
       </c>
       <c r="B10" s="2">
-        <v>46070.05208333334</v>
+        <v>46071.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5938</v>
+        <v>6258</v>
       </c>
       <c r="B11" s="2">
-        <v>46070.0625</v>
+        <v>46071.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5920</v>
+        <v>6252</v>
       </c>
       <c r="B12" s="2">
-        <v>46070.07291666666</v>
+        <v>46071.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5945</v>
+        <v>6246</v>
       </c>
       <c r="B13" s="2">
-        <v>46070.08333333334</v>
+        <v>46071.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5967</v>
+        <v>6210</v>
       </c>
       <c r="B14" s="2">
-        <v>46070.09375</v>
+        <v>46071.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5949</v>
+        <v>6194</v>
       </c>
       <c r="B15" s="2">
-        <v>46070.10416666666</v>
+        <v>46071.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5917</v>
+        <v>6224</v>
       </c>
       <c r="B16" s="2">
-        <v>46070.11458333334</v>
+        <v>46071.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5910</v>
+        <v>6243</v>
       </c>
       <c r="B17" s="2">
-        <v>46070.125</v>
+        <v>46071.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6021</v>
+        <v>6175</v>
       </c>
       <c r="B18" s="2">
-        <v>46070.13541666666</v>
+        <v>46071.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6059</v>
+        <v>6197</v>
       </c>
       <c r="B19" s="2">
-        <v>46070.14583333334</v>
+        <v>46071.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6056</v>
+        <v>6206</v>
       </c>
       <c r="B20" s="2">
-        <v>46070.15625</v>
+        <v>46071.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6100</v>
+        <v>6292</v>
       </c>
       <c r="B21" s="2">
-        <v>46070.16666666666</v>
+        <v>46071.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6221</v>
+        <v>6327</v>
       </c>
       <c r="B22" s="2">
-        <v>46070.17708333334</v>
+        <v>46071.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6391</v>
+        <v>6392</v>
       </c>
       <c r="B23" s="2">
-        <v>46070.1875</v>
+        <v>46071.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6459</v>
+        <v>6434</v>
       </c>
       <c r="B24" s="2">
-        <v>46070.19791666666</v>
+        <v>46071.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6727</v>
+        <v>6523</v>
       </c>
       <c r="B25" s="2">
-        <v>46070.20833333334</v>
+        <v>46071.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6880</v>
+        <v>6664</v>
       </c>
       <c r="B26" s="2">
-        <v>46070.21875</v>
+        <v>46071.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6975</v>
+        <v>6850</v>
       </c>
       <c r="B27" s="2">
-        <v>46070.22916666666</v>
+        <v>46071.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7071</v>
+        <v>6964</v>
       </c>
       <c r="B28" s="2">
-        <v>46070.23958333334</v>
+        <v>46071.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7360</v>
+        <v>7102</v>
       </c>
       <c r="B29" s="2">
-        <v>46070.25</v>
+        <v>46071.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7480</v>
+        <v>7322</v>
       </c>
       <c r="B30" s="2">
-        <v>46070.26041666666</v>
+        <v>46071.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7661</v>
+        <v>7478</v>
       </c>
       <c r="B31" s="2">
-        <v>46070.27083333334</v>
+        <v>46071.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7804</v>
+        <v>7572</v>
       </c>
       <c r="B32" s="2">
-        <v>46070.28125</v>
+        <v>46071.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>8068</v>
+        <v>7739</v>
       </c>
       <c r="B33" s="2">
-        <v>46070.29166666666</v>
+        <v>46071.28125</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -397,258 +397,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6624</v>
+        <v>6378</v>
       </c>
       <c r="B2" s="2">
-        <v>46070.95833333334</v>
+        <v>46072.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6509</v>
+        <v>6260</v>
       </c>
       <c r="B3" s="2">
-        <v>46070.96875</v>
+        <v>46072.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6461</v>
+        <v>6235</v>
       </c>
       <c r="B4" s="2">
-        <v>46070.97916666666</v>
+        <v>46072.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6422</v>
+        <v>6153</v>
       </c>
       <c r="B5" s="2">
-        <v>46070.98958333334</v>
+        <v>46072.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>6467</v>
+        <v>6143</v>
       </c>
       <c r="B6" s="2">
-        <v>46071</v>
+        <v>46073</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6388</v>
+        <v>6056</v>
       </c>
       <c r="B7" s="2">
-        <v>46071.01041666666</v>
+        <v>46073.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6384</v>
+        <v>6069</v>
       </c>
       <c r="B8" s="2">
-        <v>46071.02083333334</v>
+        <v>46073.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6324</v>
+        <v>6008</v>
       </c>
       <c r="B9" s="2">
-        <v>46071.03125</v>
+        <v>46073.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>6322</v>
+        <v>6033</v>
       </c>
       <c r="B10" s="2">
-        <v>46071.04166666666</v>
+        <v>46073.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>6258</v>
+        <v>5985</v>
       </c>
       <c r="B11" s="2">
-        <v>46071.05208333334</v>
+        <v>46073.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>6252</v>
+        <v>6030</v>
       </c>
       <c r="B12" s="2">
-        <v>46071.0625</v>
+        <v>46073.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>6246</v>
+        <v>5993</v>
       </c>
       <c r="B13" s="2">
-        <v>46071.07291666666</v>
+        <v>46073.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>6210</v>
+        <v>6012</v>
       </c>
       <c r="B14" s="2">
-        <v>46071.08333333334</v>
+        <v>46073.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>6194</v>
+        <v>5999</v>
       </c>
       <c r="B15" s="2">
-        <v>46071.09375</v>
+        <v>46073.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>6224</v>
+        <v>6039</v>
       </c>
       <c r="B16" s="2">
-        <v>46071.10416666666</v>
+        <v>46073.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6243</v>
+        <v>6017</v>
       </c>
       <c r="B17" s="2">
-        <v>46071.11458333334</v>
+        <v>46073.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6175</v>
+        <v>6038</v>
       </c>
       <c r="B18" s="2">
-        <v>46071.125</v>
+        <v>46073.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6197</v>
+        <v>6008</v>
       </c>
       <c r="B19" s="2">
-        <v>46071.13541666666</v>
+        <v>46073.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6206</v>
+        <v>6100</v>
       </c>
       <c r="B20" s="2">
-        <v>46071.14583333334</v>
+        <v>46073.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6292</v>
+        <v>6105</v>
       </c>
       <c r="B21" s="2">
-        <v>46071.15625</v>
+        <v>46073.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6327</v>
+        <v>6208</v>
       </c>
       <c r="B22" s="2">
-        <v>46071.16666666666</v>
+        <v>46073.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6392</v>
+        <v>6205</v>
       </c>
       <c r="B23" s="2">
-        <v>46071.17708333334</v>
+        <v>46073.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6434</v>
+        <v>6297</v>
       </c>
       <c r="B24" s="2">
-        <v>46071.1875</v>
+        <v>46073.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6523</v>
+        <v>6418</v>
       </c>
       <c r="B25" s="2">
-        <v>46071.19791666666</v>
+        <v>46073.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6664</v>
+        <v>6605</v>
       </c>
       <c r="B26" s="2">
-        <v>46071.20833333334</v>
+        <v>46073.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6850</v>
+        <v>6745</v>
       </c>
       <c r="B27" s="2">
-        <v>46071.21875</v>
+        <v>46073.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6964</v>
+        <v>6845</v>
       </c>
       <c r="B28" s="2">
-        <v>46071.22916666666</v>
+        <v>46073.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7102</v>
+        <v>7008</v>
       </c>
       <c r="B29" s="2">
-        <v>46071.23958333334</v>
+        <v>46073.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7322</v>
+        <v>7211</v>
       </c>
       <c r="B30" s="2">
-        <v>46071.25</v>
+        <v>46073.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7478</v>
+        <v>7400</v>
       </c>
       <c r="B31" s="2">
-        <v>46071.26041666666</v>
+        <v>46073.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7572</v>
+        <v>7481</v>
       </c>
       <c r="B32" s="2">
-        <v>46071.27083333334</v>
+        <v>46073.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7739</v>
+        <v>7647</v>
       </c>
       <c r="B33" s="2">
-        <v>46071.28125</v>
+        <v>46073.28125</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,258 +397,266 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6378</v>
+        <v>6412</v>
       </c>
       <c r="B2" s="2">
-        <v>46072.95833333334</v>
+        <v>46073.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6260</v>
+        <v>6341</v>
       </c>
       <c r="B3" s="2">
-        <v>46072.96875</v>
+        <v>46073.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6235</v>
+        <v>6293</v>
       </c>
       <c r="B4" s="2">
-        <v>46072.97916666666</v>
+        <v>46073.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6153</v>
+        <v>6234</v>
       </c>
       <c r="B5" s="2">
-        <v>46072.98958333334</v>
+        <v>46073.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>6143</v>
+        <v>6261</v>
       </c>
       <c r="B6" s="2">
-        <v>46073</v>
+        <v>46074</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6056</v>
+        <v>6206</v>
       </c>
       <c r="B7" s="2">
-        <v>46073.01041666666</v>
+        <v>46074.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6069</v>
+        <v>6209</v>
       </c>
       <c r="B8" s="2">
-        <v>46073.02083333334</v>
+        <v>46074.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6008</v>
+        <v>6166</v>
       </c>
       <c r="B9" s="2">
-        <v>46073.03125</v>
+        <v>46074.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>6033</v>
+        <v>6104</v>
       </c>
       <c r="B10" s="2">
-        <v>46073.04166666666</v>
+        <v>46074.04166666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5985</v>
+        <v>6065</v>
       </c>
       <c r="B11" s="2">
-        <v>46073.05208333334</v>
+        <v>46074.05208333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>6030</v>
+        <v>6056</v>
       </c>
       <c r="B12" s="2">
-        <v>46073.0625</v>
+        <v>46074.0625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5993</v>
+        <v>6038</v>
       </c>
       <c r="B13" s="2">
-        <v>46073.07291666666</v>
+        <v>46074.07291666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>6012</v>
+        <v>5994</v>
       </c>
       <c r="B14" s="2">
-        <v>46073.08333333334</v>
+        <v>46074.08333333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5999</v>
+        <v>5969</v>
       </c>
       <c r="B15" s="2">
-        <v>46073.09375</v>
+        <v>46074.09375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>6039</v>
+        <v>5990</v>
       </c>
       <c r="B16" s="2">
-        <v>46073.10416666666</v>
+        <v>46074.10416666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6017</v>
+        <v>5980</v>
       </c>
       <c r="B17" s="2">
-        <v>46073.11458333334</v>
+        <v>46074.11458333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6038</v>
+        <v>5994</v>
       </c>
       <c r="B18" s="2">
-        <v>46073.125</v>
+        <v>46074.125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6008</v>
+        <v>5976</v>
       </c>
       <c r="B19" s="2">
-        <v>46073.13541666666</v>
+        <v>46074.13541666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6100</v>
+        <v>5992</v>
       </c>
       <c r="B20" s="2">
-        <v>46073.14583333334</v>
+        <v>46074.14583333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6105</v>
+        <v>6006</v>
       </c>
       <c r="B21" s="2">
-        <v>46073.15625</v>
+        <v>46074.15625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6208</v>
+        <v>6040</v>
       </c>
       <c r="B22" s="2">
-        <v>46073.16666666666</v>
+        <v>46074.16666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6205</v>
+        <v>6061</v>
       </c>
       <c r="B23" s="2">
-        <v>46073.17708333334</v>
+        <v>46074.17708333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6297</v>
+        <v>6095</v>
       </c>
       <c r="B24" s="2">
-        <v>46073.1875</v>
+        <v>46074.1875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6418</v>
+        <v>6130</v>
       </c>
       <c r="B25" s="2">
-        <v>46073.19791666666</v>
+        <v>46074.19791666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6605</v>
+        <v>6167</v>
       </c>
       <c r="B26" s="2">
-        <v>46073.20833333334</v>
+        <v>46074.20833333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6745</v>
+        <v>6202</v>
       </c>
       <c r="B27" s="2">
-        <v>46073.21875</v>
+        <v>46074.21875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6845</v>
+        <v>6241</v>
       </c>
       <c r="B28" s="2">
-        <v>46073.22916666666</v>
+        <v>46074.22916666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7008</v>
+        <v>6294</v>
       </c>
       <c r="B29" s="2">
-        <v>46073.23958333334</v>
+        <v>46074.23958333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7211</v>
+        <v>6289</v>
       </c>
       <c r="B30" s="2">
-        <v>46073.25</v>
+        <v>46074.25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7400</v>
+        <v>6472</v>
       </c>
       <c r="B31" s="2">
-        <v>46073.26041666666</v>
+        <v>46074.26041666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7481</v>
+        <v>6551</v>
       </c>
       <c r="B32" s="2">
-        <v>46073.27083333334</v>
+        <v>46074.27083333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7647</v>
+        <v>6735</v>
       </c>
       <c r="B33" s="2">
-        <v>46073.28125</v>
+        <v>46074.28125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>6884</v>
+      </c>
+      <c r="B34" s="2">
+        <v>46074.29166666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Actual.xlsx
+++ b/data_fetching/Entsoe/Consumption_Actual.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,266 +397,338 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6412</v>
+        <v>6262</v>
       </c>
       <c r="B2" s="2">
-        <v>46073.95833333334</v>
+        <v>46078.95833333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6341</v>
+        <v>6217</v>
       </c>
       <c r="B3" s="2">
-        <v>46073.96875</v>
+        <v>46078.96875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6293</v>
+        <v>6168</v>
       </c>
       <c r="B4" s="2">
-        <v>46073.97916666666</v>
+        <v>46078.97916666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6234</v>
+        <v>6113</v>
       </c>
       <c r="B5" s="2">
-        <v>46073.98958333334</v>
+        <v>46078.98958333334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>6261</v>
+        <v>6125</v>
       </c>
       <c r="B6" s="2">
-        <v>46074</v>
+        <v>46079</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6206</v>
+        <v>6048</v>
       </c>
       <c r="B7" s="2">
-        <v>46074.01041666666</v>
+        <v>46079.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6209</v>
+        <v>6031</v>
       </c>
       <c r="B8" s="2">
-        <v>46074.02083333334</v>
+        <v>46079.02083333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>6166</v>
+        <v>5978</v>
       </c>
       <c r="B9" s="2">
-        <v>46074.03125</v>
+        <v>46079.04166666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>6104</v>
+        <v>5929</v>
       </c>
       <c r="B10" s="2">
-        <v>46074.04166666666</v>
+        <v>46079.05208333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>6065</v>
+        <v>5912</v>
       </c>
       <c r="B11" s="2">
-        <v>46074.05208333334</v>
+        <v>46079.0625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>6056</v>
+        <v>5898</v>
       </c>
       <c r="B12" s="2">
-        <v>46074.0625</v>
+        <v>46079.07291666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>6038</v>
+        <v>5886</v>
       </c>
       <c r="B13" s="2">
-        <v>46074.07291666666</v>
+        <v>46079.08333333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5994</v>
+        <v>5895</v>
       </c>
       <c r="B14" s="2">
-        <v>46074.08333333334</v>
+        <v>46079.09375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5969</v>
+        <v>5856</v>
       </c>
       <c r="B15" s="2">
-        <v>46074.09375</v>
+        <v>46079.10416666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5990</v>
+        <v>5925</v>
       </c>
       <c r="B16" s="2">
-        <v>46074.10416666666</v>
+        <v>46079.11458333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5980</v>
+        <v>5924</v>
       </c>
       <c r="B17" s="2">
-        <v>46074.11458333334</v>
+        <v>46079.125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5994</v>
+        <v>5955</v>
       </c>
       <c r="B18" s="2">
-        <v>46074.125</v>
+        <v>46079.13541666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5976</v>
+        <v>5935</v>
       </c>
       <c r="B19" s="2">
-        <v>46074.13541666666</v>
+        <v>46079.14583333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5992</v>
+        <v>5960</v>
       </c>
       <c r="B20" s="2">
-        <v>46074.14583333334</v>
+        <v>46079.15625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6006</v>
+        <v>6087</v>
       </c>
       <c r="B21" s="2">
-        <v>46074.15625</v>
+        <v>46079.16666666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6040</v>
+        <v>6137</v>
       </c>
       <c r="B22" s="2">
-        <v>46074.16666666666</v>
+        <v>46079.17708333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6061</v>
+        <v>6226</v>
       </c>
       <c r="B23" s="2">
-        <v>46074.17708333334</v>
+        <v>46079.1875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6095</v>
+        <v>6328</v>
       </c>
       <c r="B24" s="2">
-        <v>46074.1875</v>
+        <v>46079.19791666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6130</v>
+        <v>6546</v>
       </c>
       <c r="B25" s="2">
-        <v>46074.19791666666</v>
+        <v>46079.20833333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6167</v>
+        <v>6707</v>
       </c>
       <c r="B26" s="2">
-        <v>46074.20833333334</v>
+        <v>46079.21875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6202</v>
+        <v>6791</v>
       </c>
       <c r="B27" s="2">
-        <v>46074.21875</v>
+        <v>46079.22916666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6241</v>
+        <v>6971</v>
       </c>
       <c r="B28" s="2">
-        <v>46074.22916666666</v>
+        <v>46079.23958333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6294</v>
+        <v>7154</v>
       </c>
       <c r="B29" s="2">
-        <v>46074.23958333334</v>
+        <v>46079.25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6289</v>
+        <v>7393</v>
       </c>
       <c r="B30" s="2">
-        <v>46074.25</v>
+        <v>46079.26041666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6472</v>
+        <v>7498</v>
       </c>
       <c r="B31" s="2">
-        <v>46074.26041666666</v>
+        <v>46079.27083333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6551</v>
+        <v>7558</v>
       </c>
       <c r="B32" s="2">
-        <v>46074.27083333334</v>
+        <v>46079.28125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6735</v>
+        <v>7633</v>
       </c>
       <c r="B33" s="2">
-        <v>46074.28125</v>
+        <v>46079.29166666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6884</v>
+        <v>7648</v>
       </c>
       <c r="B34" s="2">
-        <v>46074.29166666666</v>
+        <v>46079.30208333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>7607</v>
+      </c>
+      <c r="B35" s="2">
+        <v>46079.3125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>7569</v>
+      </c>
+      <c r="B36" s="2">
+        <v>46079.32291666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>7562</v>
+      </c>
+      <c r="B37" s="2">
+        <v>46079.33333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>7518</v>
+      </c>
+      <c r="B38" s="2">
+        <v>46079.34375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>7459</v>
+      </c>
+      <c r="B39" s="2">
+        <v>46079.35416666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>7365</v>
+      </c>
+      <c r="B40" s="2">
+        <v>46079.36458333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>7149</v>
+      </c>
+      <c r="B41" s="2">
+        <v>46079.375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>7015</v>
+      </c>
+      <c r="B42" s="2">
+        <v>46079.38541666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>6910</v>
+      </c>
+      <c r="B43" s="2">
+        <v>46079.39583333334</v>
       </c>
     </row>
   </sheetData>
